--- a/py/apps/web-scraper/Files/Final/Course-Tracker-AWS-Solutions-Architect–Associate-SAA-C02.xlsx
+++ b/py/apps/web-scraper/Files/Final/Course-Tracker-AWS-Solutions-Architect–Associate-SAA-C02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\Playground\py\apps\web-scraper\Files\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4200FC2-84E6-4601-AFC3-70722411BFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28BAFB-C7E5-41C2-B9F7-40EFBFC6818D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="10" state="hidden" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5125" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5162" uniqueCount="1346">
   <si>
     <t>Done</t>
   </si>
@@ -2263,291 +2263,159 @@
     <t>Course Introduction</t>
   </si>
   <si>
-    <t>00:04:54</t>
-  </si>
-  <si>
     <t>About the Training Architect</t>
   </si>
   <si>
-    <t>00:01:29</t>
-  </si>
-  <si>
     <t>Working as a Solutions Architect</t>
   </si>
   <si>
-    <t>00:05:29</t>
-  </si>
-  <si>
     <t>Creating an AWS Account, AWS Free Tier, Usage Tracking, and Billing Widget</t>
   </si>
   <si>
-    <t>00:19:14</t>
-  </si>
-  <si>
     <t>Architecture 101</t>
   </si>
   <si>
     <t>Access Management</t>
   </si>
   <si>
-    <t>00:05:11</t>
-  </si>
-  <si>
     <t>Shared Responsibility/Security Model</t>
   </si>
   <si>
-    <t>00:04:34</t>
-  </si>
-  <si>
     <t>Service Models</t>
   </si>
   <si>
-    <t>00:09:02</t>
-  </si>
-  <si>
     <t>High Availability vs. Fault Tolerance</t>
   </si>
   <si>
-    <t>00:08:12</t>
-  </si>
-  <si>
     <t>RPO vs. RTO</t>
   </si>
   <si>
-    <t>00:06:12</t>
-  </si>
-  <si>
     <t>Scaling</t>
   </si>
   <si>
-    <t>00:05:58</t>
-  </si>
-  <si>
     <t>Tiered Application Design</t>
   </si>
   <si>
     <t>Encryption</t>
   </si>
   <si>
-    <t>00:14:30</t>
-  </si>
-  <si>
     <t>Architecture Odds and Ends</t>
   </si>
   <si>
-    <t>00:10:29</t>
-  </si>
-  <si>
-    <t>00:30:00</t>
-  </si>
-  <si>
     <t>AWS Architecture 101</t>
   </si>
   <si>
     <t>AWS Accounts</t>
   </si>
   <si>
-    <t>00:07:16</t>
-  </si>
-  <si>
     <t>AWS Physical and Networking Layer</t>
   </si>
   <si>
-    <t>00:14:08</t>
-  </si>
-  <si>
     <t>Well-Architected Framework</t>
   </si>
   <si>
-    <t>00:14:44</t>
-  </si>
-  <si>
     <t>Elasticity</t>
   </si>
   <si>
-    <t>00:08:25</t>
-  </si>
-  <si>
     <t>AWS Product Fundamentals</t>
   </si>
   <si>
     <t>Console Tour and Navigation</t>
   </si>
   <si>
-    <t>00:08:57</t>
-  </si>
-  <si>
     <t>Introduction to S3</t>
   </si>
   <si>
-    <t>00:16:29</t>
-  </si>
-  <si>
     <t>Introduction to CloudFormation</t>
   </si>
   <si>
-    <t>00:18:50</t>
-  </si>
-  <si>
     <t>Getting Started with CloudFormation</t>
   </si>
   <si>
-    <t>01:00:00</t>
-  </si>
-  <si>
     <t>IAM (Identity and Access Management)</t>
   </si>
   <si>
     <t>IAM Essentials</t>
   </si>
   <si>
-    <t>00:14:34</t>
-  </si>
-  <si>
     <t>IAM Policies</t>
   </si>
   <si>
-    <t>00:15:37</t>
-  </si>
-  <si>
     <t>IAM Users</t>
   </si>
   <si>
-    <t>00:16:07</t>
-  </si>
-  <si>
     <t>IAM Groups</t>
   </si>
   <si>
-    <t>00:08:44</t>
-  </si>
-  <si>
     <t>IAM Access Keys</t>
   </si>
   <si>
-    <t>00:08:36</t>
-  </si>
-  <si>
     <t>Securing Your Account — Creating an IAM User and Setting Up the CLI</t>
   </si>
   <si>
-    <t>00:15:15</t>
-  </si>
-  <si>
     <t>IAM Roles</t>
   </si>
   <si>
-    <t>00:17:38</t>
-  </si>
-  <si>
     <t>Multi-Account Management and Organizations</t>
   </si>
   <si>
     <t>AWS Organizations</t>
   </si>
   <si>
-    <t>00:14:29</t>
-  </si>
-  <si>
     <t>Role Switching Between Accounts</t>
   </si>
   <si>
-    <t>00:16:35</t>
-  </si>
-  <si>
-    <t>00:15:00</t>
-  </si>
-  <si>
     <t>Server-Based Compute (EC2) Fundamentals</t>
   </si>
   <si>
     <t>EC2 Architecture: Part 1</t>
   </si>
   <si>
-    <t>00:14:23</t>
-  </si>
-  <si>
     <t>EC2 Architecture: Part 2</t>
   </si>
   <si>
     <t>Instance Types and Sizes</t>
   </si>
   <si>
-    <t>00:16:09</t>
-  </si>
-  <si>
     <t>EC2 Storage Architecture: Part 1</t>
   </si>
   <si>
-    <t>00:11:03</t>
-  </si>
-  <si>
     <t>EC2 Storage Architecture: Part 2</t>
   </si>
   <si>
-    <t>00:17:27</t>
-  </si>
-  <si>
     <t>EBS Snapshots</t>
   </si>
   <si>
-    <t>00:12:15</t>
-  </si>
-  <si>
     <t>Security Groups</t>
   </si>
   <si>
-    <t>00:17:40</t>
-  </si>
-  <si>
     <t>Instance Metadata</t>
   </si>
   <si>
-    <t>00:06:57</t>
-  </si>
-  <si>
     <t>Creating and Working with an EC2 Instance</t>
   </si>
   <si>
-    <t>00:45:00</t>
-  </si>
-  <si>
     <t>Server-Based Compute (EC2) Intermediate</t>
   </si>
   <si>
     <t>AMI</t>
   </si>
   <si>
-    <t>00:15:05</t>
-  </si>
-  <si>
     <t>Bootstrap</t>
   </si>
   <si>
-    <t>00:08:18</t>
-  </si>
-  <si>
     <t>Instance ENI, IP, and DNS: Part 1</t>
   </si>
   <si>
     <t>Instance ENI, IP, and DNS: Part 2</t>
   </si>
   <si>
-    <t>00:13:14</t>
-  </si>
-  <si>
     <t>Instance Roles</t>
   </si>
   <si>
-    <t>00:14:45</t>
-  </si>
-  <si>
     <t>Using EC2 Roles and Instance Profiles</t>
   </si>
   <si>
-    <t>02:00:00</t>
-  </si>
-  <si>
     <t>Using AWS Tags and Resource Groups</t>
   </si>
   <si>
@@ -2557,252 +2425,138 @@
     <t>EBS Volume and Snapshot Encryption</t>
   </si>
   <si>
-    <t>00:11:49</t>
-  </si>
-  <si>
     <t>EBS Optimization, Enhanced Networking, and Placement Groups</t>
   </si>
   <si>
-    <t>00:15:26</t>
-  </si>
-  <si>
     <t>EC2 Billing Models: Part 1 - Spot and Spot Fleet</t>
   </si>
   <si>
-    <t>00:09:47</t>
-  </si>
-  <si>
     <t>EC2 Billing Models: Part 2 - Reserved Instances</t>
   </si>
   <si>
-    <t>00:13:16</t>
-  </si>
-  <si>
     <t>Dedicated Hosts</t>
   </si>
   <si>
-    <t>00:04:50</t>
-  </si>
-  <si>
     <t>Serverless Compute (Lambda)</t>
   </si>
   <si>
     <t>What Are APIs and Microservices?</t>
   </si>
   <si>
-    <t>00:09:42</t>
-  </si>
-  <si>
     <t>Serverless and Event-Driven Architectures</t>
   </si>
   <si>
-    <t>00:16:43</t>
-  </si>
-  <si>
     <t>Lambda Essentials: Part 1</t>
   </si>
   <si>
-    <t>00:13:02</t>
-  </si>
-  <si>
     <t>Lambda Essentials: Part 2</t>
   </si>
   <si>
-    <t>00:13:28</t>
-  </si>
-  <si>
     <t>API Gateway Essentials: Part 1</t>
   </si>
   <si>
-    <t>00:12:39</t>
-  </si>
-  <si>
     <t>API Gateway Essentials: Part 2</t>
   </si>
   <si>
     <t>Step Functions</t>
   </si>
   <si>
-    <t>00:14:09</t>
-  </si>
-  <si>
     <t>Container-Based Compute and Microservices</t>
   </si>
   <si>
     <t>Docker Essentials</t>
   </si>
   <si>
-    <t>00:18:01</t>
-  </si>
-  <si>
     <t>ECS</t>
   </si>
   <si>
-    <t>00:12:21</t>
-  </si>
-  <si>
     <t>Networking Fundamentals</t>
   </si>
   <si>
-    <t>00:02:00</t>
-  </si>
-  <si>
     <t>Seven-Layer OSI Model: Part 1</t>
   </si>
   <si>
-    <t>00:13:20</t>
-  </si>
-  <si>
     <t>Seven-Layer OSI Model: Part 2</t>
   </si>
   <si>
-    <t>00:07:28</t>
-  </si>
-  <si>
     <t>IP Addressing Basics</t>
   </si>
   <si>
-    <t>00:17:25</t>
-  </si>
-  <si>
     <t>Subnetting</t>
   </si>
   <si>
-    <t>00:08:23</t>
-  </si>
-  <si>
     <t>IP Routing</t>
   </si>
   <si>
-    <t>00:13:04</t>
-  </si>
-  <si>
     <t>Firewalls</t>
   </si>
   <si>
-    <t>00:05:52</t>
-  </si>
-  <si>
     <t>Proxy Servers</t>
   </si>
   <si>
-    <t>00:05:09</t>
-  </si>
-  <si>
     <t>Virtual Private Cloud (VPC)</t>
   </si>
   <si>
     <t>Virtual Private Cloud (VPC) and Subnets: Part 1</t>
   </si>
   <si>
-    <t>00:09:24</t>
-  </si>
-  <si>
     <t>Virtual Private Cloud (VPC) and Subnets: Part 2</t>
   </si>
   <si>
-    <t>00:14:48</t>
-  </si>
-  <si>
     <t>Routing and Internet Gateway</t>
   </si>
   <si>
-    <t>00:17:00</t>
-  </si>
-  <si>
     <t>Bastion Host/JumpBox</t>
   </si>
   <si>
-    <t>00:09:51</t>
-  </si>
-  <si>
     <t>NAT, NAT Instance, and NAT Gateway: Part 1</t>
   </si>
   <si>
-    <t>00:08:02</t>
-  </si>
-  <si>
     <t>NAT, NAT Instance, and NAT Gateway: Part 2</t>
   </si>
   <si>
-    <t>00:11:25</t>
-  </si>
-  <si>
     <t>Network ACLs</t>
   </si>
   <si>
     <t>Designing and Building a Custom VPC from Scratch</t>
   </si>
   <si>
-    <t>01:30:00</t>
-  </si>
-  <si>
     <t>Advanced VPC</t>
   </si>
   <si>
     <t>VPC Peering: Part 1</t>
   </si>
   <si>
-    <t>00:09:43</t>
-  </si>
-  <si>
     <t>VPC Peering: Part 2</t>
   </si>
   <si>
-    <t>00:13:13</t>
-  </si>
-  <si>
     <t>VPC Endpoints: Part 1</t>
   </si>
   <si>
-    <t>00:10:59</t>
-  </si>
-  <si>
     <t>VPC Endpoints: Part 2</t>
   </si>
   <si>
-    <t>00:08:29</t>
-  </si>
-  <si>
     <t>IPv6 within AWS</t>
   </si>
   <si>
-    <t>00:07:41</t>
-  </si>
-  <si>
     <t>Egress-Only Gateway</t>
   </si>
   <si>
-    <t>00:04:21</t>
-  </si>
-  <si>
     <t>Implementing VPC Peering on AWS</t>
   </si>
   <si>
     <t>Global DNS (Route 53) Fundamentals</t>
   </si>
   <si>
-    <t>00:17:04</t>
-  </si>
-  <si>
     <t>Domain Registration</t>
   </si>
   <si>
-    <t>00:06:32</t>
-  </si>
-  <si>
     <t>Private vs. Public Hosted Zones</t>
   </si>
   <si>
-    <t>00:17:11</t>
-  </si>
-  <si>
     <t>Record Set Types</t>
   </si>
   <si>
-    <t>00:08:43</t>
-  </si>
-  <si>
     <t>Health Checks</t>
   </si>
   <si>
@@ -2815,63 +2569,33 @@
     <t>Routing Policy: Failover</t>
   </si>
   <si>
-    <t>00:14:46</t>
-  </si>
-  <si>
     <t>Routing Policy: Weighted</t>
   </si>
   <si>
-    <t>00:07:55</t>
-  </si>
-  <si>
     <t>Routing Policy: Latency</t>
   </si>
   <si>
-    <t>00:08:35</t>
-  </si>
-  <si>
     <t>Routing Policy: Geolocation</t>
   </si>
   <si>
-    <t>00:10:15</t>
-  </si>
-  <si>
     <t>S3 Architecture and Features</t>
   </si>
   <si>
     <t>Permissions</t>
   </si>
   <si>
-    <t>00:16:05</t>
-  </si>
-  <si>
     <t>Transferring Data to S3</t>
   </si>
   <si>
-    <t>00:07:31</t>
-  </si>
-  <si>
-    <t>00:14:47</t>
-  </si>
-  <si>
     <t>Static Websites and CORS</t>
   </si>
   <si>
-    <t>00:11:35</t>
-  </si>
-  <si>
     <t>Object Versioning</t>
   </si>
   <si>
-    <t>00:06:42</t>
-  </si>
-  <si>
     <t>Presigned URLs</t>
   </si>
   <si>
-    <t>00:07:20</t>
-  </si>
-  <si>
     <t>Creating a Static Website Using Amazon S3</t>
   </si>
   <si>
@@ -2881,69 +2605,39 @@
     <t>Storage Tiers/Classes</t>
   </si>
   <si>
-    <t>00:11:45</t>
-  </si>
-  <si>
     <t>Lifecycle Policies and Intelligent-Tiering</t>
   </si>
   <si>
-    <t>00:08:27</t>
-  </si>
-  <si>
     <t>Cross-Region Replication (CRR)</t>
   </si>
   <si>
-    <t>00:10:55</t>
-  </si>
-  <si>
     <t>CloudFront Architecture: Part 1</t>
   </si>
   <si>
-    <t>00:09:07</t>
-  </si>
-  <si>
     <t>CloudFront Architecture: Part 2</t>
   </si>
   <si>
-    <t>00:10:26</t>
-  </si>
-  <si>
     <t>OAI</t>
   </si>
   <si>
-    <t>00:07:45</t>
-  </si>
-  <si>
     <t>Network File Systems</t>
   </si>
   <si>
     <t>EFS Fundamentals: Part 1</t>
   </si>
   <si>
-    <t>00:12:26</t>
-  </si>
-  <si>
     <t>EFS Fundamentals: Part 2</t>
   </si>
   <si>
-    <t>00:11:39</t>
-  </si>
-  <si>
     <t>Storage and Content Delivery</t>
   </si>
   <si>
-    <t>01:15:00</t>
-  </si>
-  <si>
     <t>Database Fundamentals</t>
   </si>
   <si>
     <t>Database Models</t>
   </si>
   <si>
-    <t>00:15:30</t>
-  </si>
-  <si>
     <t>SQL — RDS</t>
   </si>
   <si>
@@ -2953,27 +2647,15 @@
     <t>RDS Essentials: Part 2</t>
   </si>
   <si>
-    <t>00:17:53</t>
-  </si>
-  <si>
     <t>RDS Backups and Restore</t>
   </si>
   <si>
-    <t>00:15:33</t>
-  </si>
-  <si>
     <t>RDS Resiliency: Multi-AZ</t>
   </si>
   <si>
-    <t>00:10:27</t>
-  </si>
-  <si>
     <t>RDS Read Replicas</t>
   </si>
   <si>
-    <t>00:13:01</t>
-  </si>
-  <si>
     <t>Database Fundamentals and SQL — RDS</t>
   </si>
   <si>
@@ -2983,96 +2665,54 @@
     <t>Aurora Essentials: Part 1</t>
   </si>
   <si>
-    <t>00:15:54</t>
-  </si>
-  <si>
     <t>Aurora Essentials: Part 2</t>
   </si>
   <si>
-    <t>00:14:37</t>
-  </si>
-  <si>
     <t>Parallel Queries and Aurora Global</t>
   </si>
   <si>
-    <t>00:07:33</t>
-  </si>
-  <si>
     <t>Aurora Serverless Essentials: Part 1</t>
   </si>
   <si>
-    <t>00:12:49</t>
-  </si>
-  <si>
     <t>Aurora Serverless Essentials: Part 2</t>
   </si>
   <si>
-    <t>00:08:00</t>
-  </si>
-  <si>
     <t>NoSQL</t>
   </si>
   <si>
     <t>DynamoDB Essentials: Part 1 — Tables and Items</t>
   </si>
   <si>
-    <t>00:14:03</t>
-  </si>
-  <si>
     <t>DynamoDB Essentials: Part 2 — Query and Scan</t>
   </si>
   <si>
-    <t>00:09:10</t>
-  </si>
-  <si>
     <t>DynamoDB Essentials: Part 3</t>
   </si>
   <si>
     <t>DynamoDB Performance and Billing</t>
   </si>
   <si>
-    <t>00:16:41</t>
-  </si>
-  <si>
     <t>DynamoDB Streams and Triggers</t>
   </si>
   <si>
-    <t>00:08:51</t>
-  </si>
-  <si>
     <t>DynamoDB Indexes: Part 1 — LSI</t>
   </si>
   <si>
-    <t>00:10:40</t>
-  </si>
-  <si>
     <t>DynamoDB Indexes: Part 2 — GSI</t>
   </si>
   <si>
-    <t>00:07:23</t>
-  </si>
-  <si>
     <t>In-Memory Caching</t>
   </si>
   <si>
     <t>DAX</t>
   </si>
   <si>
-    <t>00:05:38</t>
-  </si>
-  <si>
-    <t>00:03:47</t>
-  </si>
-  <si>
     <t>Load Balancing and Auto Scaling</t>
   </si>
   <si>
     <t>Load Balancing Fundamentals</t>
   </si>
   <si>
-    <t>00:10:00</t>
-  </si>
-  <si>
     <t>Classic Load Balancers and Health Checks: Part 1</t>
   </si>
   <si>
@@ -3085,39 +2725,21 @@
     <t>Application Load Balancers: Part 1</t>
   </si>
   <si>
-    <t>00:10:31</t>
-  </si>
-  <si>
     <t>Application Load Balancers: Part 2</t>
   </si>
   <si>
-    <t>00:12:54</t>
-  </si>
-  <si>
     <t>Network Load Balancers</t>
   </si>
   <si>
-    <t>00:04:29</t>
-  </si>
-  <si>
     <t>Launch Templates and Configurations</t>
   </si>
   <si>
-    <t>00:17:56</t>
-  </si>
-  <si>
     <t>Auto Scaling Groups: Part 1</t>
   </si>
   <si>
-    <t>00:13:29</t>
-  </si>
-  <si>
     <t>Auto Scaling Groups: Part 2</t>
   </si>
   <si>
-    <t>00:16:55</t>
-  </si>
-  <si>
     <t>Implementing an Auto Scaling Group and Application Load Balancer in AWS</t>
   </si>
   <si>
@@ -3127,45 +2749,27 @@
     <t>VPC VPN (IPsec)</t>
   </si>
   <si>
-    <t>00:17:39</t>
-  </si>
-  <si>
     <t>Direct Connect Architecture</t>
   </si>
   <si>
-    <t>00:10:54</t>
-  </si>
-  <si>
     <t>When to Pick Direct Connect vs. VPN</t>
   </si>
   <si>
-    <t>00:09:08</t>
-  </si>
-  <si>
     <t>Snow*</t>
   </si>
   <si>
     <t>Snowball, Snowball Edge, and Snowmobile</t>
   </si>
   <si>
-    <t>00:11:34</t>
-  </si>
-  <si>
     <t>Data and DB Migration</t>
   </si>
   <si>
     <t>Storage Gateway 101</t>
   </si>
   <si>
-    <t>00:12:11</t>
-  </si>
-  <si>
     <t>Database Migration Service 101</t>
   </si>
   <si>
-    <t>00:05:57</t>
-  </si>
-  <si>
     <t>Identity Federation and SSO</t>
   </si>
   <si>
@@ -3175,9 +2779,6 @@
     <t>When to Use Identity Federation</t>
   </si>
   <si>
-    <t>00:07:05</t>
-  </si>
-  <si>
     <t>Hybrid and Scaling</t>
   </si>
   <si>
@@ -3187,105 +2788,57 @@
     <t>Simple Notification Service (SNS)</t>
   </si>
   <si>
-    <t>00:11:42</t>
-  </si>
-  <si>
     <t>Simple Queue Service (SQS): Part 1</t>
   </si>
   <si>
     <t>Simple Queue Service (SQS): Part 2</t>
   </si>
   <si>
-    <t>00:10:21</t>
-  </si>
-  <si>
-    <t>00:06:26</t>
-  </si>
-  <si>
     <t>Analytics</t>
   </si>
   <si>
-    <t>00:10:41</t>
-  </si>
-  <si>
     <t>Elastic MapReduce (EMR)</t>
   </si>
   <si>
-    <t>00:09:12</t>
-  </si>
-  <si>
     <t>Kinesis and Firehose</t>
   </si>
   <si>
-    <t>00:12:36</t>
-  </si>
-  <si>
-    <t>00:06:55</t>
-  </si>
-  <si>
     <t>Logging and Monitoring</t>
   </si>
   <si>
     <t>CloudWatch</t>
   </si>
   <si>
-    <t>00:09:32</t>
-  </si>
-  <si>
     <t>CloudWatch Logs</t>
   </si>
   <si>
-    <t>00:10:20</t>
-  </si>
-  <si>
     <t>CloudTrail</t>
   </si>
   <si>
     <t>VPC Flow Logs</t>
   </si>
   <si>
-    <t>00:12:14</t>
-  </si>
-  <si>
     <t>Custom Logging Using CloudWatch and CloudWatch Logs</t>
   </si>
   <si>
     <t>Working with AWS VPC Flow Logs for Network Monitoring</t>
   </si>
   <si>
-    <t>01:45:00</t>
-  </si>
-  <si>
     <t>Operations</t>
   </si>
   <si>
     <t>CloudWatch Events</t>
   </si>
   <si>
-    <t>00:14:50</t>
-  </si>
-  <si>
     <t>KMS Essentials: Part 1</t>
   </si>
   <si>
-    <t>00:12:16</t>
-  </si>
-  <si>
     <t>KMS Essentials: Part 2</t>
   </si>
   <si>
-    <t>00:08:10</t>
-  </si>
-  <si>
     <t>Deployment</t>
   </si>
   <si>
-    <t>00:14:36</t>
-  </si>
-  <si>
-    <t>00:09:20</t>
-  </si>
-  <si>
     <t>Operations and Deployment</t>
   </si>
   <si>
@@ -3295,13 +2848,7 @@
     <t>How to Prepare for the Real Exam</t>
   </si>
   <si>
-    <t>00:10:13</t>
-  </si>
-  <si>
     <t>AWS Solutions Architect Associate (SAAC01) - Final Practice Exam</t>
-  </si>
-  <si>
-    <t>02:15:00</t>
   </si>
   <si>
     <t>03:01</t>
@@ -4030,6 +3577,558 @@
   </si>
   <si>
     <t>Schedule and make payment for Certification Exam</t>
+  </si>
+  <si>
+    <t>0:31:06</t>
+  </si>
+  <si>
+    <t>0:04:54</t>
+  </si>
+  <si>
+    <t>0:01:29</t>
+  </si>
+  <si>
+    <t>0:05:29</t>
+  </si>
+  <si>
+    <t>0:19:14</t>
+  </si>
+  <si>
+    <t>1:39:19</t>
+  </si>
+  <si>
+    <t>0:05:11</t>
+  </si>
+  <si>
+    <t>0:04:34</t>
+  </si>
+  <si>
+    <t>0:09:02</t>
+  </si>
+  <si>
+    <t>0:08:12</t>
+  </si>
+  <si>
+    <t>0:06:12</t>
+  </si>
+  <si>
+    <t>0:05:58</t>
+  </si>
+  <si>
+    <t>0:14:30</t>
+  </si>
+  <si>
+    <t>0:10:29</t>
+  </si>
+  <si>
+    <t>0:30:00</t>
+  </si>
+  <si>
+    <t>1:14:33</t>
+  </si>
+  <si>
+    <t>0:07:16</t>
+  </si>
+  <si>
+    <t>0:14:08</t>
+  </si>
+  <si>
+    <t>0:14:44</t>
+  </si>
+  <si>
+    <t>0:08:25</t>
+  </si>
+  <si>
+    <t>2:14:16</t>
+  </si>
+  <si>
+    <t>0:08:57</t>
+  </si>
+  <si>
+    <t>0:16:29</t>
+  </si>
+  <si>
+    <t>0:18:50</t>
+  </si>
+  <si>
+    <t>1:00:00</t>
+  </si>
+  <si>
+    <t>2:06:31</t>
+  </si>
+  <si>
+    <t>0:14:34</t>
+  </si>
+  <si>
+    <t>0:15:37</t>
+  </si>
+  <si>
+    <t>0:16:07</t>
+  </si>
+  <si>
+    <t>0:08:44</t>
+  </si>
+  <si>
+    <t>0:08:36</t>
+  </si>
+  <si>
+    <t>0:15:15</t>
+  </si>
+  <si>
+    <t>0:17:38</t>
+  </si>
+  <si>
+    <t>0:46:04</t>
+  </si>
+  <si>
+    <t>0:14:29</t>
+  </si>
+  <si>
+    <t>0:16:35</t>
+  </si>
+  <si>
+    <t>0:15:00</t>
+  </si>
+  <si>
+    <t>2:59:30</t>
+  </si>
+  <si>
+    <t>0:14:23</t>
+  </si>
+  <si>
+    <t>0:16:09</t>
+  </si>
+  <si>
+    <t>0:11:03</t>
+  </si>
+  <si>
+    <t>0:17:27</t>
+  </si>
+  <si>
+    <t>0:12:15</t>
+  </si>
+  <si>
+    <t>0:17:40</t>
+  </si>
+  <si>
+    <t>0:06:57</t>
+  </si>
+  <si>
+    <t>0:45:00</t>
+  </si>
+  <si>
+    <t>4:29:47</t>
+  </si>
+  <si>
+    <t>0:15:05</t>
+  </si>
+  <si>
+    <t>0:08:18</t>
+  </si>
+  <si>
+    <t>0:13:14</t>
+  </si>
+  <si>
+    <t>0:14:45</t>
+  </si>
+  <si>
+    <t>2:00:00</t>
+  </si>
+  <si>
+    <t>1:25:08</t>
+  </si>
+  <si>
+    <t>0:11:49</t>
+  </si>
+  <si>
+    <t>0:15:26</t>
+  </si>
+  <si>
+    <t>0:09:47</t>
+  </si>
+  <si>
+    <t>0:13:16</t>
+  </si>
+  <si>
+    <t>0:04:50</t>
+  </si>
+  <si>
+    <t>1:44:25</t>
+  </si>
+  <si>
+    <t>0:09:42</t>
+  </si>
+  <si>
+    <t>0:16:43</t>
+  </si>
+  <si>
+    <t>0:13:02</t>
+  </si>
+  <si>
+    <t>0:13:28</t>
+  </si>
+  <si>
+    <t>0:12:39</t>
+  </si>
+  <si>
+    <t>0:14:09</t>
+  </si>
+  <si>
+    <t>0:45:22</t>
+  </si>
+  <si>
+    <t>0:18:01</t>
+  </si>
+  <si>
+    <t>0:12:21</t>
+  </si>
+  <si>
+    <t>1:57:41</t>
+  </si>
+  <si>
+    <t>0:02:00</t>
+  </si>
+  <si>
+    <t>0:13:20</t>
+  </si>
+  <si>
+    <t>0:07:28</t>
+  </si>
+  <si>
+    <t>0:17:25</t>
+  </si>
+  <si>
+    <t>0:08:23</t>
+  </si>
+  <si>
+    <t>0:13:04</t>
+  </si>
+  <si>
+    <t>0:05:52</t>
+  </si>
+  <si>
+    <t>0:05:09</t>
+  </si>
+  <si>
+    <t>3:39:53</t>
+  </si>
+  <si>
+    <t>0:09:24</t>
+  </si>
+  <si>
+    <t>0:14:48</t>
+  </si>
+  <si>
+    <t>0:17:00</t>
+  </si>
+  <si>
+    <t>0:09:51</t>
+  </si>
+  <si>
+    <t>0:08:02</t>
+  </si>
+  <si>
+    <t>0:11:25</t>
+  </si>
+  <si>
+    <t>1:30:00</t>
+  </si>
+  <si>
+    <t>2:54:26</t>
+  </si>
+  <si>
+    <t>0:09:43</t>
+  </si>
+  <si>
+    <t>0:13:13</t>
+  </si>
+  <si>
+    <t>0:10:59</t>
+  </si>
+  <si>
+    <t>0:08:29</t>
+  </si>
+  <si>
+    <t>0:07:41</t>
+  </si>
+  <si>
+    <t>0:04:21</t>
+  </si>
+  <si>
+    <t>1:29:59</t>
+  </si>
+  <si>
+    <t>0:17:04</t>
+  </si>
+  <si>
+    <t>0:06:32</t>
+  </si>
+  <si>
+    <t>0:17:11</t>
+  </si>
+  <si>
+    <t>0:08:43</t>
+  </si>
+  <si>
+    <t>1:21:13</t>
+  </si>
+  <si>
+    <t>0:14:46</t>
+  </si>
+  <si>
+    <t>0:07:55</t>
+  </si>
+  <si>
+    <t>0:08:35</t>
+  </si>
+  <si>
+    <t>0:10:15</t>
+  </si>
+  <si>
+    <t>2:04:00</t>
+  </si>
+  <si>
+    <t>0:16:05</t>
+  </si>
+  <si>
+    <t>0:07:31</t>
+  </si>
+  <si>
+    <t>0:14:47</t>
+  </si>
+  <si>
+    <t>0:11:35</t>
+  </si>
+  <si>
+    <t>0:06:42</t>
+  </si>
+  <si>
+    <t>0:07:20</t>
+  </si>
+  <si>
+    <t>0:31:07</t>
+  </si>
+  <si>
+    <t>0:11:45</t>
+  </si>
+  <si>
+    <t>0:08:27</t>
+  </si>
+  <si>
+    <t>0:10:55</t>
+  </si>
+  <si>
+    <t>0:27:18</t>
+  </si>
+  <si>
+    <t>0:09:07</t>
+  </si>
+  <si>
+    <t>0:10:26</t>
+  </si>
+  <si>
+    <t>0:07:45</t>
+  </si>
+  <si>
+    <t>1:39:05</t>
+  </si>
+  <si>
+    <t>0:12:26</t>
+  </si>
+  <si>
+    <t>0:11:39</t>
+  </si>
+  <si>
+    <t>1:15:00</t>
+  </si>
+  <si>
+    <t>0:15:30</t>
+  </si>
+  <si>
+    <t>1:42:59</t>
+  </si>
+  <si>
+    <t>0:17:53</t>
+  </si>
+  <si>
+    <t>0:15:33</t>
+  </si>
+  <si>
+    <t>0:10:27</t>
+  </si>
+  <si>
+    <t>0:13:01</t>
+  </si>
+  <si>
+    <t>1:28:53</t>
+  </si>
+  <si>
+    <t>0:15:54</t>
+  </si>
+  <si>
+    <t>0:14:37</t>
+  </si>
+  <si>
+    <t>0:07:33</t>
+  </si>
+  <si>
+    <t>0:12:49</t>
+  </si>
+  <si>
+    <t>0:08:00</t>
+  </si>
+  <si>
+    <t>1:45:55</t>
+  </si>
+  <si>
+    <t>0:14:03</t>
+  </si>
+  <si>
+    <t>0:09:10</t>
+  </si>
+  <si>
+    <t>0:16:41</t>
+  </si>
+  <si>
+    <t>0:08:51</t>
+  </si>
+  <si>
+    <t>0:10:40</t>
+  </si>
+  <si>
+    <t>0:07:23</t>
+  </si>
+  <si>
+    <t>0:24:25</t>
+  </si>
+  <si>
+    <t>0:05:38</t>
+  </si>
+  <si>
+    <t>0:03:47</t>
+  </si>
+  <si>
+    <t>3:26:00</t>
+  </si>
+  <si>
+    <t>0:10:00</t>
+  </si>
+  <si>
+    <t>0:10:31</t>
+  </si>
+  <si>
+    <t>0:12:54</t>
+  </si>
+  <si>
+    <t>0:04:29</t>
+  </si>
+  <si>
+    <t>0:17:56</t>
+  </si>
+  <si>
+    <t>0:13:29</t>
+  </si>
+  <si>
+    <t>0:16:55</t>
+  </si>
+  <si>
+    <t>0:28:33</t>
+  </si>
+  <si>
+    <t>0:17:39</t>
+  </si>
+  <si>
+    <t>0:10:54</t>
+  </si>
+  <si>
+    <t>0:09:08</t>
+  </si>
+  <si>
+    <t>0:11:34</t>
+  </si>
+  <si>
+    <t>0:18:08</t>
+  </si>
+  <si>
+    <t>0:12:11</t>
+  </si>
+  <si>
+    <t>0:05:57</t>
+  </si>
+  <si>
+    <t>1:52:20</t>
+  </si>
+  <si>
+    <t>0:07:05</t>
+  </si>
+  <si>
+    <t>1:11:08</t>
+  </si>
+  <si>
+    <t>0:11:42</t>
+  </si>
+  <si>
+    <t>0:10:21</t>
+  </si>
+  <si>
+    <t>0:06:26</t>
+  </si>
+  <si>
+    <t>0:54:24</t>
+  </si>
+  <si>
+    <t>0:10:41</t>
+  </si>
+  <si>
+    <t>0:09:12</t>
+  </si>
+  <si>
+    <t>0:12:36</t>
+  </si>
+  <si>
+    <t>0:06:55</t>
+  </si>
+  <si>
+    <t>3:16:36</t>
+  </si>
+  <si>
+    <t>0:09:32</t>
+  </si>
+  <si>
+    <t>0:10:20</t>
+  </si>
+  <si>
+    <t>0:12:14</t>
+  </si>
+  <si>
+    <t>1:45:00</t>
+  </si>
+  <si>
+    <t>0:35:16</t>
+  </si>
+  <si>
+    <t>0:14:50</t>
+  </si>
+  <si>
+    <t>0:12:16</t>
+  </si>
+  <si>
+    <t>0:08:10</t>
+  </si>
+  <si>
+    <t>0:53:56</t>
+  </si>
+  <si>
+    <t>0:14:36</t>
+  </si>
+  <si>
+    <t>0:09:20</t>
+  </si>
+  <si>
+    <t>2:25:13</t>
+  </si>
+  <si>
+    <t>0:10:13</t>
   </si>
 </sst>
 </file>
@@ -4888,7 +4987,20 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5672,7 +5784,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5713,6 +5825,9 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5761,7 +5876,7 @@
       </c>
       <c r="D2" s="19"/>
       <c r="I2" s="68" t="s">
-        <v>1307</v>
+        <v>1156</v>
       </c>
       <c r="J2" s="68"/>
       <c r="K2" s="68"/>
@@ -6133,90 +6248,90 @@
     <mergeCell ref="C10:E10"/>
   </mergeCells>
   <conditionalFormatting sqref="C32:G35">
-    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>$B32="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>$B32="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>$B32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="33" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="22" stopIfTrue="1">
       <formula>$B6="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="23" stopIfTrue="1">
       <formula>$B6="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="24" stopIfTrue="1">
       <formula>$B6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="30" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="19" stopIfTrue="1">
       <formula>$B7="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="20" stopIfTrue="1">
       <formula>$B7="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="21" stopIfTrue="1">
       <formula>$B7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
       <formula>$B8="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
       <formula>$B8="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="18" stopIfTrue="1">
       <formula>$B8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="24" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
       <formula>$B15="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
       <formula>$B15="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
       <formula>$B15="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:G19">
-    <cfRule type="expression" dxfId="21" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
       <formula>$B16="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
       <formula>$B16="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
       <formula>$B16="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:G25">
-    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
       <formula>$B21="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
       <formula>$B21="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
       <formula>$B21="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:G30">
-    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$B27="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>$B27="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>$B27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6236,9 +6351,9 @@
   </sheetPr>
   <dimension ref="A1:BH37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6260,7 +6375,7 @@
     <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="9" t="s">
-        <v>1310</v>
+        <v>1159</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="61" t="str">
@@ -6353,7 +6468,7 @@
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
       <c r="D12" s="34" t="s">
-        <v>1312</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -6491,13 +6606,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:D37">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
       <formula>$B6="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>$B6="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>$B6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6553,7 +6668,7 @@
     <row r="3" spans="1:3" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="57" t="s">
-        <v>1294</v>
+        <v>1143</v>
       </c>
       <c r="C3" s="58"/>
     </row>
@@ -6568,61 +6683,61 @@
         <v>519</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>1296</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="51" t="s">
-        <v>1295</v>
+        <v>1144</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>1295</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="51" t="s">
-        <v>1297</v>
+        <v>1146</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>1298</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="51" t="s">
-        <v>1300</v>
+        <v>1149</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>1301</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="51" t="s">
-        <v>1302</v>
+        <v>1151</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>1311</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="51" t="s">
-        <v>1303</v>
+        <v>1152</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>1304</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="51" t="s">
-        <v>1305</v>
+        <v>1154</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>1306</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6631,7 +6746,7 @@
         <v>516</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>1299</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6772,32 +6887,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:A24">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C12">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B42">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C42">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6824,15 +6939,15 @@
   </sheetPr>
   <dimension ref="B1:R741"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H758" sqref="H758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="44" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="44" customWidth="1"/>
     <col min="4" max="4" width="54.42578125" style="44" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
@@ -6857,7 +6972,7 @@
       </c>
       <c r="Q2" s="49">
         <f>SUBTOTAL(103,J6:J3501)</f>
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="R2" s="50">
         <f ca="1">P2/Q2</f>
@@ -6866,13 +6981,13 @@
     </row>
     <row r="3" spans="2:18" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="72" t="s">
-        <v>1309</v>
+        <v>1158</v>
       </c>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="72"/>
       <c r="F3" s="48" t="s">
-        <v>1292</v>
+        <v>1141</v>
       </c>
       <c r="G3" s="77">
         <f ca="1">$R$2</f>
@@ -6881,13 +6996,13 @@
       <c r="H3" s="78"/>
       <c r="I3" s="73" t="str">
         <f ca="1">CONCATENATE($P$2,"/",$Q$2," Completed")</f>
-        <v>0/76 Completed</v>
+        <v>0/3 Completed</v>
       </c>
       <c r="J3" s="74"/>
     </row>
     <row r="4" spans="2:18" s="55" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>1308</v>
+        <v>1157</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -6918,7 +7033,7 @@
         <v>566</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>1293</v>
+        <v>1142</v>
       </c>
       <c r="H5" s="43" t="s">
         <v>567</v>
@@ -7073,7 +7188,7 @@
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>569</v>
       </c>
@@ -7223,7 +7338,7 @@
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
         <v>569</v>
       </c>
@@ -8063,7 +8178,7 @@
       <c r="L42" s="46"/>
       <c r="M42" s="46"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="45" t="s">
         <v>569</v>
       </c>
@@ -8813,7 +8928,7 @@
       <c r="L67" s="46"/>
       <c r="M67" s="46"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="45" t="s">
         <v>569</v>
       </c>
@@ -9263,7 +9378,7 @@
       <c r="L82" s="46"/>
       <c r="M82" s="46"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="45" t="s">
         <v>569</v>
       </c>
@@ -9443,7 +9558,7 @@
       <c r="L88" s="46"/>
       <c r="M88" s="46"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="45" t="s">
         <v>569</v>
       </c>
@@ -9833,7 +9948,7 @@
       <c r="L101" s="46"/>
       <c r="M101" s="46"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="45" t="s">
         <v>569</v>
       </c>
@@ -10403,7 +10518,7 @@
       <c r="L120" s="46"/>
       <c r="M120" s="46"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="45" t="s">
         <v>569</v>
       </c>
@@ -10913,7 +11028,7 @@
       <c r="L137" s="46"/>
       <c r="M137" s="46"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="45" t="s">
         <v>569</v>
       </c>
@@ -11243,7 +11358,7 @@
       <c r="L148" s="46"/>
       <c r="M148" s="46"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="45" t="s">
         <v>569</v>
       </c>
@@ -11483,7 +11598,7 @@
       <c r="L156" s="46"/>
       <c r="M156" s="46"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="45" t="s">
         <v>569</v>
       </c>
@@ -11723,7 +11838,7 @@
       <c r="L164" s="46"/>
       <c r="M164" s="46"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="45" t="s">
         <v>569</v>
       </c>
@@ -11923,7 +12038,9 @@
         <v>4</v>
       </c>
       <c r="H171" s="45"/>
-      <c r="I171" s="47"/>
+      <c r="I171" s="47" t="s">
+        <v>1162</v>
+      </c>
       <c r="J171" s="45" t="s">
         <v>523</v>
       </c>
@@ -11952,7 +12069,7 @@
         <v>733</v>
       </c>
       <c r="I172" s="47" t="s">
-        <v>734</v>
+        <v>1163</v>
       </c>
       <c r="J172" s="45" t="s">
         <v>523</v>
@@ -11979,10 +12096,10 @@
       </c>
       <c r="G173" s="45"/>
       <c r="H173" s="45" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I173" s="47" t="s">
-        <v>736</v>
+        <v>1164</v>
       </c>
       <c r="J173" s="45" t="s">
         <v>523</v>
@@ -12009,10 +12126,10 @@
       </c>
       <c r="G174" s="45"/>
       <c r="H174" s="45" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I174" s="47" t="s">
-        <v>738</v>
+        <v>1165</v>
       </c>
       <c r="J174" s="45" t="s">
         <v>523</v>
@@ -12039,10 +12156,10 @@
       </c>
       <c r="G175" s="45"/>
       <c r="H175" s="45" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I175" s="47" t="s">
-        <v>740</v>
+        <v>1166</v>
       </c>
       <c r="J175" s="45" t="s">
         <v>523</v>
@@ -12051,7 +12168,7 @@
       <c r="L175" s="46"/>
       <c r="M175" s="46"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="45" t="s">
         <v>569</v>
       </c>
@@ -12065,13 +12182,15 @@
         <v>2</v>
       </c>
       <c r="F176" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G176" s="45">
         <v>10</v>
       </c>
       <c r="H176" s="45"/>
-      <c r="I176" s="47"/>
+      <c r="I176" s="47" t="s">
+        <v>1167</v>
+      </c>
       <c r="J176" s="45" t="s">
         <v>523</v>
       </c>
@@ -12093,14 +12212,14 @@
         <v>2</v>
       </c>
       <c r="F177" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G177" s="45"/>
       <c r="H177" s="45" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I177" s="47" t="s">
-        <v>743</v>
+        <v>1168</v>
       </c>
       <c r="J177" s="45" t="s">
         <v>523</v>
@@ -12123,14 +12242,14 @@
         <v>2</v>
       </c>
       <c r="F178" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G178" s="45"/>
       <c r="H178" s="45" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="I178" s="47" t="s">
-        <v>745</v>
+        <v>1169</v>
       </c>
       <c r="J178" s="45" t="s">
         <v>523</v>
@@ -12153,14 +12272,14 @@
         <v>2</v>
       </c>
       <c r="F179" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G179" s="45"/>
       <c r="H179" s="45" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="I179" s="47" t="s">
-        <v>747</v>
+        <v>1170</v>
       </c>
       <c r="J179" s="45" t="s">
         <v>523</v>
@@ -12183,14 +12302,14 @@
         <v>2</v>
       </c>
       <c r="F180" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G180" s="45"/>
       <c r="H180" s="45" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="I180" s="47" t="s">
-        <v>749</v>
+        <v>1171</v>
       </c>
       <c r="J180" s="45" t="s">
         <v>523</v>
@@ -12213,14 +12332,14 @@
         <v>2</v>
       </c>
       <c r="F181" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G181" s="45"/>
       <c r="H181" s="45" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="I181" s="47" t="s">
-        <v>751</v>
+        <v>1172</v>
       </c>
       <c r="J181" s="45" t="s">
         <v>523</v>
@@ -12243,14 +12362,14 @@
         <v>2</v>
       </c>
       <c r="F182" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G182" s="45"/>
       <c r="H182" s="45" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="I182" s="47" t="s">
-        <v>753</v>
+        <v>1173</v>
       </c>
       <c r="J182" s="45" t="s">
         <v>523</v>
@@ -12273,14 +12392,14 @@
         <v>2</v>
       </c>
       <c r="F183" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G183" s="45"/>
       <c r="H183" s="45" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="I183" s="47" t="s">
-        <v>743</v>
+        <v>1168</v>
       </c>
       <c r="J183" s="45" t="s">
         <v>523</v>
@@ -12303,14 +12422,14 @@
         <v>2</v>
       </c>
       <c r="F184" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G184" s="45"/>
       <c r="H184" s="45" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="I184" s="47" t="s">
-        <v>756</v>
+        <v>1174</v>
       </c>
       <c r="J184" s="45" t="s">
         <v>523</v>
@@ -12333,14 +12452,14 @@
         <v>2</v>
       </c>
       <c r="F185" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G185" s="45"/>
       <c r="H185" s="45" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="I185" s="47" t="s">
-        <v>758</v>
+        <v>1175</v>
       </c>
       <c r="J185" s="45" t="s">
         <v>523</v>
@@ -12363,14 +12482,14 @@
         <v>2</v>
       </c>
       <c r="F186" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G186" s="45"/>
       <c r="H186" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I186" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J186" s="45" t="s">
         <v>523</v>
@@ -12379,7 +12498,7 @@
       <c r="L186" s="46"/>
       <c r="M186" s="46"/>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="45" t="s">
         <v>569</v>
       </c>
@@ -12393,13 +12512,15 @@
         <v>3</v>
       </c>
       <c r="F187" s="45" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G187" s="45">
         <v>5</v>
       </c>
       <c r="H187" s="45"/>
-      <c r="I187" s="47"/>
+      <c r="I187" s="47" t="s">
+        <v>1177</v>
+      </c>
       <c r="J187" s="45" t="s">
         <v>523</v>
       </c>
@@ -12421,14 +12542,14 @@
         <v>3</v>
       </c>
       <c r="F188" s="45" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G188" s="45"/>
       <c r="H188" s="45" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="I188" s="47" t="s">
-        <v>762</v>
+        <v>1178</v>
       </c>
       <c r="J188" s="45" t="s">
         <v>523</v>
@@ -12451,14 +12572,14 @@
         <v>3</v>
       </c>
       <c r="F189" s="45" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G189" s="45"/>
       <c r="H189" s="45" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="I189" s="47" t="s">
-        <v>764</v>
+        <v>1179</v>
       </c>
       <c r="J189" s="45" t="s">
         <v>523</v>
@@ -12481,14 +12602,14 @@
         <v>3</v>
       </c>
       <c r="F190" s="45" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G190" s="45"/>
       <c r="H190" s="45" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="I190" s="47" t="s">
-        <v>766</v>
+        <v>1180</v>
       </c>
       <c r="J190" s="45" t="s">
         <v>523</v>
@@ -12511,14 +12632,14 @@
         <v>3</v>
       </c>
       <c r="F191" s="45" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G191" s="45"/>
       <c r="H191" s="45" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="I191" s="47" t="s">
-        <v>768</v>
+        <v>1181</v>
       </c>
       <c r="J191" s="45" t="s">
         <v>523</v>
@@ -12541,14 +12662,14 @@
         <v>3</v>
       </c>
       <c r="F192" s="45" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G192" s="45"/>
       <c r="H192" s="45" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="I192" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J192" s="45" t="s">
         <v>523</v>
@@ -12557,7 +12678,7 @@
       <c r="L192" s="46"/>
       <c r="M192" s="46"/>
     </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="45" t="s">
         <v>569</v>
       </c>
@@ -12571,13 +12692,15 @@
         <v>4</v>
       </c>
       <c r="F193" s="45" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="G193" s="45">
         <v>5</v>
       </c>
       <c r="H193" s="45"/>
-      <c r="I193" s="47"/>
+      <c r="I193" s="47" t="s">
+        <v>1182</v>
+      </c>
       <c r="J193" s="45" t="s">
         <v>523</v>
       </c>
@@ -12599,14 +12722,14 @@
         <v>4</v>
       </c>
       <c r="F194" s="45" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="G194" s="45"/>
       <c r="H194" s="45" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="I194" s="47" t="s">
-        <v>771</v>
+        <v>1183</v>
       </c>
       <c r="J194" s="45" t="s">
         <v>523</v>
@@ -12629,14 +12752,14 @@
         <v>4</v>
       </c>
       <c r="F195" s="45" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="G195" s="45"/>
       <c r="H195" s="45" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="I195" s="47" t="s">
-        <v>773</v>
+        <v>1184</v>
       </c>
       <c r="J195" s="45" t="s">
         <v>523</v>
@@ -12659,14 +12782,14 @@
         <v>4</v>
       </c>
       <c r="F196" s="45" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="G196" s="45"/>
       <c r="H196" s="45" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="I196" s="47" t="s">
-        <v>775</v>
+        <v>1185</v>
       </c>
       <c r="J196" s="45" t="s">
         <v>523</v>
@@ -12689,14 +12812,14 @@
         <v>4</v>
       </c>
       <c r="F197" s="45" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="G197" s="45"/>
       <c r="H197" s="45" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="I197" s="47" t="s">
-        <v>777</v>
+        <v>1186</v>
       </c>
       <c r="J197" s="45" t="s">
         <v>523</v>
@@ -12719,14 +12842,14 @@
         <v>4</v>
       </c>
       <c r="F198" s="45" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="G198" s="45"/>
       <c r="H198" s="45" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="I198" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J198" s="45" t="s">
         <v>523</v>
@@ -12735,7 +12858,7 @@
       <c r="L198" s="46"/>
       <c r="M198" s="46"/>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="45" t="s">
         <v>569</v>
       </c>
@@ -12749,13 +12872,15 @@
         <v>5</v>
       </c>
       <c r="F199" s="45" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G199" s="45">
         <v>8</v>
       </c>
       <c r="H199" s="45"/>
-      <c r="I199" s="47"/>
+      <c r="I199" s="47" t="s">
+        <v>1187</v>
+      </c>
       <c r="J199" s="45" t="s">
         <v>523</v>
       </c>
@@ -12777,14 +12902,14 @@
         <v>5</v>
       </c>
       <c r="F200" s="45" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G200" s="45"/>
       <c r="H200" s="45" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="I200" s="47" t="s">
-        <v>780</v>
+        <v>1188</v>
       </c>
       <c r="J200" s="45" t="s">
         <v>523</v>
@@ -12807,14 +12932,14 @@
         <v>5</v>
       </c>
       <c r="F201" s="45" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G201" s="45"/>
       <c r="H201" s="45" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="I201" s="47" t="s">
-        <v>782</v>
+        <v>1189</v>
       </c>
       <c r="J201" s="45" t="s">
         <v>523</v>
@@ -12837,14 +12962,14 @@
         <v>5</v>
       </c>
       <c r="F202" s="45" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G202" s="45"/>
       <c r="H202" s="45" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="I202" s="47" t="s">
-        <v>784</v>
+        <v>1190</v>
       </c>
       <c r="J202" s="45" t="s">
         <v>523</v>
@@ -12867,14 +12992,14 @@
         <v>5</v>
       </c>
       <c r="F203" s="45" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G203" s="45"/>
       <c r="H203" s="45" t="s">
-        <v>785</v>
+        <v>761</v>
       </c>
       <c r="I203" s="47" t="s">
-        <v>786</v>
+        <v>1191</v>
       </c>
       <c r="J203" s="45" t="s">
         <v>523</v>
@@ -12897,14 +13022,14 @@
         <v>5</v>
       </c>
       <c r="F204" s="45" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G204" s="45"/>
       <c r="H204" s="45" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="I204" s="47" t="s">
-        <v>788</v>
+        <v>1192</v>
       </c>
       <c r="J204" s="45" t="s">
         <v>523</v>
@@ -12927,14 +13052,14 @@
         <v>5</v>
       </c>
       <c r="F205" s="45" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G205" s="45"/>
       <c r="H205" s="45" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="I205" s="47" t="s">
-        <v>790</v>
+        <v>1193</v>
       </c>
       <c r="J205" s="45" t="s">
         <v>523</v>
@@ -12957,14 +13082,14 @@
         <v>5</v>
       </c>
       <c r="F206" s="45" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G206" s="45"/>
       <c r="H206" s="45" t="s">
-        <v>791</v>
+        <v>764</v>
       </c>
       <c r="I206" s="47" t="s">
-        <v>792</v>
+        <v>1194</v>
       </c>
       <c r="J206" s="45" t="s">
         <v>523</v>
@@ -12987,14 +13112,14 @@
         <v>5</v>
       </c>
       <c r="F207" s="45" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G207" s="45"/>
       <c r="H207" s="45" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="I207" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J207" s="45" t="s">
         <v>523</v>
@@ -13003,7 +13128,7 @@
       <c r="L207" s="46"/>
       <c r="M207" s="46"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="45" t="s">
         <v>569</v>
       </c>
@@ -13017,13 +13142,15 @@
         <v>6</v>
       </c>
       <c r="F208" s="45" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="G208" s="45">
         <v>3</v>
       </c>
       <c r="H208" s="45"/>
-      <c r="I208" s="47"/>
+      <c r="I208" s="47" t="s">
+        <v>1195</v>
+      </c>
       <c r="J208" s="45" t="s">
         <v>523</v>
       </c>
@@ -13045,14 +13172,14 @@
         <v>6</v>
       </c>
       <c r="F209" s="45" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="G209" s="45"/>
       <c r="H209" s="45" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="I209" s="47" t="s">
-        <v>795</v>
+        <v>1196</v>
       </c>
       <c r="J209" s="45" t="s">
         <v>523</v>
@@ -13075,14 +13202,14 @@
         <v>6</v>
       </c>
       <c r="F210" s="45" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="G210" s="45"/>
       <c r="H210" s="45" t="s">
-        <v>796</v>
+        <v>767</v>
       </c>
       <c r="I210" s="47" t="s">
-        <v>797</v>
+        <v>1197</v>
       </c>
       <c r="J210" s="45" t="s">
         <v>523</v>
@@ -13105,14 +13232,14 @@
         <v>6</v>
       </c>
       <c r="F211" s="45" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="G211" s="45"/>
       <c r="H211" s="45" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="I211" s="47" t="s">
-        <v>798</v>
+        <v>1198</v>
       </c>
       <c r="J211" s="45" t="s">
         <v>523</v>
@@ -13121,7 +13248,7 @@
       <c r="L211" s="46"/>
       <c r="M211" s="46"/>
     </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="45" t="s">
         <v>569</v>
       </c>
@@ -13135,13 +13262,15 @@
         <v>7</v>
       </c>
       <c r="F212" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G212" s="45">
         <v>10</v>
       </c>
       <c r="H212" s="45"/>
-      <c r="I212" s="47"/>
+      <c r="I212" s="47" t="s">
+        <v>1199</v>
+      </c>
       <c r="J212" s="45" t="s">
         <v>523</v>
       </c>
@@ -13163,14 +13292,14 @@
         <v>7</v>
       </c>
       <c r="F213" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G213" s="45"/>
       <c r="H213" s="45" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="I213" s="47" t="s">
-        <v>801</v>
+        <v>1200</v>
       </c>
       <c r="J213" s="45" t="s">
         <v>523</v>
@@ -13193,14 +13322,14 @@
         <v>7</v>
       </c>
       <c r="F214" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G214" s="45"/>
       <c r="H214" s="45" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="I214" s="47" t="s">
-        <v>788</v>
+        <v>1192</v>
       </c>
       <c r="J214" s="45" t="s">
         <v>523</v>
@@ -13223,14 +13352,14 @@
         <v>7</v>
       </c>
       <c r="F215" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G215" s="45"/>
       <c r="H215" s="45" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="I215" s="47" t="s">
-        <v>804</v>
+        <v>1201</v>
       </c>
       <c r="J215" s="45" t="s">
         <v>523</v>
@@ -13253,14 +13382,14 @@
         <v>7</v>
       </c>
       <c r="F216" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G216" s="45"/>
       <c r="H216" s="45" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="I216" s="47" t="s">
-        <v>806</v>
+        <v>1202</v>
       </c>
       <c r="J216" s="45" t="s">
         <v>523</v>
@@ -13283,14 +13412,14 @@
         <v>7</v>
       </c>
       <c r="F217" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G217" s="45"/>
       <c r="H217" s="45" t="s">
-        <v>807</v>
+        <v>773</v>
       </c>
       <c r="I217" s="47" t="s">
-        <v>808</v>
+        <v>1203</v>
       </c>
       <c r="J217" s="45" t="s">
         <v>523</v>
@@ -13313,14 +13442,14 @@
         <v>7</v>
       </c>
       <c r="F218" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G218" s="45"/>
       <c r="H218" s="45" t="s">
-        <v>809</v>
+        <v>774</v>
       </c>
       <c r="I218" s="47" t="s">
-        <v>810</v>
+        <v>1204</v>
       </c>
       <c r="J218" s="45" t="s">
         <v>523</v>
@@ -13343,14 +13472,14 @@
         <v>7</v>
       </c>
       <c r="F219" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G219" s="45"/>
       <c r="H219" s="45" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
       <c r="I219" s="47" t="s">
-        <v>812</v>
+        <v>1205</v>
       </c>
       <c r="J219" s="45" t="s">
         <v>523</v>
@@ -13373,14 +13502,14 @@
         <v>7</v>
       </c>
       <c r="F220" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G220" s="45"/>
       <c r="H220" s="45" t="s">
-        <v>813</v>
+        <v>776</v>
       </c>
       <c r="I220" s="47" t="s">
-        <v>814</v>
+        <v>1206</v>
       </c>
       <c r="J220" s="45" t="s">
         <v>523</v>
@@ -13403,14 +13532,14 @@
         <v>7</v>
       </c>
       <c r="F221" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G221" s="45"/>
       <c r="H221" s="45" t="s">
-        <v>815</v>
+        <v>777</v>
       </c>
       <c r="I221" s="47" t="s">
-        <v>816</v>
+        <v>1207</v>
       </c>
       <c r="J221" s="45" t="s">
         <v>523</v>
@@ -13433,14 +13562,14 @@
         <v>7</v>
       </c>
       <c r="F222" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G222" s="45"/>
       <c r="H222" s="45" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="I222" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J222" s="45" t="s">
         <v>523</v>
@@ -13449,7 +13578,7 @@
       <c r="L222" s="46"/>
       <c r="M222" s="46"/>
     </row>
-    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="45" t="s">
         <v>569</v>
       </c>
@@ -13463,13 +13592,15 @@
         <v>8</v>
       </c>
       <c r="F223" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="G223" s="45">
         <v>8</v>
       </c>
       <c r="H223" s="45"/>
-      <c r="I223" s="47"/>
+      <c r="I223" s="47" t="s">
+        <v>1208</v>
+      </c>
       <c r="J223" s="45" t="s">
         <v>523</v>
       </c>
@@ -13491,14 +13622,14 @@
         <v>8</v>
       </c>
       <c r="F224" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="G224" s="45"/>
       <c r="H224" s="45" t="s">
-        <v>818</v>
+        <v>779</v>
       </c>
       <c r="I224" s="47" t="s">
-        <v>819</v>
+        <v>1209</v>
       </c>
       <c r="J224" s="45" t="s">
         <v>523</v>
@@ -13521,14 +13652,14 @@
         <v>8</v>
       </c>
       <c r="F225" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="G225" s="45"/>
       <c r="H225" s="45" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="I225" s="47" t="s">
-        <v>821</v>
+        <v>1210</v>
       </c>
       <c r="J225" s="45" t="s">
         <v>523</v>
@@ -13551,14 +13682,14 @@
         <v>8</v>
       </c>
       <c r="F226" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="G226" s="45"/>
       <c r="H226" s="45" t="s">
-        <v>822</v>
+        <v>781</v>
       </c>
       <c r="I226" s="47" t="s">
-        <v>768</v>
+        <v>1181</v>
       </c>
       <c r="J226" s="45" t="s">
         <v>523</v>
@@ -13581,14 +13712,14 @@
         <v>8</v>
       </c>
       <c r="F227" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="G227" s="45"/>
       <c r="H227" s="45" t="s">
-        <v>823</v>
+        <v>782</v>
       </c>
       <c r="I227" s="47" t="s">
-        <v>824</v>
+        <v>1211</v>
       </c>
       <c r="J227" s="45" t="s">
         <v>523</v>
@@ -13611,14 +13742,14 @@
         <v>8</v>
       </c>
       <c r="F228" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="G228" s="45"/>
       <c r="H228" s="45" t="s">
-        <v>825</v>
+        <v>783</v>
       </c>
       <c r="I228" s="47" t="s">
-        <v>826</v>
+        <v>1212</v>
       </c>
       <c r="J228" s="45" t="s">
         <v>523</v>
@@ -13641,14 +13772,14 @@
         <v>8</v>
       </c>
       <c r="F229" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="G229" s="45"/>
       <c r="H229" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="I229" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J229" s="45" t="s">
         <v>523</v>
@@ -13671,14 +13802,14 @@
         <v>8</v>
       </c>
       <c r="F230" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="G230" s="45"/>
       <c r="H230" s="45" t="s">
-        <v>827</v>
+        <v>784</v>
       </c>
       <c r="I230" s="47" t="s">
-        <v>828</v>
+        <v>1213</v>
       </c>
       <c r="J230" s="45" t="s">
         <v>523</v>
@@ -13701,14 +13832,14 @@
         <v>8</v>
       </c>
       <c r="F231" s="45" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="G231" s="45"/>
       <c r="H231" s="45" t="s">
-        <v>829</v>
+        <v>785</v>
       </c>
       <c r="I231" s="47" t="s">
-        <v>777</v>
+        <v>1186</v>
       </c>
       <c r="J231" s="45" t="s">
         <v>523</v>
@@ -13717,7 +13848,7 @@
       <c r="L231" s="46"/>
       <c r="M231" s="46"/>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="45" t="s">
         <v>569</v>
       </c>
@@ -13731,13 +13862,15 @@
         <v>9</v>
       </c>
       <c r="F232" s="45" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="G232" s="45">
         <v>6</v>
       </c>
       <c r="H232" s="45"/>
-      <c r="I232" s="47"/>
+      <c r="I232" s="47" t="s">
+        <v>1214</v>
+      </c>
       <c r="J232" s="45" t="s">
         <v>523</v>
       </c>
@@ -13759,14 +13892,14 @@
         <v>9</v>
       </c>
       <c r="F233" s="45" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="G233" s="45"/>
       <c r="H233" s="45" t="s">
-        <v>831</v>
+        <v>787</v>
       </c>
       <c r="I233" s="47" t="s">
-        <v>832</v>
+        <v>1215</v>
       </c>
       <c r="J233" s="45" t="s">
         <v>523</v>
@@ -13789,14 +13922,14 @@
         <v>9</v>
       </c>
       <c r="F234" s="45" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="G234" s="45"/>
       <c r="H234" s="45" t="s">
-        <v>833</v>
+        <v>788</v>
       </c>
       <c r="I234" s="47" t="s">
-        <v>834</v>
+        <v>1216</v>
       </c>
       <c r="J234" s="45" t="s">
         <v>523</v>
@@ -13819,14 +13952,14 @@
         <v>9</v>
       </c>
       <c r="F235" s="45" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="G235" s="45"/>
       <c r="H235" s="45" t="s">
-        <v>835</v>
+        <v>789</v>
       </c>
       <c r="I235" s="47" t="s">
-        <v>836</v>
+        <v>1217</v>
       </c>
       <c r="J235" s="45" t="s">
         <v>523</v>
@@ -13849,14 +13982,14 @@
         <v>9</v>
       </c>
       <c r="F236" s="45" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="G236" s="45"/>
       <c r="H236" s="45" t="s">
-        <v>837</v>
+        <v>790</v>
       </c>
       <c r="I236" s="47" t="s">
-        <v>838</v>
+        <v>1218</v>
       </c>
       <c r="J236" s="45" t="s">
         <v>523</v>
@@ -13879,14 +14012,14 @@
         <v>9</v>
       </c>
       <c r="F237" s="45" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="G237" s="45"/>
       <c r="H237" s="45" t="s">
-        <v>839</v>
+        <v>791</v>
       </c>
       <c r="I237" s="47" t="s">
-        <v>840</v>
+        <v>1219</v>
       </c>
       <c r="J237" s="45" t="s">
         <v>523</v>
@@ -13909,14 +14042,14 @@
         <v>9</v>
       </c>
       <c r="F238" s="45" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="G238" s="45"/>
       <c r="H238" s="45" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="I238" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J238" s="45" t="s">
         <v>523</v>
@@ -13925,7 +14058,7 @@
       <c r="L238" s="46"/>
       <c r="M238" s="46"/>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="45" t="s">
         <v>569</v>
       </c>
@@ -13939,13 +14072,15 @@
         <v>10</v>
       </c>
       <c r="F239" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="G239" s="45">
         <v>8</v>
       </c>
       <c r="H239" s="45"/>
-      <c r="I239" s="47"/>
+      <c r="I239" s="47" t="s">
+        <v>1220</v>
+      </c>
       <c r="J239" s="45" t="s">
         <v>523</v>
       </c>
@@ -13967,14 +14102,14 @@
         <v>10</v>
       </c>
       <c r="F240" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="G240" s="45"/>
       <c r="H240" s="45" t="s">
-        <v>842</v>
+        <v>793</v>
       </c>
       <c r="I240" s="47" t="s">
-        <v>843</v>
+        <v>1221</v>
       </c>
       <c r="J240" s="45" t="s">
         <v>523</v>
@@ -13997,14 +14132,14 @@
         <v>10</v>
       </c>
       <c r="F241" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="G241" s="45"/>
       <c r="H241" s="45" t="s">
-        <v>844</v>
+        <v>794</v>
       </c>
       <c r="I241" s="47" t="s">
-        <v>845</v>
+        <v>1222</v>
       </c>
       <c r="J241" s="45" t="s">
         <v>523</v>
@@ -14027,14 +14162,14 @@
         <v>10</v>
       </c>
       <c r="F242" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="G242" s="45"/>
       <c r="H242" s="45" t="s">
-        <v>846</v>
+        <v>795</v>
       </c>
       <c r="I242" s="47" t="s">
-        <v>847</v>
+        <v>1223</v>
       </c>
       <c r="J242" s="45" t="s">
         <v>523</v>
@@ -14057,14 +14192,14 @@
         <v>10</v>
       </c>
       <c r="F243" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="G243" s="45"/>
       <c r="H243" s="45" t="s">
-        <v>848</v>
+        <v>796</v>
       </c>
       <c r="I243" s="47" t="s">
-        <v>849</v>
+        <v>1224</v>
       </c>
       <c r="J243" s="45" t="s">
         <v>523</v>
@@ -14087,14 +14222,14 @@
         <v>10</v>
       </c>
       <c r="F244" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="G244" s="45"/>
       <c r="H244" s="45" t="s">
-        <v>850</v>
+        <v>797</v>
       </c>
       <c r="I244" s="47" t="s">
-        <v>851</v>
+        <v>1225</v>
       </c>
       <c r="J244" s="45" t="s">
         <v>523</v>
@@ -14117,14 +14252,14 @@
         <v>10</v>
       </c>
       <c r="F245" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="G245" s="45"/>
       <c r="H245" s="45" t="s">
-        <v>852</v>
+        <v>798</v>
       </c>
       <c r="I245" s="47" t="s">
-        <v>843</v>
+        <v>1221</v>
       </c>
       <c r="J245" s="45" t="s">
         <v>523</v>
@@ -14147,14 +14282,14 @@
         <v>10</v>
       </c>
       <c r="F246" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="G246" s="45"/>
       <c r="H246" s="45" t="s">
-        <v>853</v>
+        <v>799</v>
       </c>
       <c r="I246" s="47" t="s">
-        <v>854</v>
+        <v>1226</v>
       </c>
       <c r="J246" s="45" t="s">
         <v>523</v>
@@ -14177,14 +14312,14 @@
         <v>10</v>
       </c>
       <c r="F247" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="G247" s="45"/>
       <c r="H247" s="45" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="I247" s="47" t="s">
-        <v>798</v>
+        <v>1198</v>
       </c>
       <c r="J247" s="45" t="s">
         <v>523</v>
@@ -14193,7 +14328,7 @@
       <c r="L247" s="46"/>
       <c r="M247" s="46"/>
     </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="45" t="s">
         <v>569</v>
       </c>
@@ -14207,13 +14342,15 @@
         <v>11</v>
       </c>
       <c r="F248" s="45" t="s">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="G248" s="45">
         <v>3</v>
       </c>
       <c r="H248" s="45"/>
-      <c r="I248" s="47"/>
+      <c r="I248" s="47" t="s">
+        <v>1227</v>
+      </c>
       <c r="J248" s="45" t="s">
         <v>523</v>
       </c>
@@ -14235,14 +14372,14 @@
         <v>11</v>
       </c>
       <c r="F249" s="45" t="s">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="G249" s="45"/>
       <c r="H249" s="45" t="s">
-        <v>856</v>
+        <v>801</v>
       </c>
       <c r="I249" s="47" t="s">
-        <v>857</v>
+        <v>1228</v>
       </c>
       <c r="J249" s="45" t="s">
         <v>523</v>
@@ -14265,14 +14402,14 @@
         <v>11</v>
       </c>
       <c r="F250" s="45" t="s">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="G250" s="45"/>
       <c r="H250" s="45" t="s">
-        <v>858</v>
+        <v>802</v>
       </c>
       <c r="I250" s="47" t="s">
-        <v>859</v>
+        <v>1229</v>
       </c>
       <c r="J250" s="45" t="s">
         <v>523</v>
@@ -14295,14 +14432,14 @@
         <v>11</v>
       </c>
       <c r="F251" s="45" t="s">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="G251" s="45"/>
       <c r="H251" s="45" t="s">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="I251" s="47" t="s">
-        <v>798</v>
+        <v>1198</v>
       </c>
       <c r="J251" s="45" t="s">
         <v>523</v>
@@ -14311,7 +14448,7 @@
       <c r="L251" s="46"/>
       <c r="M251" s="46"/>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252" s="45" t="s">
         <v>569</v>
       </c>
@@ -14325,13 +14462,15 @@
         <v>12</v>
       </c>
       <c r="F252" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G252" s="45">
         <v>9</v>
       </c>
       <c r="H252" s="45"/>
-      <c r="I252" s="47"/>
+      <c r="I252" s="47" t="s">
+        <v>1230</v>
+      </c>
       <c r="J252" s="45" t="s">
         <v>523</v>
       </c>
@@ -14353,14 +14492,14 @@
         <v>12</v>
       </c>
       <c r="F253" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G253" s="45"/>
       <c r="H253" s="45" t="s">
         <v>4</v>
       </c>
       <c r="I253" s="47" t="s">
-        <v>861</v>
+        <v>1231</v>
       </c>
       <c r="J253" s="45" t="s">
         <v>523</v>
@@ -14383,14 +14522,14 @@
         <v>12</v>
       </c>
       <c r="F254" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G254" s="45"/>
       <c r="H254" s="45" t="s">
-        <v>862</v>
+        <v>804</v>
       </c>
       <c r="I254" s="47" t="s">
-        <v>863</v>
+        <v>1232</v>
       </c>
       <c r="J254" s="45" t="s">
         <v>523</v>
@@ -14413,14 +14552,14 @@
         <v>12</v>
       </c>
       <c r="F255" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G255" s="45"/>
       <c r="H255" s="45" t="s">
-        <v>864</v>
+        <v>805</v>
       </c>
       <c r="I255" s="47" t="s">
-        <v>865</v>
+        <v>1233</v>
       </c>
       <c r="J255" s="45" t="s">
         <v>523</v>
@@ -14443,14 +14582,14 @@
         <v>12</v>
       </c>
       <c r="F256" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G256" s="45"/>
       <c r="H256" s="45" t="s">
-        <v>866</v>
+        <v>806</v>
       </c>
       <c r="I256" s="47" t="s">
-        <v>867</v>
+        <v>1234</v>
       </c>
       <c r="J256" s="45" t="s">
         <v>523</v>
@@ -14473,14 +14612,14 @@
         <v>12</v>
       </c>
       <c r="F257" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G257" s="45"/>
       <c r="H257" s="45" t="s">
-        <v>868</v>
+        <v>807</v>
       </c>
       <c r="I257" s="47" t="s">
-        <v>869</v>
+        <v>1235</v>
       </c>
       <c r="J257" s="45" t="s">
         <v>523</v>
@@ -14503,14 +14642,14 @@
         <v>12</v>
       </c>
       <c r="F258" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G258" s="45"/>
       <c r="H258" s="45" t="s">
-        <v>870</v>
+        <v>808</v>
       </c>
       <c r="I258" s="47" t="s">
-        <v>871</v>
+        <v>1236</v>
       </c>
       <c r="J258" s="45" t="s">
         <v>523</v>
@@ -14533,14 +14672,14 @@
         <v>12</v>
       </c>
       <c r="F259" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G259" s="45"/>
       <c r="H259" s="45" t="s">
-        <v>872</v>
+        <v>809</v>
       </c>
       <c r="I259" s="47" t="s">
-        <v>873</v>
+        <v>1237</v>
       </c>
       <c r="J259" s="45" t="s">
         <v>523</v>
@@ -14563,14 +14702,14 @@
         <v>12</v>
       </c>
       <c r="F260" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G260" s="45"/>
       <c r="H260" s="45" t="s">
-        <v>874</v>
+        <v>810</v>
       </c>
       <c r="I260" s="47" t="s">
-        <v>875</v>
+        <v>1238</v>
       </c>
       <c r="J260" s="45" t="s">
         <v>523</v>
@@ -14593,14 +14732,14 @@
         <v>12</v>
       </c>
       <c r="F261" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="G261" s="45"/>
       <c r="H261" s="45" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="I261" s="47" t="s">
-        <v>816</v>
+        <v>1207</v>
       </c>
       <c r="J261" s="45" t="s">
         <v>523</v>
@@ -14609,7 +14748,7 @@
       <c r="L261" s="46"/>
       <c r="M261" s="46"/>
     </row>
-    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262" s="45" t="s">
         <v>569</v>
       </c>
@@ -14623,13 +14762,15 @@
         <v>13</v>
       </c>
       <c r="F262" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G262" s="45">
         <v>9</v>
       </c>
       <c r="H262" s="45"/>
-      <c r="I262" s="47"/>
+      <c r="I262" s="47" t="s">
+        <v>1239</v>
+      </c>
       <c r="J262" s="45" t="s">
         <v>523</v>
       </c>
@@ -14651,14 +14792,14 @@
         <v>13</v>
       </c>
       <c r="F263" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G263" s="45"/>
       <c r="H263" s="45" t="s">
-        <v>877</v>
+        <v>812</v>
       </c>
       <c r="I263" s="47" t="s">
-        <v>878</v>
+        <v>1240</v>
       </c>
       <c r="J263" s="45" t="s">
         <v>523</v>
@@ -14681,14 +14822,14 @@
         <v>13</v>
       </c>
       <c r="F264" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G264" s="45"/>
       <c r="H264" s="45" t="s">
-        <v>879</v>
+        <v>813</v>
       </c>
       <c r="I264" s="47" t="s">
-        <v>880</v>
+        <v>1241</v>
       </c>
       <c r="J264" s="45" t="s">
         <v>523</v>
@@ -14711,14 +14852,14 @@
         <v>13</v>
       </c>
       <c r="F265" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G265" s="45"/>
       <c r="H265" s="45" t="s">
-        <v>881</v>
+        <v>814</v>
       </c>
       <c r="I265" s="47" t="s">
-        <v>882</v>
+        <v>1242</v>
       </c>
       <c r="J265" s="45" t="s">
         <v>523</v>
@@ -14741,14 +14882,14 @@
         <v>13</v>
       </c>
       <c r="F266" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G266" s="45"/>
       <c r="H266" s="45" t="s">
-        <v>883</v>
+        <v>815</v>
       </c>
       <c r="I266" s="47" t="s">
-        <v>884</v>
+        <v>1243</v>
       </c>
       <c r="J266" s="45" t="s">
         <v>523</v>
@@ -14771,14 +14912,14 @@
         <v>13</v>
       </c>
       <c r="F267" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G267" s="45"/>
       <c r="H267" s="45" t="s">
-        <v>885</v>
+        <v>816</v>
       </c>
       <c r="I267" s="47" t="s">
-        <v>886</v>
+        <v>1244</v>
       </c>
       <c r="J267" s="45" t="s">
         <v>523</v>
@@ -14801,14 +14942,14 @@
         <v>13</v>
       </c>
       <c r="F268" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G268" s="45"/>
       <c r="H268" s="45" t="s">
-        <v>887</v>
+        <v>817</v>
       </c>
       <c r="I268" s="47" t="s">
-        <v>888</v>
+        <v>1245</v>
       </c>
       <c r="J268" s="45" t="s">
         <v>523</v>
@@ -14831,14 +14972,14 @@
         <v>13</v>
       </c>
       <c r="F269" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G269" s="45"/>
       <c r="H269" s="45" t="s">
-        <v>889</v>
+        <v>818</v>
       </c>
       <c r="I269" s="47" t="s">
-        <v>801</v>
+        <v>1200</v>
       </c>
       <c r="J269" s="45" t="s">
         <v>523</v>
@@ -14861,14 +15002,14 @@
         <v>13</v>
       </c>
       <c r="F270" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G270" s="45"/>
       <c r="H270" s="45" t="s">
-        <v>890</v>
+        <v>819</v>
       </c>
       <c r="I270" s="47" t="s">
-        <v>891</v>
+        <v>1246</v>
       </c>
       <c r="J270" s="45" t="s">
         <v>523</v>
@@ -14891,14 +15032,14 @@
         <v>13</v>
       </c>
       <c r="F271" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="G271" s="45"/>
       <c r="H271" s="45" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="I271" s="47" t="s">
-        <v>816</v>
+        <v>1207</v>
       </c>
       <c r="J271" s="45" t="s">
         <v>523</v>
@@ -14907,7 +15048,7 @@
       <c r="L271" s="46"/>
       <c r="M271" s="46"/>
     </row>
-    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="45" t="s">
         <v>569</v>
       </c>
@@ -14921,13 +15062,15 @@
         <v>14</v>
       </c>
       <c r="F272" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="G272" s="45">
         <v>8</v>
       </c>
       <c r="H272" s="45"/>
-      <c r="I272" s="47"/>
+      <c r="I272" s="47" t="s">
+        <v>1247</v>
+      </c>
       <c r="J272" s="45" t="s">
         <v>523</v>
       </c>
@@ -14949,14 +15092,14 @@
         <v>14</v>
       </c>
       <c r="F273" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="G273" s="45"/>
       <c r="H273" s="45" t="s">
-        <v>893</v>
+        <v>821</v>
       </c>
       <c r="I273" s="47" t="s">
-        <v>894</v>
+        <v>1248</v>
       </c>
       <c r="J273" s="45" t="s">
         <v>523</v>
@@ -14979,14 +15122,14 @@
         <v>14</v>
       </c>
       <c r="F274" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="G274" s="45"/>
       <c r="H274" s="45" t="s">
-        <v>895</v>
+        <v>822</v>
       </c>
       <c r="I274" s="47" t="s">
-        <v>896</v>
+        <v>1249</v>
       </c>
       <c r="J274" s="45" t="s">
         <v>523</v>
@@ -15009,14 +15152,14 @@
         <v>14</v>
       </c>
       <c r="F275" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="G275" s="45"/>
       <c r="H275" s="45" t="s">
-        <v>897</v>
+        <v>823</v>
       </c>
       <c r="I275" s="47" t="s">
-        <v>898</v>
+        <v>1250</v>
       </c>
       <c r="J275" s="45" t="s">
         <v>523</v>
@@ -15039,14 +15182,14 @@
         <v>14</v>
       </c>
       <c r="F276" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="G276" s="45"/>
       <c r="H276" s="45" t="s">
-        <v>899</v>
+        <v>824</v>
       </c>
       <c r="I276" s="47" t="s">
-        <v>900</v>
+        <v>1251</v>
       </c>
       <c r="J276" s="45" t="s">
         <v>523</v>
@@ -15069,14 +15212,14 @@
         <v>14</v>
       </c>
       <c r="F277" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="G277" s="45"/>
       <c r="H277" s="45" t="s">
-        <v>901</v>
+        <v>825</v>
       </c>
       <c r="I277" s="47" t="s">
-        <v>902</v>
+        <v>1252</v>
       </c>
       <c r="J277" s="45" t="s">
         <v>523</v>
@@ -15099,14 +15242,14 @@
         <v>14</v>
       </c>
       <c r="F278" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="G278" s="45"/>
       <c r="H278" s="45" t="s">
-        <v>903</v>
+        <v>826</v>
       </c>
       <c r="I278" s="47" t="s">
-        <v>904</v>
+        <v>1253</v>
       </c>
       <c r="J278" s="45" t="s">
         <v>523</v>
@@ -15129,14 +15272,14 @@
         <v>14</v>
       </c>
       <c r="F279" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="G279" s="45"/>
       <c r="H279" s="45" t="s">
-        <v>905</v>
+        <v>827</v>
       </c>
       <c r="I279" s="47" t="s">
-        <v>891</v>
+        <v>1246</v>
       </c>
       <c r="J279" s="45" t="s">
         <v>523</v>
@@ -15159,14 +15302,14 @@
         <v>14</v>
       </c>
       <c r="F280" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="G280" s="45"/>
       <c r="H280" s="45" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
       <c r="I280" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J280" s="45" t="s">
         <v>523</v>
@@ -15175,7 +15318,7 @@
       <c r="L280" s="46"/>
       <c r="M280" s="46"/>
     </row>
-    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="45" t="s">
         <v>569</v>
       </c>
@@ -15189,13 +15332,15 @@
         <v>15</v>
       </c>
       <c r="F281" s="45" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="G281" s="45">
         <v>6</v>
       </c>
       <c r="H281" s="45"/>
-      <c r="I281" s="47"/>
+      <c r="I281" s="47" t="s">
+        <v>1254</v>
+      </c>
       <c r="J281" s="45" t="s">
         <v>523</v>
       </c>
@@ -15217,14 +15362,14 @@
         <v>15</v>
       </c>
       <c r="F282" s="45" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="G282" s="45"/>
       <c r="H282" s="45" t="s">
         <v>80</v>
       </c>
       <c r="I282" s="47" t="s">
-        <v>907</v>
+        <v>1255</v>
       </c>
       <c r="J282" s="45" t="s">
         <v>523</v>
@@ -15247,14 +15392,14 @@
         <v>15</v>
       </c>
       <c r="F283" s="45" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="G283" s="45"/>
       <c r="H283" s="45" t="s">
-        <v>908</v>
+        <v>829</v>
       </c>
       <c r="I283" s="47" t="s">
-        <v>909</v>
+        <v>1256</v>
       </c>
       <c r="J283" s="45" t="s">
         <v>523</v>
@@ -15277,14 +15422,14 @@
         <v>15</v>
       </c>
       <c r="F284" s="45" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="G284" s="45"/>
       <c r="H284" s="45" t="s">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="I284" s="47" t="s">
-        <v>911</v>
+        <v>1257</v>
       </c>
       <c r="J284" s="45" t="s">
         <v>523</v>
@@ -15307,14 +15452,14 @@
         <v>15</v>
       </c>
       <c r="F285" s="45" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="G285" s="45"/>
       <c r="H285" s="45" t="s">
-        <v>912</v>
+        <v>831</v>
       </c>
       <c r="I285" s="47" t="s">
-        <v>913</v>
+        <v>1258</v>
       </c>
       <c r="J285" s="45" t="s">
         <v>523</v>
@@ -15337,14 +15482,14 @@
         <v>15</v>
       </c>
       <c r="F286" s="45" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="G286" s="45"/>
       <c r="H286" s="45" t="s">
-        <v>914</v>
+        <v>832</v>
       </c>
       <c r="I286" s="47" t="s">
-        <v>758</v>
+        <v>1175</v>
       </c>
       <c r="J286" s="45" t="s">
         <v>523</v>
@@ -15367,14 +15512,14 @@
         <v>15</v>
       </c>
       <c r="F287" s="45" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="G287" s="45"/>
       <c r="H287" s="45" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="I287" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J287" s="45" t="s">
         <v>523</v>
@@ -15383,7 +15528,7 @@
       <c r="L287" s="46"/>
       <c r="M287" s="46"/>
     </row>
-    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="45" t="s">
         <v>569</v>
       </c>
@@ -15397,13 +15542,15 @@
         <v>16</v>
       </c>
       <c r="F288" s="45" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="G288" s="45">
         <v>6</v>
       </c>
       <c r="H288" s="45"/>
-      <c r="I288" s="47"/>
+      <c r="I288" s="47" t="s">
+        <v>1259</v>
+      </c>
       <c r="J288" s="45" t="s">
         <v>523</v>
       </c>
@@ -15425,14 +15572,14 @@
         <v>16</v>
       </c>
       <c r="F289" s="45" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="G289" s="45"/>
       <c r="H289" s="45" t="s">
-        <v>916</v>
+        <v>834</v>
       </c>
       <c r="I289" s="47" t="s">
-        <v>843</v>
+        <v>1221</v>
       </c>
       <c r="J289" s="45" t="s">
         <v>523</v>
@@ -15455,14 +15602,14 @@
         <v>16</v>
       </c>
       <c r="F290" s="45" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="G290" s="45"/>
       <c r="H290" s="45" t="s">
-        <v>917</v>
+        <v>835</v>
       </c>
       <c r="I290" s="47" t="s">
-        <v>918</v>
+        <v>1260</v>
       </c>
       <c r="J290" s="45" t="s">
         <v>523</v>
@@ -15485,14 +15632,14 @@
         <v>16</v>
       </c>
       <c r="F291" s="45" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="G291" s="45"/>
       <c r="H291" s="45" t="s">
-        <v>919</v>
+        <v>836</v>
       </c>
       <c r="I291" s="47" t="s">
-        <v>920</v>
+        <v>1261</v>
       </c>
       <c r="J291" s="45" t="s">
         <v>523</v>
@@ -15515,14 +15662,14 @@
         <v>16</v>
       </c>
       <c r="F292" s="45" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="G292" s="45"/>
       <c r="H292" s="45" t="s">
-        <v>921</v>
+        <v>837</v>
       </c>
       <c r="I292" s="47" t="s">
-        <v>922</v>
+        <v>1262</v>
       </c>
       <c r="J292" s="45" t="s">
         <v>523</v>
@@ -15545,14 +15692,14 @@
         <v>16</v>
       </c>
       <c r="F293" s="45" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="G293" s="45"/>
       <c r="H293" s="45" t="s">
-        <v>923</v>
+        <v>838</v>
       </c>
       <c r="I293" s="47" t="s">
-        <v>924</v>
+        <v>1263</v>
       </c>
       <c r="J293" s="45" t="s">
         <v>523</v>
@@ -15575,14 +15722,14 @@
         <v>16</v>
       </c>
       <c r="F294" s="45" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="G294" s="45"/>
       <c r="H294" s="45" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="I294" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J294" s="45" t="s">
         <v>523</v>
@@ -15591,7 +15738,7 @@
       <c r="L294" s="46"/>
       <c r="M294" s="46"/>
     </row>
-    <row r="295" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="45" t="s">
         <v>569</v>
       </c>
@@ -15605,13 +15752,15 @@
         <v>17</v>
       </c>
       <c r="F295" s="45" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="G295" s="45">
         <v>7</v>
       </c>
       <c r="H295" s="45"/>
-      <c r="I295" s="47"/>
+      <c r="I295" s="47" t="s">
+        <v>1264</v>
+      </c>
       <c r="J295" s="45" t="s">
         <v>523</v>
       </c>
@@ -15633,14 +15782,14 @@
         <v>17</v>
       </c>
       <c r="F296" s="45" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="G296" s="45"/>
       <c r="H296" s="45" t="s">
-        <v>926</v>
+        <v>840</v>
       </c>
       <c r="I296" s="47" t="s">
-        <v>927</v>
+        <v>1265</v>
       </c>
       <c r="J296" s="45" t="s">
         <v>523</v>
@@ -15663,14 +15812,14 @@
         <v>17</v>
       </c>
       <c r="F297" s="45" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="G297" s="45"/>
       <c r="H297" s="45" t="s">
-        <v>928</v>
+        <v>841</v>
       </c>
       <c r="I297" s="47" t="s">
-        <v>929</v>
+        <v>1266</v>
       </c>
       <c r="J297" s="45" t="s">
         <v>523</v>
@@ -15693,14 +15842,14 @@
         <v>17</v>
       </c>
       <c r="F298" s="45" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="G298" s="45"/>
       <c r="H298" s="45" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="I298" s="47" t="s">
-        <v>930</v>
+        <v>1267</v>
       </c>
       <c r="J298" s="45" t="s">
         <v>523</v>
@@ -15723,14 +15872,14 @@
         <v>17</v>
       </c>
       <c r="F299" s="45" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="G299" s="45"/>
       <c r="H299" s="45" t="s">
-        <v>931</v>
+        <v>842</v>
       </c>
       <c r="I299" s="47" t="s">
-        <v>932</v>
+        <v>1268</v>
       </c>
       <c r="J299" s="45" t="s">
         <v>523</v>
@@ -15753,14 +15902,14 @@
         <v>17</v>
       </c>
       <c r="F300" s="45" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="G300" s="45"/>
       <c r="H300" s="45" t="s">
-        <v>933</v>
+        <v>843</v>
       </c>
       <c r="I300" s="47" t="s">
-        <v>934</v>
+        <v>1269</v>
       </c>
       <c r="J300" s="45" t="s">
         <v>523</v>
@@ -15783,14 +15932,14 @@
         <v>17</v>
       </c>
       <c r="F301" s="45" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="G301" s="45"/>
       <c r="H301" s="45" t="s">
-        <v>935</v>
+        <v>844</v>
       </c>
       <c r="I301" s="47" t="s">
-        <v>936</v>
+        <v>1270</v>
       </c>
       <c r="J301" s="45" t="s">
         <v>523</v>
@@ -15813,14 +15962,14 @@
         <v>17</v>
       </c>
       <c r="F302" s="45" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="G302" s="45"/>
       <c r="H302" s="45" t="s">
-        <v>937</v>
+        <v>845</v>
       </c>
       <c r="I302" s="47" t="s">
-        <v>777</v>
+        <v>1186</v>
       </c>
       <c r="J302" s="45" t="s">
         <v>523</v>
@@ -15829,7 +15978,7 @@
       <c r="L302" s="46"/>
       <c r="M302" s="46"/>
     </row>
-    <row r="303" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="45" t="s">
         <v>569</v>
       </c>
@@ -15843,13 +15992,15 @@
         <v>18</v>
       </c>
       <c r="F303" s="45" t="s">
-        <v>938</v>
+        <v>846</v>
       </c>
       <c r="G303" s="45">
         <v>3</v>
       </c>
       <c r="H303" s="45"/>
-      <c r="I303" s="47"/>
+      <c r="I303" s="47" t="s">
+        <v>1271</v>
+      </c>
       <c r="J303" s="45" t="s">
         <v>523</v>
       </c>
@@ -15871,14 +16022,14 @@
         <v>18</v>
       </c>
       <c r="F304" s="45" t="s">
-        <v>938</v>
+        <v>846</v>
       </c>
       <c r="G304" s="45"/>
       <c r="H304" s="45" t="s">
-        <v>939</v>
+        <v>847</v>
       </c>
       <c r="I304" s="47" t="s">
-        <v>940</v>
+        <v>1272</v>
       </c>
       <c r="J304" s="45" t="s">
         <v>523</v>
@@ -15901,14 +16052,14 @@
         <v>18</v>
       </c>
       <c r="F305" s="45" t="s">
-        <v>938</v>
+        <v>846</v>
       </c>
       <c r="G305" s="45"/>
       <c r="H305" s="45" t="s">
-        <v>941</v>
+        <v>848</v>
       </c>
       <c r="I305" s="47" t="s">
-        <v>942</v>
+        <v>1273</v>
       </c>
       <c r="J305" s="45" t="s">
         <v>523</v>
@@ -15931,14 +16082,14 @@
         <v>18</v>
       </c>
       <c r="F306" s="45" t="s">
-        <v>938</v>
+        <v>846</v>
       </c>
       <c r="G306" s="45"/>
       <c r="H306" s="45" t="s">
-        <v>943</v>
+        <v>849</v>
       </c>
       <c r="I306" s="47" t="s">
-        <v>944</v>
+        <v>1274</v>
       </c>
       <c r="J306" s="45" t="s">
         <v>523</v>
@@ -15947,7 +16098,7 @@
       <c r="L306" s="46"/>
       <c r="M306" s="46"/>
     </row>
-    <row r="307" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="45" t="s">
         <v>569</v>
       </c>
@@ -15967,7 +16118,9 @@
         <v>3</v>
       </c>
       <c r="H307" s="45"/>
-      <c r="I307" s="47"/>
+      <c r="I307" s="47" t="s">
+        <v>1275</v>
+      </c>
       <c r="J307" s="45" t="s">
         <v>523</v>
       </c>
@@ -15993,10 +16146,10 @@
       </c>
       <c r="G308" s="45"/>
       <c r="H308" s="45" t="s">
-        <v>945</v>
+        <v>850</v>
       </c>
       <c r="I308" s="47" t="s">
-        <v>946</v>
+        <v>1276</v>
       </c>
       <c r="J308" s="45" t="s">
         <v>523</v>
@@ -16023,10 +16176,10 @@
       </c>
       <c r="G309" s="45"/>
       <c r="H309" s="45" t="s">
-        <v>947</v>
+        <v>851</v>
       </c>
       <c r="I309" s="47" t="s">
-        <v>948</v>
+        <v>1277</v>
       </c>
       <c r="J309" s="45" t="s">
         <v>523</v>
@@ -16053,10 +16206,10 @@
       </c>
       <c r="G310" s="45"/>
       <c r="H310" s="45" t="s">
-        <v>949</v>
+        <v>852</v>
       </c>
       <c r="I310" s="47" t="s">
-        <v>950</v>
+        <v>1278</v>
       </c>
       <c r="J310" s="45" t="s">
         <v>523</v>
@@ -16065,7 +16218,7 @@
       <c r="L310" s="46"/>
       <c r="M310" s="46"/>
     </row>
-    <row r="311" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B311" s="45" t="s">
         <v>569</v>
       </c>
@@ -16079,13 +16232,15 @@
         <v>20</v>
       </c>
       <c r="F311" s="45" t="s">
-        <v>951</v>
+        <v>853</v>
       </c>
       <c r="G311" s="45">
         <v>3</v>
       </c>
       <c r="H311" s="45"/>
-      <c r="I311" s="47"/>
+      <c r="I311" s="47" t="s">
+        <v>1279</v>
+      </c>
       <c r="J311" s="45" t="s">
         <v>523</v>
       </c>
@@ -16107,14 +16262,14 @@
         <v>20</v>
       </c>
       <c r="F312" s="45" t="s">
-        <v>951</v>
+        <v>853</v>
       </c>
       <c r="G312" s="45"/>
       <c r="H312" s="45" t="s">
-        <v>952</v>
+        <v>854</v>
       </c>
       <c r="I312" s="47" t="s">
-        <v>953</v>
+        <v>1280</v>
       </c>
       <c r="J312" s="45" t="s">
         <v>523</v>
@@ -16137,14 +16292,14 @@
         <v>20</v>
       </c>
       <c r="F313" s="45" t="s">
-        <v>951</v>
+        <v>853</v>
       </c>
       <c r="G313" s="45"/>
       <c r="H313" s="45" t="s">
-        <v>954</v>
+        <v>855</v>
       </c>
       <c r="I313" s="47" t="s">
-        <v>955</v>
+        <v>1281</v>
       </c>
       <c r="J313" s="45" t="s">
         <v>523</v>
@@ -16167,14 +16322,14 @@
         <v>20</v>
       </c>
       <c r="F314" s="45" t="s">
-        <v>951</v>
+        <v>853</v>
       </c>
       <c r="G314" s="45"/>
       <c r="H314" s="45" t="s">
-        <v>956</v>
+        <v>856</v>
       </c>
       <c r="I314" s="47" t="s">
-        <v>957</v>
+        <v>1282</v>
       </c>
       <c r="J314" s="45" t="s">
         <v>523</v>
@@ -16183,7 +16338,7 @@
       <c r="L314" s="46"/>
       <c r="M314" s="46"/>
     </row>
-    <row r="315" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="45" t="s">
         <v>569</v>
       </c>
@@ -16197,13 +16352,15 @@
         <v>21</v>
       </c>
       <c r="F315" s="45" t="s">
-        <v>958</v>
+        <v>857</v>
       </c>
       <c r="G315" s="45">
         <v>1</v>
       </c>
       <c r="H315" s="45"/>
-      <c r="I315" s="47"/>
+      <c r="I315" s="47" t="s">
+        <v>1283</v>
+      </c>
       <c r="J315" s="45" t="s">
         <v>523</v>
       </c>
@@ -16225,14 +16382,14 @@
         <v>21</v>
       </c>
       <c r="F316" s="45" t="s">
-        <v>958</v>
+        <v>857</v>
       </c>
       <c r="G316" s="45"/>
       <c r="H316" s="45" t="s">
-        <v>959</v>
+        <v>858</v>
       </c>
       <c r="I316" s="47" t="s">
-        <v>960</v>
+        <v>1283</v>
       </c>
       <c r="J316" s="45" t="s">
         <v>523</v>
@@ -16241,7 +16398,7 @@
       <c r="L316" s="46"/>
       <c r="M316" s="46"/>
     </row>
-    <row r="317" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317" s="45" t="s">
         <v>569</v>
       </c>
@@ -16255,13 +16412,15 @@
         <v>22</v>
       </c>
       <c r="F317" s="45" t="s">
-        <v>961</v>
+        <v>859</v>
       </c>
       <c r="G317" s="45">
         <v>6</v>
       </c>
       <c r="H317" s="45"/>
-      <c r="I317" s="47"/>
+      <c r="I317" s="47" t="s">
+        <v>1284</v>
+      </c>
       <c r="J317" s="45" t="s">
         <v>523</v>
       </c>
@@ -16283,14 +16442,14 @@
         <v>22</v>
       </c>
       <c r="F318" s="45" t="s">
-        <v>961</v>
+        <v>859</v>
       </c>
       <c r="G318" s="45"/>
       <c r="H318" s="45" t="s">
-        <v>962</v>
+        <v>860</v>
       </c>
       <c r="I318" s="47" t="s">
-        <v>927</v>
+        <v>1265</v>
       </c>
       <c r="J318" s="45" t="s">
         <v>523</v>
@@ -16313,14 +16472,14 @@
         <v>22</v>
       </c>
       <c r="F319" s="45" t="s">
-        <v>961</v>
+        <v>859</v>
       </c>
       <c r="G319" s="45"/>
       <c r="H319" s="45" t="s">
-        <v>963</v>
+        <v>861</v>
       </c>
       <c r="I319" s="47" t="s">
-        <v>964</v>
+        <v>1285</v>
       </c>
       <c r="J319" s="45" t="s">
         <v>523</v>
@@ -16343,14 +16502,14 @@
         <v>22</v>
       </c>
       <c r="F320" s="45" t="s">
-        <v>961</v>
+        <v>859</v>
       </c>
       <c r="G320" s="45"/>
       <c r="H320" s="45" t="s">
-        <v>965</v>
+        <v>862</v>
       </c>
       <c r="I320" s="47" t="s">
-        <v>966</v>
+        <v>1286</v>
       </c>
       <c r="J320" s="45" t="s">
         <v>523</v>
@@ -16373,14 +16532,14 @@
         <v>22</v>
       </c>
       <c r="F321" s="45" t="s">
-        <v>961</v>
+        <v>859</v>
       </c>
       <c r="G321" s="45"/>
       <c r="H321" s="45" t="s">
-        <v>967</v>
+        <v>863</v>
       </c>
       <c r="I321" s="47" t="s">
-        <v>968</v>
+        <v>1287</v>
       </c>
       <c r="J321" s="45" t="s">
         <v>523</v>
@@ -16403,14 +16562,14 @@
         <v>22</v>
       </c>
       <c r="F322" s="45" t="s">
-        <v>961</v>
+        <v>859</v>
       </c>
       <c r="G322" s="45"/>
       <c r="H322" s="45" t="s">
-        <v>969</v>
+        <v>864</v>
       </c>
       <c r="I322" s="47" t="s">
-        <v>970</v>
+        <v>1288</v>
       </c>
       <c r="J322" s="45" t="s">
         <v>523</v>
@@ -16433,14 +16592,14 @@
         <v>22</v>
       </c>
       <c r="F323" s="45" t="s">
-        <v>961</v>
+        <v>859</v>
       </c>
       <c r="G323" s="45"/>
       <c r="H323" s="45" t="s">
-        <v>971</v>
+        <v>865</v>
       </c>
       <c r="I323" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J323" s="45" t="s">
         <v>523</v>
@@ -16449,7 +16608,7 @@
       <c r="L323" s="46"/>
       <c r="M323" s="46"/>
     </row>
-    <row r="324" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="45" t="s">
         <v>569</v>
       </c>
@@ -16463,13 +16622,15 @@
         <v>23</v>
       </c>
       <c r="F324" s="45" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="G324" s="45">
         <v>6</v>
       </c>
       <c r="H324" s="45"/>
-      <c r="I324" s="47"/>
+      <c r="I324" s="47" t="s">
+        <v>1289</v>
+      </c>
       <c r="J324" s="45" t="s">
         <v>523</v>
       </c>
@@ -16491,14 +16652,14 @@
         <v>23</v>
       </c>
       <c r="F325" s="45" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="G325" s="45"/>
       <c r="H325" s="45" t="s">
-        <v>973</v>
+        <v>867</v>
       </c>
       <c r="I325" s="47" t="s">
-        <v>974</v>
+        <v>1290</v>
       </c>
       <c r="J325" s="45" t="s">
         <v>523</v>
@@ -16521,14 +16682,14 @@
         <v>23</v>
       </c>
       <c r="F326" s="45" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="G326" s="45"/>
       <c r="H326" s="45" t="s">
-        <v>975</v>
+        <v>868</v>
       </c>
       <c r="I326" s="47" t="s">
-        <v>976</v>
+        <v>1291</v>
       </c>
       <c r="J326" s="45" t="s">
         <v>523</v>
@@ -16551,14 +16712,14 @@
         <v>23</v>
       </c>
       <c r="F327" s="45" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="G327" s="45"/>
       <c r="H327" s="45" t="s">
-        <v>977</v>
+        <v>869</v>
       </c>
       <c r="I327" s="47" t="s">
-        <v>978</v>
+        <v>1292</v>
       </c>
       <c r="J327" s="45" t="s">
         <v>523</v>
@@ -16581,14 +16742,14 @@
         <v>23</v>
       </c>
       <c r="F328" s="45" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="G328" s="45"/>
       <c r="H328" s="45" t="s">
-        <v>979</v>
+        <v>870</v>
       </c>
       <c r="I328" s="47" t="s">
-        <v>980</v>
+        <v>1293</v>
       </c>
       <c r="J328" s="45" t="s">
         <v>523</v>
@@ -16611,14 +16772,14 @@
         <v>23</v>
       </c>
       <c r="F329" s="45" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="G329" s="45"/>
       <c r="H329" s="45" t="s">
-        <v>981</v>
+        <v>871</v>
       </c>
       <c r="I329" s="47" t="s">
-        <v>982</v>
+        <v>1294</v>
       </c>
       <c r="J329" s="45" t="s">
         <v>523</v>
@@ -16641,14 +16802,14 @@
         <v>23</v>
       </c>
       <c r="F330" s="45" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="G330" s="45"/>
       <c r="H330" s="45" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="I330" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J330" s="45" t="s">
         <v>523</v>
@@ -16657,7 +16818,7 @@
       <c r="L330" s="46"/>
       <c r="M330" s="46"/>
     </row>
-    <row r="331" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B331" s="45" t="s">
         <v>569</v>
       </c>
@@ -16671,13 +16832,15 @@
         <v>24</v>
       </c>
       <c r="F331" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="G331" s="45">
         <v>8</v>
       </c>
       <c r="H331" s="45"/>
-      <c r="I331" s="47"/>
+      <c r="I331" s="47" t="s">
+        <v>1295</v>
+      </c>
       <c r="J331" s="45" t="s">
         <v>523</v>
       </c>
@@ -16699,14 +16862,14 @@
         <v>24</v>
       </c>
       <c r="F332" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="G332" s="45"/>
       <c r="H332" s="45" t="s">
-        <v>984</v>
+        <v>873</v>
       </c>
       <c r="I332" s="47" t="s">
-        <v>985</v>
+        <v>1296</v>
       </c>
       <c r="J332" s="45" t="s">
         <v>523</v>
@@ -16729,14 +16892,14 @@
         <v>24</v>
       </c>
       <c r="F333" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="G333" s="45"/>
       <c r="H333" s="45" t="s">
-        <v>986</v>
+        <v>874</v>
       </c>
       <c r="I333" s="47" t="s">
-        <v>987</v>
+        <v>1297</v>
       </c>
       <c r="J333" s="45" t="s">
         <v>523</v>
@@ -16759,14 +16922,14 @@
         <v>24</v>
       </c>
       <c r="F334" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="G334" s="45"/>
       <c r="H334" s="45" t="s">
-        <v>988</v>
+        <v>875</v>
       </c>
       <c r="I334" s="47" t="s">
-        <v>946</v>
+        <v>1276</v>
       </c>
       <c r="J334" s="45" t="s">
         <v>523</v>
@@ -16789,14 +16952,14 @@
         <v>24</v>
       </c>
       <c r="F335" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="G335" s="45"/>
       <c r="H335" s="45" t="s">
-        <v>989</v>
+        <v>876</v>
       </c>
       <c r="I335" s="47" t="s">
-        <v>990</v>
+        <v>1298</v>
       </c>
       <c r="J335" s="45" t="s">
         <v>523</v>
@@ -16819,14 +16982,14 @@
         <v>24</v>
       </c>
       <c r="F336" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="G336" s="45"/>
       <c r="H336" s="45" t="s">
-        <v>991</v>
+        <v>877</v>
       </c>
       <c r="I336" s="47" t="s">
-        <v>992</v>
+        <v>1299</v>
       </c>
       <c r="J336" s="45" t="s">
         <v>523</v>
@@ -16849,14 +17012,14 @@
         <v>24</v>
       </c>
       <c r="F337" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="G337" s="45"/>
       <c r="H337" s="45" t="s">
-        <v>993</v>
+        <v>878</v>
       </c>
       <c r="I337" s="47" t="s">
-        <v>994</v>
+        <v>1300</v>
       </c>
       <c r="J337" s="45" t="s">
         <v>523</v>
@@ -16879,14 +17042,14 @@
         <v>24</v>
       </c>
       <c r="F338" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="G338" s="45"/>
       <c r="H338" s="45" t="s">
-        <v>995</v>
+        <v>879</v>
       </c>
       <c r="I338" s="47" t="s">
-        <v>996</v>
+        <v>1301</v>
       </c>
       <c r="J338" s="45" t="s">
         <v>523</v>
@@ -16909,14 +17072,14 @@
         <v>24</v>
       </c>
       <c r="F339" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="G339" s="45"/>
       <c r="H339" s="45" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="I339" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J339" s="45" t="s">
         <v>523</v>
@@ -16925,7 +17088,7 @@
       <c r="L339" s="46"/>
       <c r="M339" s="46"/>
     </row>
-    <row r="340" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B340" s="45" t="s">
         <v>569</v>
       </c>
@@ -16939,13 +17102,15 @@
         <v>25</v>
       </c>
       <c r="F340" s="45" t="s">
-        <v>997</v>
+        <v>880</v>
       </c>
       <c r="G340" s="45">
         <v>3</v>
       </c>
       <c r="H340" s="45"/>
-      <c r="I340" s="47"/>
+      <c r="I340" s="47" t="s">
+        <v>1302</v>
+      </c>
       <c r="J340" s="45" t="s">
         <v>523</v>
       </c>
@@ -16967,14 +17132,14 @@
         <v>25</v>
       </c>
       <c r="F341" s="45" t="s">
-        <v>997</v>
+        <v>880</v>
       </c>
       <c r="G341" s="45"/>
       <c r="H341" s="45" t="s">
-        <v>998</v>
+        <v>881</v>
       </c>
       <c r="I341" s="47" t="s">
-        <v>999</v>
+        <v>1303</v>
       </c>
       <c r="J341" s="45" t="s">
         <v>523</v>
@@ -16997,14 +17162,14 @@
         <v>25</v>
       </c>
       <c r="F342" s="45" t="s">
-        <v>997</v>
+        <v>880</v>
       </c>
       <c r="G342" s="45"/>
       <c r="H342" s="45" t="s">
         <v>379</v>
       </c>
       <c r="I342" s="47" t="s">
-        <v>1000</v>
+        <v>1304</v>
       </c>
       <c r="J342" s="45" t="s">
         <v>523</v>
@@ -17027,14 +17192,14 @@
         <v>25</v>
       </c>
       <c r="F343" s="45" t="s">
-        <v>997</v>
+        <v>880</v>
       </c>
       <c r="G343" s="45"/>
       <c r="H343" s="45" t="s">
-        <v>997</v>
+        <v>880</v>
       </c>
       <c r="I343" s="47" t="s">
-        <v>798</v>
+        <v>1198</v>
       </c>
       <c r="J343" s="45" t="s">
         <v>523</v>
@@ -17043,7 +17208,7 @@
       <c r="L343" s="46"/>
       <c r="M343" s="46"/>
     </row>
-    <row r="344" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344" s="45" t="s">
         <v>569</v>
       </c>
@@ -17057,13 +17222,15 @@
         <v>26</v>
       </c>
       <c r="F344" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G344" s="45">
         <v>11</v>
       </c>
       <c r="H344" s="45"/>
-      <c r="I344" s="47"/>
+      <c r="I344" s="47" t="s">
+        <v>1305</v>
+      </c>
       <c r="J344" s="45" t="s">
         <v>523</v>
       </c>
@@ -17085,14 +17252,14 @@
         <v>26</v>
       </c>
       <c r="F345" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G345" s="45"/>
       <c r="H345" s="45" t="s">
-        <v>1002</v>
+        <v>883</v>
       </c>
       <c r="I345" s="47" t="s">
-        <v>1003</v>
+        <v>1306</v>
       </c>
       <c r="J345" s="45" t="s">
         <v>523</v>
@@ -17115,14 +17282,14 @@
         <v>26</v>
       </c>
       <c r="F346" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G346" s="45"/>
       <c r="H346" s="45" t="s">
-        <v>1004</v>
+        <v>884</v>
       </c>
       <c r="I346" s="47" t="s">
-        <v>985</v>
+        <v>1296</v>
       </c>
       <c r="J346" s="45" t="s">
         <v>523</v>
@@ -17145,14 +17312,14 @@
         <v>26</v>
       </c>
       <c r="F347" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G347" s="45"/>
       <c r="H347" s="45" t="s">
-        <v>1005</v>
+        <v>885</v>
       </c>
       <c r="I347" s="47" t="s">
-        <v>762</v>
+        <v>1178</v>
       </c>
       <c r="J347" s="45" t="s">
         <v>523</v>
@@ -17175,14 +17342,14 @@
         <v>26</v>
       </c>
       <c r="F348" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G348" s="45"/>
       <c r="H348" s="45" t="s">
-        <v>1006</v>
+        <v>886</v>
       </c>
       <c r="I348" s="47" t="s">
-        <v>942</v>
+        <v>1273</v>
       </c>
       <c r="J348" s="45" t="s">
         <v>523</v>
@@ -17205,14 +17372,14 @@
         <v>26</v>
       </c>
       <c r="F349" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G349" s="45"/>
       <c r="H349" s="45" t="s">
-        <v>1007</v>
+        <v>887</v>
       </c>
       <c r="I349" s="47" t="s">
-        <v>1008</v>
+        <v>1307</v>
       </c>
       <c r="J349" s="45" t="s">
         <v>523</v>
@@ -17235,14 +17402,14 @@
         <v>26</v>
       </c>
       <c r="F350" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G350" s="45"/>
       <c r="H350" s="45" t="s">
-        <v>1009</v>
+        <v>888</v>
       </c>
       <c r="I350" s="47" t="s">
-        <v>1010</v>
+        <v>1308</v>
       </c>
       <c r="J350" s="45" t="s">
         <v>523</v>
@@ -17265,14 +17432,14 @@
         <v>26</v>
       </c>
       <c r="F351" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G351" s="45"/>
       <c r="H351" s="45" t="s">
-        <v>1011</v>
+        <v>889</v>
       </c>
       <c r="I351" s="47" t="s">
-        <v>1012</v>
+        <v>1309</v>
       </c>
       <c r="J351" s="45" t="s">
         <v>523</v>
@@ -17295,14 +17462,14 @@
         <v>26</v>
       </c>
       <c r="F352" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G352" s="45"/>
       <c r="H352" s="45" t="s">
-        <v>1013</v>
+        <v>890</v>
       </c>
       <c r="I352" s="47" t="s">
-        <v>1014</v>
+        <v>1310</v>
       </c>
       <c r="J352" s="45" t="s">
         <v>523</v>
@@ -17325,14 +17492,14 @@
         <v>26</v>
       </c>
       <c r="F353" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G353" s="45"/>
       <c r="H353" s="45" t="s">
-        <v>1015</v>
+        <v>891</v>
       </c>
       <c r="I353" s="47" t="s">
-        <v>1016</v>
+        <v>1311</v>
       </c>
       <c r="J353" s="45" t="s">
         <v>523</v>
@@ -17355,14 +17522,14 @@
         <v>26</v>
       </c>
       <c r="F354" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G354" s="45"/>
       <c r="H354" s="45" t="s">
-        <v>1017</v>
+        <v>892</v>
       </c>
       <c r="I354" s="47" t="s">
-        <v>1018</v>
+        <v>1312</v>
       </c>
       <c r="J354" s="45" t="s">
         <v>523</v>
@@ -17385,14 +17552,14 @@
         <v>26</v>
       </c>
       <c r="F355" s="45" t="s">
-        <v>1001</v>
+        <v>882</v>
       </c>
       <c r="G355" s="45"/>
       <c r="H355" s="45" t="s">
-        <v>1019</v>
+        <v>893</v>
       </c>
       <c r="I355" s="47" t="s">
-        <v>891</v>
+        <v>1246</v>
       </c>
       <c r="J355" s="45" t="s">
         <v>523</v>
@@ -17401,7 +17568,7 @@
       <c r="L355" s="46"/>
       <c r="M355" s="46"/>
     </row>
-    <row r="356" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B356" s="45" t="s">
         <v>569</v>
       </c>
@@ -17415,13 +17582,15 @@
         <v>27</v>
       </c>
       <c r="F356" s="45" t="s">
-        <v>1020</v>
+        <v>894</v>
       </c>
       <c r="G356" s="45">
         <v>3</v>
       </c>
       <c r="H356" s="45"/>
-      <c r="I356" s="47"/>
+      <c r="I356" s="47" t="s">
+        <v>1313</v>
+      </c>
       <c r="J356" s="45" t="s">
         <v>523</v>
       </c>
@@ -17443,14 +17612,14 @@
         <v>27</v>
       </c>
       <c r="F357" s="45" t="s">
-        <v>1020</v>
+        <v>894</v>
       </c>
       <c r="G357" s="45"/>
       <c r="H357" s="45" t="s">
-        <v>1021</v>
+        <v>895</v>
       </c>
       <c r="I357" s="47" t="s">
-        <v>1022</v>
+        <v>1314</v>
       </c>
       <c r="J357" s="45" t="s">
         <v>523</v>
@@ -17473,14 +17642,14 @@
         <v>27</v>
       </c>
       <c r="F358" s="45" t="s">
-        <v>1020</v>
+        <v>894</v>
       </c>
       <c r="G358" s="45"/>
       <c r="H358" s="45" t="s">
-        <v>1023</v>
+        <v>896</v>
       </c>
       <c r="I358" s="47" t="s">
-        <v>1024</v>
+        <v>1315</v>
       </c>
       <c r="J358" s="45" t="s">
         <v>523</v>
@@ -17503,14 +17672,14 @@
         <v>27</v>
       </c>
       <c r="F359" s="45" t="s">
-        <v>1020</v>
+        <v>894</v>
       </c>
       <c r="G359" s="45"/>
       <c r="H359" s="45" t="s">
-        <v>1025</v>
+        <v>897</v>
       </c>
       <c r="I359" s="47" t="s">
-        <v>1026</v>
+        <v>1316</v>
       </c>
       <c r="J359" s="45" t="s">
         <v>523</v>
@@ -17519,7 +17688,7 @@
       <c r="L359" s="46"/>
       <c r="M359" s="46"/>
     </row>
-    <row r="360" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B360" s="45" t="s">
         <v>569</v>
       </c>
@@ -17533,13 +17702,15 @@
         <v>28</v>
       </c>
       <c r="F360" s="45" t="s">
-        <v>1027</v>
+        <v>898</v>
       </c>
       <c r="G360" s="45">
         <v>1</v>
       </c>
       <c r="H360" s="45"/>
-      <c r="I360" s="47"/>
+      <c r="I360" s="47" t="s">
+        <v>1317</v>
+      </c>
       <c r="J360" s="45" t="s">
         <v>523</v>
       </c>
@@ -17561,14 +17732,14 @@
         <v>28</v>
       </c>
       <c r="F361" s="45" t="s">
-        <v>1027</v>
+        <v>898</v>
       </c>
       <c r="G361" s="45"/>
       <c r="H361" s="45" t="s">
-        <v>1028</v>
+        <v>899</v>
       </c>
       <c r="I361" s="47" t="s">
-        <v>1029</v>
+        <v>1317</v>
       </c>
       <c r="J361" s="45" t="s">
         <v>523</v>
@@ -17577,7 +17748,7 @@
       <c r="L361" s="46"/>
       <c r="M361" s="46"/>
     </row>
-    <row r="362" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B362" s="45" t="s">
         <v>569</v>
       </c>
@@ -17591,13 +17762,15 @@
         <v>29</v>
       </c>
       <c r="F362" s="45" t="s">
-        <v>1030</v>
+        <v>900</v>
       </c>
       <c r="G362" s="45">
         <v>2</v>
       </c>
       <c r="H362" s="45"/>
-      <c r="I362" s="47"/>
+      <c r="I362" s="47" t="s">
+        <v>1318</v>
+      </c>
       <c r="J362" s="45" t="s">
         <v>523</v>
       </c>
@@ -17619,14 +17792,14 @@
         <v>29</v>
       </c>
       <c r="F363" s="45" t="s">
-        <v>1030</v>
+        <v>900</v>
       </c>
       <c r="G363" s="45"/>
       <c r="H363" s="45" t="s">
-        <v>1031</v>
+        <v>901</v>
       </c>
       <c r="I363" s="47" t="s">
-        <v>1032</v>
+        <v>1319</v>
       </c>
       <c r="J363" s="45" t="s">
         <v>523</v>
@@ -17649,14 +17822,14 @@
         <v>29</v>
       </c>
       <c r="F364" s="45" t="s">
-        <v>1030</v>
+        <v>900</v>
       </c>
       <c r="G364" s="45"/>
       <c r="H364" s="45" t="s">
-        <v>1033</v>
+        <v>902</v>
       </c>
       <c r="I364" s="47" t="s">
-        <v>1034</v>
+        <v>1320</v>
       </c>
       <c r="J364" s="45" t="s">
         <v>523</v>
@@ -17665,7 +17838,7 @@
       <c r="L364" s="46"/>
       <c r="M364" s="46"/>
     </row>
-    <row r="365" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B365" s="45" t="s">
         <v>569</v>
       </c>
@@ -17679,13 +17852,15 @@
         <v>30</v>
       </c>
       <c r="F365" s="45" t="s">
-        <v>1035</v>
+        <v>903</v>
       </c>
       <c r="G365" s="45">
         <v>3</v>
       </c>
       <c r="H365" s="45"/>
-      <c r="I365" s="47"/>
+      <c r="I365" s="47" t="s">
+        <v>1321</v>
+      </c>
       <c r="J365" s="45" t="s">
         <v>523</v>
       </c>
@@ -17707,14 +17882,14 @@
         <v>30</v>
       </c>
       <c r="F366" s="45" t="s">
-        <v>1035</v>
+        <v>903</v>
       </c>
       <c r="G366" s="45"/>
       <c r="H366" s="45" t="s">
-        <v>1036</v>
+        <v>904</v>
       </c>
       <c r="I366" s="47" t="s">
-        <v>790</v>
+        <v>1193</v>
       </c>
       <c r="J366" s="45" t="s">
         <v>523</v>
@@ -17737,14 +17912,14 @@
         <v>30</v>
       </c>
       <c r="F367" s="45" t="s">
-        <v>1035</v>
+        <v>903</v>
       </c>
       <c r="G367" s="45"/>
       <c r="H367" s="45" t="s">
-        <v>1037</v>
+        <v>905</v>
       </c>
       <c r="I367" s="47" t="s">
-        <v>1038</v>
+        <v>1322</v>
       </c>
       <c r="J367" s="45" t="s">
         <v>523</v>
@@ -17767,14 +17942,14 @@
         <v>30</v>
       </c>
       <c r="F368" s="45" t="s">
-        <v>1035</v>
+        <v>903</v>
       </c>
       <c r="G368" s="45"/>
       <c r="H368" s="45" t="s">
-        <v>1039</v>
+        <v>906</v>
       </c>
       <c r="I368" s="47" t="s">
-        <v>891</v>
+        <v>1246</v>
       </c>
       <c r="J368" s="45" t="s">
         <v>523</v>
@@ -17783,7 +17958,7 @@
       <c r="L368" s="46"/>
       <c r="M368" s="46"/>
     </row>
-    <row r="369" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="45" t="s">
         <v>569</v>
       </c>
@@ -17797,13 +17972,15 @@
         <v>31</v>
       </c>
       <c r="F369" s="45" t="s">
-        <v>1040</v>
+        <v>907</v>
       </c>
       <c r="G369" s="45">
         <v>5</v>
       </c>
       <c r="H369" s="45"/>
-      <c r="I369" s="47"/>
+      <c r="I369" s="47" t="s">
+        <v>1323</v>
+      </c>
       <c r="J369" s="45" t="s">
         <v>523</v>
       </c>
@@ -17825,14 +18002,14 @@
         <v>31</v>
       </c>
       <c r="F370" s="45" t="s">
-        <v>1040</v>
+        <v>907</v>
       </c>
       <c r="G370" s="45"/>
       <c r="H370" s="45" t="s">
-        <v>1041</v>
+        <v>908</v>
       </c>
       <c r="I370" s="47" t="s">
-        <v>1042</v>
+        <v>1324</v>
       </c>
       <c r="J370" s="45" t="s">
         <v>523</v>
@@ -17855,14 +18032,14 @@
         <v>31</v>
       </c>
       <c r="F371" s="45" t="s">
-        <v>1040</v>
+        <v>907</v>
       </c>
       <c r="G371" s="45"/>
       <c r="H371" s="45" t="s">
-        <v>1043</v>
+        <v>909</v>
       </c>
       <c r="I371" s="47" t="s">
-        <v>851</v>
+        <v>1225</v>
       </c>
       <c r="J371" s="45" t="s">
         <v>523</v>
@@ -17885,14 +18062,14 @@
         <v>31</v>
       </c>
       <c r="F372" s="45" t="s">
-        <v>1040</v>
+        <v>907</v>
       </c>
       <c r="G372" s="45"/>
       <c r="H372" s="45" t="s">
-        <v>1044</v>
+        <v>910</v>
       </c>
       <c r="I372" s="47" t="s">
-        <v>1045</v>
+        <v>1325</v>
       </c>
       <c r="J372" s="45" t="s">
         <v>523</v>
@@ -17915,14 +18092,14 @@
         <v>31</v>
       </c>
       <c r="F373" s="45" t="s">
-        <v>1040</v>
+        <v>907</v>
       </c>
       <c r="G373" s="45"/>
       <c r="H373" s="45" t="s">
         <v>129</v>
       </c>
       <c r="I373" s="47" t="s">
-        <v>1046</v>
+        <v>1326</v>
       </c>
       <c r="J373" s="45" t="s">
         <v>523</v>
@@ -17945,14 +18122,14 @@
         <v>31</v>
       </c>
       <c r="F374" s="45" t="s">
-        <v>1040</v>
+        <v>907</v>
       </c>
       <c r="G374" s="45"/>
       <c r="H374" s="45" t="s">
-        <v>1040</v>
+        <v>907</v>
       </c>
       <c r="I374" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J374" s="45" t="s">
         <v>523</v>
@@ -17961,7 +18138,7 @@
       <c r="L374" s="46"/>
       <c r="M374" s="46"/>
     </row>
-    <row r="375" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B375" s="45" t="s">
         <v>569</v>
       </c>
@@ -17975,13 +18152,15 @@
         <v>32</v>
       </c>
       <c r="F375" s="45" t="s">
-        <v>1047</v>
+        <v>911</v>
       </c>
       <c r="G375" s="45">
         <v>5</v>
       </c>
       <c r="H375" s="45"/>
-      <c r="I375" s="47"/>
+      <c r="I375" s="47" t="s">
+        <v>1327</v>
+      </c>
       <c r="J375" s="45" t="s">
         <v>523</v>
       </c>
@@ -18003,14 +18182,14 @@
         <v>32</v>
       </c>
       <c r="F376" s="45" t="s">
-        <v>1047</v>
+        <v>911</v>
       </c>
       <c r="G376" s="45"/>
       <c r="H376" s="45" t="s">
         <v>381</v>
       </c>
       <c r="I376" s="47" t="s">
-        <v>1048</v>
+        <v>1328</v>
       </c>
       <c r="J376" s="45" t="s">
         <v>523</v>
@@ -18033,14 +18212,14 @@
         <v>32</v>
       </c>
       <c r="F377" s="45" t="s">
-        <v>1047</v>
+        <v>911</v>
       </c>
       <c r="G377" s="45"/>
       <c r="H377" s="45" t="s">
-        <v>1049</v>
+        <v>912</v>
       </c>
       <c r="I377" s="47" t="s">
-        <v>1050</v>
+        <v>1329</v>
       </c>
       <c r="J377" s="45" t="s">
         <v>523</v>
@@ -18063,14 +18242,14 @@
         <v>32</v>
       </c>
       <c r="F378" s="45" t="s">
-        <v>1047</v>
+        <v>911</v>
       </c>
       <c r="G378" s="45"/>
       <c r="H378" s="45" t="s">
-        <v>1051</v>
+        <v>913</v>
       </c>
       <c r="I378" s="47" t="s">
-        <v>1052</v>
+        <v>1330</v>
       </c>
       <c r="J378" s="45" t="s">
         <v>523</v>
@@ -18093,14 +18272,14 @@
         <v>32</v>
       </c>
       <c r="F379" s="45" t="s">
-        <v>1047</v>
+        <v>911</v>
       </c>
       <c r="G379" s="45"/>
       <c r="H379" s="45" t="s">
         <v>67</v>
       </c>
       <c r="I379" s="47" t="s">
-        <v>1053</v>
+        <v>1331</v>
       </c>
       <c r="J379" s="45" t="s">
         <v>523</v>
@@ -18123,14 +18302,14 @@
         <v>32</v>
       </c>
       <c r="F380" s="45" t="s">
-        <v>1047</v>
+        <v>911</v>
       </c>
       <c r="G380" s="45"/>
       <c r="H380" s="45" t="s">
-        <v>1047</v>
+        <v>911</v>
       </c>
       <c r="I380" s="47" t="s">
-        <v>798</v>
+        <v>1198</v>
       </c>
       <c r="J380" s="45" t="s">
         <v>523</v>
@@ -18139,7 +18318,7 @@
       <c r="L380" s="46"/>
       <c r="M380" s="46"/>
     </row>
-    <row r="381" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B381" s="45" t="s">
         <v>569</v>
       </c>
@@ -18153,13 +18332,15 @@
         <v>33</v>
       </c>
       <c r="F381" s="45" t="s">
-        <v>1054</v>
+        <v>914</v>
       </c>
       <c r="G381" s="45">
         <v>7</v>
       </c>
       <c r="H381" s="45"/>
-      <c r="I381" s="47"/>
+      <c r="I381" s="47" t="s">
+        <v>1332</v>
+      </c>
       <c r="J381" s="45" t="s">
         <v>523</v>
       </c>
@@ -18181,14 +18362,14 @@
         <v>33</v>
       </c>
       <c r="F382" s="45" t="s">
-        <v>1054</v>
+        <v>914</v>
       </c>
       <c r="G382" s="45"/>
       <c r="H382" s="45" t="s">
-        <v>1055</v>
+        <v>915</v>
       </c>
       <c r="I382" s="47" t="s">
-        <v>1056</v>
+        <v>1333</v>
       </c>
       <c r="J382" s="45" t="s">
         <v>523</v>
@@ -18211,14 +18392,14 @@
         <v>33</v>
       </c>
       <c r="F383" s="45" t="s">
-        <v>1054</v>
+        <v>914</v>
       </c>
       <c r="G383" s="45"/>
       <c r="H383" s="45" t="s">
-        <v>1057</v>
+        <v>916</v>
       </c>
       <c r="I383" s="47" t="s">
-        <v>1058</v>
+        <v>1334</v>
       </c>
       <c r="J383" s="45" t="s">
         <v>523</v>
@@ -18241,14 +18422,14 @@
         <v>33</v>
       </c>
       <c r="F384" s="45" t="s">
-        <v>1054</v>
+        <v>914</v>
       </c>
       <c r="G384" s="45"/>
       <c r="H384" s="45" t="s">
-        <v>1059</v>
+        <v>917</v>
       </c>
       <c r="I384" s="47" t="s">
-        <v>756</v>
+        <v>1174</v>
       </c>
       <c r="J384" s="45" t="s">
         <v>523</v>
@@ -18271,14 +18452,14 @@
         <v>33</v>
       </c>
       <c r="F385" s="45" t="s">
-        <v>1054</v>
+        <v>914</v>
       </c>
       <c r="G385" s="45"/>
       <c r="H385" s="45" t="s">
-        <v>1060</v>
+        <v>918</v>
       </c>
       <c r="I385" s="47" t="s">
-        <v>1061</v>
+        <v>1335</v>
       </c>
       <c r="J385" s="45" t="s">
         <v>523</v>
@@ -18301,14 +18482,14 @@
         <v>33</v>
       </c>
       <c r="F386" s="45" t="s">
-        <v>1054</v>
+        <v>914</v>
       </c>
       <c r="G386" s="45"/>
       <c r="H386" s="45" t="s">
-        <v>1062</v>
+        <v>919</v>
       </c>
       <c r="I386" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J386" s="45" t="s">
         <v>523</v>
@@ -18331,14 +18512,14 @@
         <v>33</v>
       </c>
       <c r="F387" s="45" t="s">
-        <v>1054</v>
+        <v>914</v>
       </c>
       <c r="G387" s="45"/>
       <c r="H387" s="45" t="s">
-        <v>1063</v>
+        <v>920</v>
       </c>
       <c r="I387" s="47" t="s">
-        <v>1064</v>
+        <v>1336</v>
       </c>
       <c r="J387" s="45" t="s">
         <v>523</v>
@@ -18361,14 +18542,14 @@
         <v>33</v>
       </c>
       <c r="F388" s="45" t="s">
-        <v>1054</v>
+        <v>914</v>
       </c>
       <c r="G388" s="45"/>
       <c r="H388" s="45" t="s">
-        <v>1054</v>
+        <v>914</v>
       </c>
       <c r="I388" s="47" t="s">
-        <v>798</v>
+        <v>1198</v>
       </c>
       <c r="J388" s="45" t="s">
         <v>523</v>
@@ -18377,7 +18558,7 @@
       <c r="L388" s="46"/>
       <c r="M388" s="46"/>
     </row>
-    <row r="389" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B389" s="45" t="s">
         <v>569</v>
       </c>
@@ -18391,13 +18572,15 @@
         <v>34</v>
       </c>
       <c r="F389" s="45" t="s">
-        <v>1065</v>
+        <v>921</v>
       </c>
       <c r="G389" s="45">
         <v>3</v>
       </c>
       <c r="H389" s="45"/>
-      <c r="I389" s="47"/>
+      <c r="I389" s="47" t="s">
+        <v>1337</v>
+      </c>
       <c r="J389" s="45" t="s">
         <v>523</v>
       </c>
@@ -18419,14 +18602,14 @@
         <v>34</v>
       </c>
       <c r="F390" s="45" t="s">
-        <v>1065</v>
+        <v>921</v>
       </c>
       <c r="G390" s="45"/>
       <c r="H390" s="45" t="s">
-        <v>1066</v>
+        <v>922</v>
       </c>
       <c r="I390" s="47" t="s">
-        <v>1067</v>
+        <v>1338</v>
       </c>
       <c r="J390" s="45" t="s">
         <v>523</v>
@@ -18449,14 +18632,14 @@
         <v>34</v>
       </c>
       <c r="F391" s="45" t="s">
-        <v>1065</v>
+        <v>921</v>
       </c>
       <c r="G391" s="45"/>
       <c r="H391" s="45" t="s">
-        <v>1068</v>
+        <v>923</v>
       </c>
       <c r="I391" s="47" t="s">
-        <v>1069</v>
+        <v>1339</v>
       </c>
       <c r="J391" s="45" t="s">
         <v>523</v>
@@ -18479,14 +18662,14 @@
         <v>34</v>
       </c>
       <c r="F392" s="45" t="s">
-        <v>1065</v>
+        <v>921</v>
       </c>
       <c r="G392" s="45"/>
       <c r="H392" s="45" t="s">
-        <v>1070</v>
+        <v>924</v>
       </c>
       <c r="I392" s="47" t="s">
-        <v>1071</v>
+        <v>1340</v>
       </c>
       <c r="J392" s="45" t="s">
         <v>523</v>
@@ -18495,7 +18678,7 @@
       <c r="L392" s="46"/>
       <c r="M392" s="46"/>
     </row>
-    <row r="393" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="45" t="s">
         <v>569</v>
       </c>
@@ -18509,13 +18692,15 @@
         <v>35</v>
       </c>
       <c r="F393" s="45" t="s">
-        <v>1072</v>
+        <v>925</v>
       </c>
       <c r="G393" s="45">
         <v>3</v>
       </c>
       <c r="H393" s="45"/>
-      <c r="I393" s="47"/>
+      <c r="I393" s="47" t="s">
+        <v>1341</v>
+      </c>
       <c r="J393" s="45" t="s">
         <v>523</v>
       </c>
@@ -18537,14 +18722,14 @@
         <v>35</v>
       </c>
       <c r="F394" s="45" t="s">
-        <v>1072</v>
+        <v>925</v>
       </c>
       <c r="G394" s="45"/>
       <c r="H394" s="45" t="s">
         <v>121</v>
       </c>
       <c r="I394" s="47" t="s">
-        <v>1073</v>
+        <v>1342</v>
       </c>
       <c r="J394" s="45" t="s">
         <v>523</v>
@@ -18567,14 +18752,14 @@
         <v>35</v>
       </c>
       <c r="F395" s="45" t="s">
-        <v>1072</v>
+        <v>925</v>
       </c>
       <c r="G395" s="45"/>
       <c r="H395" s="45" t="s">
         <v>483</v>
       </c>
       <c r="I395" s="47" t="s">
-        <v>1074</v>
+        <v>1343</v>
       </c>
       <c r="J395" s="45" t="s">
         <v>523</v>
@@ -18597,14 +18782,14 @@
         <v>35</v>
       </c>
       <c r="F396" s="45" t="s">
-        <v>1072</v>
+        <v>925</v>
       </c>
       <c r="G396" s="45"/>
       <c r="H396" s="45" t="s">
-        <v>1075</v>
+        <v>926</v>
       </c>
       <c r="I396" s="47" t="s">
-        <v>759</v>
+        <v>1176</v>
       </c>
       <c r="J396" s="45" t="s">
         <v>523</v>
@@ -18613,7 +18798,7 @@
       <c r="L396" s="46"/>
       <c r="M396" s="46"/>
     </row>
-    <row r="397" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B397" s="45" t="s">
         <v>569</v>
       </c>
@@ -18627,13 +18812,15 @@
         <v>36</v>
       </c>
       <c r="F397" s="45" t="s">
-        <v>1076</v>
+        <v>927</v>
       </c>
       <c r="G397" s="45">
         <v>2</v>
       </c>
       <c r="H397" s="45"/>
-      <c r="I397" s="47"/>
+      <c r="I397" s="47" t="s">
+        <v>1344</v>
+      </c>
       <c r="J397" s="45" t="s">
         <v>523</v>
       </c>
@@ -18655,14 +18842,14 @@
         <v>36</v>
       </c>
       <c r="F398" s="45" t="s">
-        <v>1076</v>
+        <v>927</v>
       </c>
       <c r="G398" s="45"/>
       <c r="H398" s="45" t="s">
-        <v>1077</v>
+        <v>928</v>
       </c>
       <c r="I398" s="47" t="s">
-        <v>1078</v>
+        <v>1345</v>
       </c>
       <c r="J398" s="45" t="s">
         <v>523</v>
@@ -18685,14 +18872,14 @@
         <v>36</v>
       </c>
       <c r="F399" s="45" t="s">
-        <v>1076</v>
+        <v>927</v>
       </c>
       <c r="G399" s="45"/>
       <c r="H399" s="45" t="s">
-        <v>1079</v>
+        <v>929</v>
       </c>
       <c r="I399" s="47" t="s">
-        <v>1080</v>
+        <v>729</v>
       </c>
       <c r="J399" s="45" t="s">
         <v>523</v>
@@ -18752,7 +18939,7 @@
         <v>157</v>
       </c>
       <c r="I401" s="47" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="J401" s="45" t="s">
         <v>523</v>
@@ -18782,7 +18969,7 @@
         <v>158</v>
       </c>
       <c r="I402" s="47" t="s">
-        <v>1082</v>
+        <v>931</v>
       </c>
       <c r="J402" s="45" t="s">
         <v>523</v>
@@ -18812,7 +18999,7 @@
         <v>159</v>
       </c>
       <c r="I403" s="47" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="J403" s="45" t="s">
         <v>523</v>
@@ -18872,7 +19059,7 @@
         <v>161</v>
       </c>
       <c r="I405" s="47" t="s">
-        <v>1084</v>
+        <v>933</v>
       </c>
       <c r="J405" s="45" t="s">
         <v>523</v>
@@ -18902,7 +19089,7 @@
         <v>162</v>
       </c>
       <c r="I406" s="47" t="s">
-        <v>1085</v>
+        <v>934</v>
       </c>
       <c r="J406" s="45" t="s">
         <v>523</v>
@@ -18932,7 +19119,7 @@
         <v>163</v>
       </c>
       <c r="I407" s="47" t="s">
-        <v>1086</v>
+        <v>935</v>
       </c>
       <c r="J407" s="45" t="s">
         <v>523</v>
@@ -18962,7 +19149,7 @@
         <v>164</v>
       </c>
       <c r="I408" s="47" t="s">
-        <v>1087</v>
+        <v>936</v>
       </c>
       <c r="J408" s="45" t="s">
         <v>523</v>
@@ -18971,7 +19158,7 @@
       <c r="L408" s="46"/>
       <c r="M408" s="46"/>
     </row>
-    <row r="409" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B409" s="45" t="s">
         <v>569</v>
       </c>
@@ -19022,7 +19209,7 @@
         <v>167</v>
       </c>
       <c r="I410" s="47" t="s">
-        <v>1088</v>
+        <v>937</v>
       </c>
       <c r="J410" s="45" t="s">
         <v>523</v>
@@ -19031,7 +19218,7 @@
       <c r="L410" s="46"/>
       <c r="M410" s="46"/>
     </row>
-    <row r="411" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B411" s="45" t="s">
         <v>569</v>
       </c>
@@ -19082,7 +19269,7 @@
         <v>170</v>
       </c>
       <c r="I412" s="47" t="s">
-        <v>1089</v>
+        <v>938</v>
       </c>
       <c r="J412" s="45" t="s">
         <v>523</v>
@@ -19112,7 +19299,7 @@
         <v>171</v>
       </c>
       <c r="I413" s="47" t="s">
-        <v>1090</v>
+        <v>939</v>
       </c>
       <c r="J413" s="45" t="s">
         <v>523</v>
@@ -19142,7 +19329,7 @@
         <v>172</v>
       </c>
       <c r="I414" s="47" t="s">
-        <v>1091</v>
+        <v>940</v>
       </c>
       <c r="J414" s="45" t="s">
         <v>523</v>
@@ -19202,7 +19389,7 @@
         <v>174</v>
       </c>
       <c r="I416" s="47" t="s">
-        <v>1092</v>
+        <v>941</v>
       </c>
       <c r="J416" s="45" t="s">
         <v>523</v>
@@ -19232,7 +19419,7 @@
         <v>175</v>
       </c>
       <c r="I417" s="47" t="s">
-        <v>1093</v>
+        <v>942</v>
       </c>
       <c r="J417" s="45" t="s">
         <v>523</v>
@@ -19262,7 +19449,7 @@
         <v>176</v>
       </c>
       <c r="I418" s="47" t="s">
-        <v>1094</v>
+        <v>943</v>
       </c>
       <c r="J418" s="45" t="s">
         <v>523</v>
@@ -19292,7 +19479,7 @@
         <v>177</v>
       </c>
       <c r="I419" s="47" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="J419" s="45" t="s">
         <v>523</v>
@@ -19322,7 +19509,7 @@
         <v>178</v>
       </c>
       <c r="I420" s="47" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J420" s="45" t="s">
         <v>523</v>
@@ -19352,7 +19539,7 @@
         <v>179</v>
       </c>
       <c r="I421" s="47" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J421" s="45" t="s">
         <v>523</v>
@@ -19382,7 +19569,7 @@
         <v>180</v>
       </c>
       <c r="I422" s="47" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J422" s="45" t="s">
         <v>523</v>
@@ -19412,7 +19599,7 @@
         <v>181</v>
       </c>
       <c r="I423" s="47" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J423" s="45" t="s">
         <v>523</v>
@@ -19442,7 +19629,7 @@
         <v>182</v>
       </c>
       <c r="I424" s="47" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J424" s="45" t="s">
         <v>523</v>
@@ -19472,7 +19659,7 @@
         <v>183</v>
       </c>
       <c r="I425" s="47" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J425" s="45" t="s">
         <v>523</v>
@@ -19502,7 +19689,7 @@
         <v>184</v>
       </c>
       <c r="I426" s="47" t="s">
-        <v>1102</v>
+        <v>951</v>
       </c>
       <c r="J426" s="45" t="s">
         <v>523</v>
@@ -19532,7 +19719,7 @@
         <v>185</v>
       </c>
       <c r="I427" s="47" t="s">
-        <v>1103</v>
+        <v>952</v>
       </c>
       <c r="J427" s="45" t="s">
         <v>523</v>
@@ -19562,7 +19749,7 @@
         <v>186</v>
       </c>
       <c r="I428" s="47" t="s">
-        <v>1104</v>
+        <v>953</v>
       </c>
       <c r="J428" s="45" t="s">
         <v>523</v>
@@ -19592,7 +19779,7 @@
         <v>187</v>
       </c>
       <c r="I429" s="47" t="s">
-        <v>1105</v>
+        <v>954</v>
       </c>
       <c r="J429" s="45" t="s">
         <v>523</v>
@@ -19652,7 +19839,7 @@
         <v>189</v>
       </c>
       <c r="I431" s="47" t="s">
-        <v>1106</v>
+        <v>955</v>
       </c>
       <c r="J431" s="45" t="s">
         <v>523</v>
@@ -19682,7 +19869,7 @@
         <v>190</v>
       </c>
       <c r="I432" s="47" t="s">
-        <v>1107</v>
+        <v>956</v>
       </c>
       <c r="J432" s="45" t="s">
         <v>523</v>
@@ -19712,7 +19899,7 @@
         <v>191</v>
       </c>
       <c r="I433" s="47" t="s">
-        <v>1108</v>
+        <v>957</v>
       </c>
       <c r="J433" s="45" t="s">
         <v>523</v>
@@ -19742,7 +19929,7 @@
         <v>192</v>
       </c>
       <c r="I434" s="47" t="s">
-        <v>1109</v>
+        <v>958</v>
       </c>
       <c r="J434" s="45" t="s">
         <v>523</v>
@@ -19772,7 +19959,7 @@
         <v>193</v>
       </c>
       <c r="I435" s="47" t="s">
-        <v>1110</v>
+        <v>959</v>
       </c>
       <c r="J435" s="45" t="s">
         <v>523</v>
@@ -19802,7 +19989,7 @@
         <v>194</v>
       </c>
       <c r="I436" s="47" t="s">
-        <v>1111</v>
+        <v>960</v>
       </c>
       <c r="J436" s="45" t="s">
         <v>523</v>
@@ -19832,7 +20019,7 @@
         <v>56</v>
       </c>
       <c r="I437" s="47" t="s">
-        <v>1112</v>
+        <v>961</v>
       </c>
       <c r="J437" s="45" t="s">
         <v>523</v>
@@ -19862,7 +20049,7 @@
         <v>195</v>
       </c>
       <c r="I438" s="47" t="s">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="J438" s="45" t="s">
         <v>523</v>
@@ -19892,7 +20079,7 @@
         <v>196</v>
       </c>
       <c r="I439" s="47" t="s">
-        <v>1114</v>
+        <v>963</v>
       </c>
       <c r="J439" s="45" t="s">
         <v>523</v>
@@ -19922,7 +20109,7 @@
         <v>197</v>
       </c>
       <c r="I440" s="47" t="s">
-        <v>1115</v>
+        <v>964</v>
       </c>
       <c r="J440" s="45" t="s">
         <v>523</v>
@@ -19952,7 +20139,7 @@
         <v>198</v>
       </c>
       <c r="I441" s="47" t="s">
-        <v>1116</v>
+        <v>965</v>
       </c>
       <c r="J441" s="45" t="s">
         <v>523</v>
@@ -19982,7 +20169,7 @@
         <v>199</v>
       </c>
       <c r="I442" s="47" t="s">
-        <v>1117</v>
+        <v>966</v>
       </c>
       <c r="J442" s="45" t="s">
         <v>523</v>
@@ -20012,7 +20199,7 @@
         <v>200</v>
       </c>
       <c r="I443" s="47" t="s">
-        <v>1118</v>
+        <v>967</v>
       </c>
       <c r="J443" s="45" t="s">
         <v>523</v>
@@ -20021,7 +20208,7 @@
       <c r="L443" s="46"/>
       <c r="M443" s="46"/>
     </row>
-    <row r="444" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B444" s="45" t="s">
         <v>569</v>
       </c>
@@ -20072,7 +20259,7 @@
         <v>203</v>
       </c>
       <c r="I445" s="47" t="s">
-        <v>1119</v>
+        <v>968</v>
       </c>
       <c r="J445" s="45" t="s">
         <v>523</v>
@@ -20102,7 +20289,7 @@
         <v>204</v>
       </c>
       <c r="I446" s="47" t="s">
-        <v>1120</v>
+        <v>969</v>
       </c>
       <c r="J446" s="45" t="s">
         <v>523</v>
@@ -20132,7 +20319,7 @@
         <v>205</v>
       </c>
       <c r="I447" s="47" t="s">
-        <v>1121</v>
+        <v>970</v>
       </c>
       <c r="J447" s="45" t="s">
         <v>523</v>
@@ -20162,7 +20349,7 @@
         <v>206</v>
       </c>
       <c r="I448" s="47" t="s">
-        <v>1122</v>
+        <v>971</v>
       </c>
       <c r="J448" s="45" t="s">
         <v>523</v>
@@ -20192,7 +20379,7 @@
         <v>207</v>
       </c>
       <c r="I449" s="47" t="s">
-        <v>1123</v>
+        <v>972</v>
       </c>
       <c r="J449" s="45" t="s">
         <v>523</v>
@@ -20222,7 +20409,7 @@
         <v>208</v>
       </c>
       <c r="I450" s="47" t="s">
-        <v>1124</v>
+        <v>973</v>
       </c>
       <c r="J450" s="45" t="s">
         <v>523</v>
@@ -20252,7 +20439,7 @@
         <v>209</v>
       </c>
       <c r="I451" s="47" t="s">
-        <v>1125</v>
+        <v>974</v>
       </c>
       <c r="J451" s="45" t="s">
         <v>523</v>
@@ -20282,7 +20469,7 @@
         <v>210</v>
       </c>
       <c r="I452" s="47" t="s">
-        <v>1126</v>
+        <v>975</v>
       </c>
       <c r="J452" s="45" t="s">
         <v>523</v>
@@ -20312,7 +20499,7 @@
         <v>211</v>
       </c>
       <c r="I453" s="47" t="s">
-        <v>1127</v>
+        <v>976</v>
       </c>
       <c r="J453" s="45" t="s">
         <v>523</v>
@@ -20342,7 +20529,7 @@
         <v>212</v>
       </c>
       <c r="I454" s="47" t="s">
-        <v>1128</v>
+        <v>977</v>
       </c>
       <c r="J454" s="45" t="s">
         <v>523</v>
@@ -20372,7 +20559,7 @@
         <v>213</v>
       </c>
       <c r="I455" s="47" t="s">
-        <v>1129</v>
+        <v>978</v>
       </c>
       <c r="J455" s="45" t="s">
         <v>523</v>
@@ -20402,7 +20589,7 @@
         <v>214</v>
       </c>
       <c r="I456" s="47" t="s">
-        <v>1130</v>
+        <v>979</v>
       </c>
       <c r="J456" s="45" t="s">
         <v>523</v>
@@ -20432,7 +20619,7 @@
         <v>215</v>
       </c>
       <c r="I457" s="47" t="s">
-        <v>1131</v>
+        <v>980</v>
       </c>
       <c r="J457" s="45" t="s">
         <v>523</v>
@@ -20462,7 +20649,7 @@
         <v>216</v>
       </c>
       <c r="I458" s="47" t="s">
-        <v>1132</v>
+        <v>981</v>
       </c>
       <c r="J458" s="45" t="s">
         <v>523</v>
@@ -20471,7 +20658,7 @@
       <c r="L458" s="46"/>
       <c r="M458" s="46"/>
     </row>
-    <row r="459" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B459" s="45" t="s">
         <v>569</v>
       </c>
@@ -20552,7 +20739,7 @@
         <v>220</v>
       </c>
       <c r="I461" s="47" t="s">
-        <v>1133</v>
+        <v>982</v>
       </c>
       <c r="J461" s="45" t="s">
         <v>523</v>
@@ -20582,7 +20769,7 @@
         <v>221</v>
       </c>
       <c r="I462" s="47" t="s">
-        <v>1134</v>
+        <v>983</v>
       </c>
       <c r="J462" s="45" t="s">
         <v>523</v>
@@ -20642,7 +20829,7 @@
         <v>223</v>
       </c>
       <c r="I464" s="47" t="s">
-        <v>1135</v>
+        <v>984</v>
       </c>
       <c r="J464" s="45" t="s">
         <v>523</v>
@@ -20672,7 +20859,7 @@
         <v>224</v>
       </c>
       <c r="I465" s="47" t="s">
-        <v>1136</v>
+        <v>985</v>
       </c>
       <c r="J465" s="45" t="s">
         <v>523</v>
@@ -20732,7 +20919,7 @@
         <v>226</v>
       </c>
       <c r="I467" s="47" t="s">
-        <v>1137</v>
+        <v>986</v>
       </c>
       <c r="J467" s="45" t="s">
         <v>523</v>
@@ -20792,7 +20979,7 @@
         <v>228</v>
       </c>
       <c r="I469" s="47" t="s">
-        <v>1138</v>
+        <v>987</v>
       </c>
       <c r="J469" s="45" t="s">
         <v>523</v>
@@ -20822,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="I470" s="47" t="s">
-        <v>1139</v>
+        <v>988</v>
       </c>
       <c r="J470" s="45" t="s">
         <v>523</v>
@@ -20852,7 +21039,7 @@
         <v>230</v>
       </c>
       <c r="I471" s="47" t="s">
-        <v>1127</v>
+        <v>976</v>
       </c>
       <c r="J471" s="45" t="s">
         <v>523</v>
@@ -20882,7 +21069,7 @@
         <v>231</v>
       </c>
       <c r="I472" s="47" t="s">
-        <v>1118</v>
+        <v>967</v>
       </c>
       <c r="J472" s="45" t="s">
         <v>523</v>
@@ -20891,7 +21078,7 @@
       <c r="L472" s="46"/>
       <c r="M472" s="46"/>
     </row>
-    <row r="473" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B473" s="45" t="s">
         <v>569</v>
       </c>
@@ -20942,7 +21129,7 @@
         <v>234</v>
       </c>
       <c r="I474" s="47" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J474" s="45" t="s">
         <v>523</v>
@@ -20972,7 +21159,7 @@
         <v>235</v>
       </c>
       <c r="I475" s="47" t="s">
-        <v>1140</v>
+        <v>989</v>
       </c>
       <c r="J475" s="45" t="s">
         <v>523</v>
@@ -21002,7 +21189,7 @@
         <v>236</v>
       </c>
       <c r="I476" s="47" t="s">
-        <v>1141</v>
+        <v>990</v>
       </c>
       <c r="J476" s="45" t="s">
         <v>523</v>
@@ -21032,7 +21219,7 @@
         <v>237</v>
       </c>
       <c r="I477" s="47" t="s">
-        <v>1142</v>
+        <v>991</v>
       </c>
       <c r="J477" s="45" t="s">
         <v>523</v>
@@ -21062,7 +21249,7 @@
         <v>238</v>
       </c>
       <c r="I478" s="47" t="s">
-        <v>1143</v>
+        <v>992</v>
       </c>
       <c r="J478" s="45" t="s">
         <v>523</v>
@@ -21092,7 +21279,7 @@
         <v>239</v>
       </c>
       <c r="I479" s="47" t="s">
-        <v>1144</v>
+        <v>993</v>
       </c>
       <c r="J479" s="45" t="s">
         <v>523</v>
@@ -21122,7 +21309,7 @@
         <v>240</v>
       </c>
       <c r="I480" s="47" t="s">
-        <v>1145</v>
+        <v>994</v>
       </c>
       <c r="J480" s="45" t="s">
         <v>523</v>
@@ -21182,7 +21369,7 @@
         <v>242</v>
       </c>
       <c r="I482" s="47" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J482" s="45" t="s">
         <v>523</v>
@@ -21212,7 +21399,7 @@
         <v>243</v>
       </c>
       <c r="I483" s="47" t="s">
-        <v>1146</v>
+        <v>995</v>
       </c>
       <c r="J483" s="45" t="s">
         <v>523</v>
@@ -21242,7 +21429,7 @@
         <v>244</v>
       </c>
       <c r="I484" s="47" t="s">
-        <v>1147</v>
+        <v>996</v>
       </c>
       <c r="J484" s="45" t="s">
         <v>523</v>
@@ -21251,7 +21438,7 @@
       <c r="L484" s="46"/>
       <c r="M484" s="46"/>
     </row>
-    <row r="485" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B485" s="45" t="s">
         <v>569</v>
       </c>
@@ -21302,7 +21489,7 @@
         <v>247</v>
       </c>
       <c r="I486" s="47" t="s">
-        <v>1148</v>
+        <v>997</v>
       </c>
       <c r="J486" s="45" t="s">
         <v>523</v>
@@ -21332,7 +21519,7 @@
         <v>248</v>
       </c>
       <c r="I487" s="47" t="s">
-        <v>1149</v>
+        <v>998</v>
       </c>
       <c r="J487" s="45" t="s">
         <v>523</v>
@@ -21392,7 +21579,7 @@
         <v>250</v>
       </c>
       <c r="I489" s="47" t="s">
-        <v>1150</v>
+        <v>999</v>
       </c>
       <c r="J489" s="45" t="s">
         <v>523</v>
@@ -21422,7 +21609,7 @@
         <v>251</v>
       </c>
       <c r="I490" s="47" t="s">
-        <v>1151</v>
+        <v>1000</v>
       </c>
       <c r="J490" s="45" t="s">
         <v>523</v>
@@ -21452,7 +21639,7 @@
         <v>252</v>
       </c>
       <c r="I491" s="47" t="s">
-        <v>1152</v>
+        <v>1001</v>
       </c>
       <c r="J491" s="45" t="s">
         <v>523</v>
@@ -21482,7 +21669,7 @@
         <v>253</v>
       </c>
       <c r="I492" s="47" t="s">
-        <v>1153</v>
+        <v>1002</v>
       </c>
       <c r="J492" s="45" t="s">
         <v>523</v>
@@ -21542,7 +21729,7 @@
         <v>255</v>
       </c>
       <c r="I494" s="47" t="s">
-        <v>1154</v>
+        <v>1003</v>
       </c>
       <c r="J494" s="45" t="s">
         <v>523</v>
@@ -21602,7 +21789,7 @@
         <v>257</v>
       </c>
       <c r="I496" s="47" t="s">
-        <v>1155</v>
+        <v>1004</v>
       </c>
       <c r="J496" s="45" t="s">
         <v>523</v>
@@ -21632,7 +21819,7 @@
         <v>258</v>
       </c>
       <c r="I497" s="47" t="s">
-        <v>1156</v>
+        <v>1005</v>
       </c>
       <c r="J497" s="45" t="s">
         <v>523</v>
@@ -21662,7 +21849,7 @@
         <v>259</v>
       </c>
       <c r="I498" s="47" t="s">
-        <v>1157</v>
+        <v>1006</v>
       </c>
       <c r="J498" s="45" t="s">
         <v>523</v>
@@ -21692,7 +21879,7 @@
         <v>260</v>
       </c>
       <c r="I499" s="47" t="s">
-        <v>1158</v>
+        <v>1007</v>
       </c>
       <c r="J499" s="45" t="s">
         <v>523</v>
@@ -21722,7 +21909,7 @@
         <v>261</v>
       </c>
       <c r="I500" s="47" t="s">
-        <v>1159</v>
+        <v>1008</v>
       </c>
       <c r="J500" s="45" t="s">
         <v>523</v>
@@ -21731,7 +21918,7 @@
       <c r="L500" s="46"/>
       <c r="M500" s="46"/>
     </row>
-    <row r="501" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B501" s="45" t="s">
         <v>569</v>
       </c>
@@ -21782,7 +21969,7 @@
         <v>264</v>
       </c>
       <c r="I502" s="47" t="s">
-        <v>1160</v>
+        <v>1009</v>
       </c>
       <c r="J502" s="45" t="s">
         <v>523</v>
@@ -21812,7 +21999,7 @@
         <v>265</v>
       </c>
       <c r="I503" s="47" t="s">
-        <v>1161</v>
+        <v>1010</v>
       </c>
       <c r="J503" s="45" t="s">
         <v>523</v>
@@ -21842,7 +22029,7 @@
         <v>266</v>
       </c>
       <c r="I504" s="47" t="s">
-        <v>1162</v>
+        <v>1011</v>
       </c>
       <c r="J504" s="45" t="s">
         <v>523</v>
@@ -21902,7 +22089,7 @@
         <v>268</v>
       </c>
       <c r="I506" s="47" t="s">
-        <v>1163</v>
+        <v>1012</v>
       </c>
       <c r="J506" s="45" t="s">
         <v>523</v>
@@ -21932,7 +22119,7 @@
         <v>269</v>
       </c>
       <c r="I507" s="47" t="s">
-        <v>1164</v>
+        <v>1013</v>
       </c>
       <c r="J507" s="45" t="s">
         <v>523</v>
@@ -21962,7 +22149,7 @@
         <v>270</v>
       </c>
       <c r="I508" s="47" t="s">
-        <v>1165</v>
+        <v>1014</v>
       </c>
       <c r="J508" s="45" t="s">
         <v>523</v>
@@ -21992,7 +22179,7 @@
         <v>271</v>
       </c>
       <c r="I509" s="47" t="s">
-        <v>1159</v>
+        <v>1008</v>
       </c>
       <c r="J509" s="45" t="s">
         <v>523</v>
@@ -22001,7 +22188,7 @@
       <c r="L509" s="46"/>
       <c r="M509" s="46"/>
     </row>
-    <row r="510" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B510" s="45" t="s">
         <v>569</v>
       </c>
@@ -22052,7 +22239,7 @@
         <v>274</v>
       </c>
       <c r="I511" s="47" t="s">
-        <v>1166</v>
+        <v>1015</v>
       </c>
       <c r="J511" s="45" t="s">
         <v>523</v>
@@ -22082,7 +22269,7 @@
         <v>275</v>
       </c>
       <c r="I512" s="47" t="s">
-        <v>1143</v>
+        <v>992</v>
       </c>
       <c r="J512" s="45" t="s">
         <v>523</v>
@@ -22112,7 +22299,7 @@
         <v>276</v>
       </c>
       <c r="I513" s="47" t="s">
-        <v>1119</v>
+        <v>968</v>
       </c>
       <c r="J513" s="45" t="s">
         <v>523</v>
@@ -22142,7 +22329,7 @@
         <v>277</v>
       </c>
       <c r="I514" s="47" t="s">
-        <v>1167</v>
+        <v>1016</v>
       </c>
       <c r="J514" s="45" t="s">
         <v>523</v>
@@ -22172,7 +22359,7 @@
         <v>278</v>
       </c>
       <c r="I515" s="47" t="s">
-        <v>1168</v>
+        <v>1017</v>
       </c>
       <c r="J515" s="45" t="s">
         <v>523</v>
@@ -22202,7 +22389,7 @@
         <v>279</v>
       </c>
       <c r="I516" s="47" t="s">
-        <v>1169</v>
+        <v>1018</v>
       </c>
       <c r="J516" s="45" t="s">
         <v>523</v>
@@ -22232,7 +22419,7 @@
         <v>280</v>
       </c>
       <c r="I517" s="47" t="s">
-        <v>1170</v>
+        <v>1019</v>
       </c>
       <c r="J517" s="45" t="s">
         <v>523</v>
@@ -22262,7 +22449,7 @@
         <v>281</v>
       </c>
       <c r="I518" s="47" t="s">
-        <v>1171</v>
+        <v>1020</v>
       </c>
       <c r="J518" s="45" t="s">
         <v>523</v>
@@ -22322,7 +22509,7 @@
         <v>283</v>
       </c>
       <c r="I520" s="47" t="s">
-        <v>1172</v>
+        <v>1021</v>
       </c>
       <c r="J520" s="45" t="s">
         <v>523</v>
@@ -22352,7 +22539,7 @@
         <v>284</v>
       </c>
       <c r="I521" s="47" t="s">
-        <v>1173</v>
+        <v>1022</v>
       </c>
       <c r="J521" s="45" t="s">
         <v>523</v>
@@ -22361,7 +22548,7 @@
       <c r="L521" s="46"/>
       <c r="M521" s="46"/>
     </row>
-    <row r="522" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B522" s="45" t="s">
         <v>569</v>
       </c>
@@ -22412,7 +22599,7 @@
         <v>287</v>
       </c>
       <c r="I523" s="47" t="s">
-        <v>1174</v>
+        <v>1023</v>
       </c>
       <c r="J523" s="45" t="s">
         <v>523</v>
@@ -22442,7 +22629,7 @@
         <v>288</v>
       </c>
       <c r="I524" s="47" t="s">
-        <v>1175</v>
+        <v>1024</v>
       </c>
       <c r="J524" s="45" t="s">
         <v>523</v>
@@ -22472,7 +22659,7 @@
         <v>289</v>
       </c>
       <c r="I525" s="47" t="s">
-        <v>1176</v>
+        <v>1025</v>
       </c>
       <c r="J525" s="45" t="s">
         <v>523</v>
@@ -22502,7 +22689,7 @@
         <v>290</v>
       </c>
       <c r="I526" s="47" t="s">
-        <v>1177</v>
+        <v>1026</v>
       </c>
       <c r="J526" s="45" t="s">
         <v>523</v>
@@ -22532,7 +22719,7 @@
         <v>291</v>
       </c>
       <c r="I527" s="47" t="s">
-        <v>1178</v>
+        <v>1027</v>
       </c>
       <c r="J527" s="45" t="s">
         <v>523</v>
@@ -22562,7 +22749,7 @@
         <v>292</v>
       </c>
       <c r="I528" s="47" t="s">
-        <v>1179</v>
+        <v>1028</v>
       </c>
       <c r="J528" s="45" t="s">
         <v>523</v>
@@ -22592,7 +22779,7 @@
         <v>293</v>
       </c>
       <c r="I529" s="47" t="s">
-        <v>1180</v>
+        <v>1029</v>
       </c>
       <c r="J529" s="45" t="s">
         <v>523</v>
@@ -22622,7 +22809,7 @@
         <v>294</v>
       </c>
       <c r="I530" s="47" t="s">
-        <v>1181</v>
+        <v>1030</v>
       </c>
       <c r="J530" s="45" t="s">
         <v>523</v>
@@ -22652,7 +22839,7 @@
         <v>295</v>
       </c>
       <c r="I531" s="47" t="s">
-        <v>1182</v>
+        <v>1031</v>
       </c>
       <c r="J531" s="45" t="s">
         <v>523</v>
@@ -22712,7 +22899,7 @@
         <v>297</v>
       </c>
       <c r="I533" s="47" t="s">
-        <v>1183</v>
+        <v>1032</v>
       </c>
       <c r="J533" s="45" t="s">
         <v>523</v>
@@ -22742,7 +22929,7 @@
         <v>298</v>
       </c>
       <c r="I534" s="47" t="s">
-        <v>1184</v>
+        <v>1033</v>
       </c>
       <c r="J534" s="45" t="s">
         <v>523</v>
@@ -22751,7 +22938,7 @@
       <c r="L534" s="46"/>
       <c r="M534" s="46"/>
     </row>
-    <row r="535" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B535" s="45" t="s">
         <v>569</v>
       </c>
@@ -22802,7 +22989,7 @@
         <v>301</v>
       </c>
       <c r="I536" s="47" t="s">
-        <v>1185</v>
+        <v>1034</v>
       </c>
       <c r="J536" s="45" t="s">
         <v>523</v>
@@ -22862,7 +23049,7 @@
         <v>303</v>
       </c>
       <c r="I538" s="47" t="s">
-        <v>1110</v>
+        <v>959</v>
       </c>
       <c r="J538" s="45" t="s">
         <v>523</v>
@@ -22892,7 +23079,7 @@
         <v>304</v>
       </c>
       <c r="I539" s="47" t="s">
-        <v>1186</v>
+        <v>1035</v>
       </c>
       <c r="J539" s="45" t="s">
         <v>523</v>
@@ -22922,7 +23109,7 @@
         <v>305</v>
       </c>
       <c r="I540" s="47" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J540" s="45" t="s">
         <v>523</v>
@@ -22952,7 +23139,7 @@
         <v>306</v>
       </c>
       <c r="I541" s="47" t="s">
-        <v>1187</v>
+        <v>1036</v>
       </c>
       <c r="J541" s="45" t="s">
         <v>523</v>
@@ -22982,7 +23169,7 @@
         <v>307</v>
       </c>
       <c r="I542" s="47" t="s">
-        <v>1188</v>
+        <v>1037</v>
       </c>
       <c r="J542" s="45" t="s">
         <v>523</v>
@@ -23012,7 +23199,7 @@
         <v>308</v>
       </c>
       <c r="I543" s="47" t="s">
-        <v>1140</v>
+        <v>989</v>
       </c>
       <c r="J543" s="45" t="s">
         <v>523</v>
@@ -23042,7 +23229,7 @@
         <v>309</v>
       </c>
       <c r="I544" s="47" t="s">
-        <v>1189</v>
+        <v>1038</v>
       </c>
       <c r="J544" s="45" t="s">
         <v>523</v>
@@ -23072,7 +23259,7 @@
         <v>310</v>
       </c>
       <c r="I545" s="47" t="s">
-        <v>1190</v>
+        <v>1039</v>
       </c>
       <c r="J545" s="45" t="s">
         <v>523</v>
@@ -23102,7 +23289,7 @@
         <v>311</v>
       </c>
       <c r="I546" s="47" t="s">
-        <v>1191</v>
+        <v>1040</v>
       </c>
       <c r="J546" s="45" t="s">
         <v>523</v>
@@ -23132,7 +23319,7 @@
         <v>312</v>
       </c>
       <c r="I547" s="47" t="s">
-        <v>1192</v>
+        <v>1041</v>
       </c>
       <c r="J547" s="45" t="s">
         <v>523</v>
@@ -23162,7 +23349,7 @@
         <v>313</v>
       </c>
       <c r="I548" s="47" t="s">
-        <v>1087</v>
+        <v>936</v>
       </c>
       <c r="J548" s="45" t="s">
         <v>523</v>
@@ -23192,7 +23379,7 @@
         <v>260</v>
       </c>
       <c r="I549" s="47" t="s">
-        <v>1177</v>
+        <v>1026</v>
       </c>
       <c r="J549" s="45" t="s">
         <v>523</v>
@@ -23222,7 +23409,7 @@
         <v>314</v>
       </c>
       <c r="I550" s="47" t="s">
-        <v>1193</v>
+        <v>1042</v>
       </c>
       <c r="J550" s="45" t="s">
         <v>523</v>
@@ -23231,7 +23418,7 @@
       <c r="L550" s="46"/>
       <c r="M550" s="46"/>
     </row>
-    <row r="551" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B551" s="45" t="s">
         <v>569</v>
       </c>
@@ -23282,7 +23469,7 @@
         <v>317</v>
       </c>
       <c r="I552" s="47" t="s">
-        <v>1194</v>
+        <v>1043</v>
       </c>
       <c r="J552" s="45" t="s">
         <v>523</v>
@@ -23312,7 +23499,7 @@
         <v>318</v>
       </c>
       <c r="I553" s="47" t="s">
-        <v>1195</v>
+        <v>1044</v>
       </c>
       <c r="J553" s="45" t="s">
         <v>523</v>
@@ -23342,7 +23529,7 @@
         <v>319</v>
       </c>
       <c r="I554" s="47" t="s">
-        <v>1196</v>
+        <v>1045</v>
       </c>
       <c r="J554" s="45" t="s">
         <v>523</v>
@@ -23402,7 +23589,7 @@
         <v>321</v>
       </c>
       <c r="I556" s="47" t="s">
-        <v>1197</v>
+        <v>1046</v>
       </c>
       <c r="J556" s="45" t="s">
         <v>523</v>
@@ -23432,7 +23619,7 @@
         <v>322</v>
       </c>
       <c r="I557" s="47" t="s">
-        <v>1159</v>
+        <v>1008</v>
       </c>
       <c r="J557" s="45" t="s">
         <v>523</v>
@@ -23441,7 +23628,7 @@
       <c r="L557" s="46"/>
       <c r="M557" s="46"/>
     </row>
-    <row r="558" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B558" s="45" t="s">
         <v>569</v>
       </c>
@@ -23522,7 +23709,7 @@
         <v>326</v>
       </c>
       <c r="I560" s="47" t="s">
-        <v>1157</v>
+        <v>1006</v>
       </c>
       <c r="J560" s="45" t="s">
         <v>523</v>
@@ -23552,7 +23739,7 @@
         <v>327</v>
       </c>
       <c r="I561" s="47" t="s">
-        <v>1198</v>
+        <v>1047</v>
       </c>
       <c r="J561" s="45" t="s">
         <v>523</v>
@@ -23582,7 +23769,7 @@
         <v>328</v>
       </c>
       <c r="I562" s="47" t="s">
-        <v>1199</v>
+        <v>1048</v>
       </c>
       <c r="J562" s="45" t="s">
         <v>523</v>
@@ -23612,7 +23799,7 @@
         <v>329</v>
       </c>
       <c r="I563" s="47" t="s">
-        <v>1152</v>
+        <v>1001</v>
       </c>
       <c r="J563" s="45" t="s">
         <v>523</v>
@@ -23642,7 +23829,7 @@
         <v>330</v>
       </c>
       <c r="I564" s="47" t="s">
-        <v>1200</v>
+        <v>1049</v>
       </c>
       <c r="J564" s="45" t="s">
         <v>523</v>
@@ -23702,7 +23889,7 @@
         <v>332</v>
       </c>
       <c r="I566" s="47" t="s">
-        <v>1184</v>
+        <v>1033</v>
       </c>
       <c r="J566" s="45" t="s">
         <v>523</v>
@@ -23711,7 +23898,7 @@
       <c r="L566" s="46"/>
       <c r="M566" s="46"/>
     </row>
-    <row r="567" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B567" s="45" t="s">
         <v>569</v>
       </c>
@@ -23732,7 +23919,7 @@
       </c>
       <c r="H567" s="45"/>
       <c r="I567" s="47" t="s">
-        <v>1201</v>
+        <v>1050</v>
       </c>
       <c r="J567" s="45" t="s">
         <v>523</v>
@@ -23762,7 +23949,7 @@
         <v>334</v>
       </c>
       <c r="I568" s="47" t="s">
-        <v>1172</v>
+        <v>1021</v>
       </c>
       <c r="J568" s="45" t="s">
         <v>523</v>
@@ -23792,7 +23979,7 @@
         <v>335</v>
       </c>
       <c r="I569" s="47" t="s">
-        <v>1202</v>
+        <v>1051</v>
       </c>
       <c r="J569" s="45" t="s">
         <v>523</v>
@@ -23822,7 +24009,7 @@
         <v>336</v>
       </c>
       <c r="I570" s="47" t="s">
-        <v>1203</v>
+        <v>1052</v>
       </c>
       <c r="J570" s="45" t="s">
         <v>523</v>
@@ -23852,7 +24039,7 @@
         <v>337</v>
       </c>
       <c r="I571" s="47" t="s">
-        <v>1204</v>
+        <v>1053</v>
       </c>
       <c r="J571" s="45" t="s">
         <v>523</v>
@@ -23882,7 +24069,7 @@
         <v>338</v>
       </c>
       <c r="I572" s="47" t="s">
-        <v>1205</v>
+        <v>1054</v>
       </c>
       <c r="J572" s="45" t="s">
         <v>523</v>
@@ -23942,7 +24129,7 @@
         <v>340</v>
       </c>
       <c r="I574" s="47" t="s">
-        <v>1206</v>
+        <v>1055</v>
       </c>
       <c r="J574" s="45" t="s">
         <v>523</v>
@@ -23972,7 +24159,7 @@
         <v>341</v>
       </c>
       <c r="I575" s="47" t="s">
-        <v>1207</v>
+        <v>1056</v>
       </c>
       <c r="J575" s="45" t="s">
         <v>523</v>
@@ -24002,7 +24189,7 @@
         <v>342</v>
       </c>
       <c r="I576" s="47" t="s">
-        <v>1208</v>
+        <v>1057</v>
       </c>
       <c r="J576" s="45" t="s">
         <v>523</v>
@@ -24032,7 +24219,7 @@
         <v>343</v>
       </c>
       <c r="I577" s="47" t="s">
-        <v>1209</v>
+        <v>1058</v>
       </c>
       <c r="J577" s="45" t="s">
         <v>523</v>
@@ -24062,7 +24249,7 @@
         <v>344</v>
       </c>
       <c r="I578" s="47" t="s">
-        <v>1210</v>
+        <v>1059</v>
       </c>
       <c r="J578" s="45" t="s">
         <v>523</v>
@@ -24092,7 +24279,7 @@
         <v>345</v>
       </c>
       <c r="I579" s="47" t="s">
-        <v>1174</v>
+        <v>1023</v>
       </c>
       <c r="J579" s="45" t="s">
         <v>523</v>
@@ -24122,7 +24309,7 @@
         <v>346</v>
       </c>
       <c r="I580" s="47" t="s">
-        <v>1211</v>
+        <v>1060</v>
       </c>
       <c r="J580" s="45" t="s">
         <v>523</v>
@@ -24152,7 +24339,7 @@
         <v>347</v>
       </c>
       <c r="I581" s="47" t="s">
-        <v>1212</v>
+        <v>1061</v>
       </c>
       <c r="J581" s="45" t="s">
         <v>523</v>
@@ -24161,7 +24348,7 @@
       <c r="L581" s="46"/>
       <c r="M581" s="46"/>
     </row>
-    <row r="582" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B582" s="45" t="s">
         <v>569</v>
       </c>
@@ -24212,7 +24399,7 @@
         <v>350</v>
       </c>
       <c r="I583" s="47" t="s">
-        <v>1114</v>
+        <v>963</v>
       </c>
       <c r="J583" s="45" t="s">
         <v>523</v>
@@ -24272,7 +24459,7 @@
         <v>352</v>
       </c>
       <c r="I585" s="47" t="s">
-        <v>1123</v>
+        <v>972</v>
       </c>
       <c r="J585" s="45" t="s">
         <v>523</v>
@@ -24302,7 +24489,7 @@
         <v>353</v>
       </c>
       <c r="I586" s="47" t="s">
-        <v>1213</v>
+        <v>1062</v>
       </c>
       <c r="J586" s="45" t="s">
         <v>523</v>
@@ -24332,7 +24519,7 @@
         <v>354</v>
       </c>
       <c r="I587" s="47" t="s">
-        <v>1175</v>
+        <v>1024</v>
       </c>
       <c r="J587" s="45" t="s">
         <v>523</v>
@@ -24362,7 +24549,7 @@
         <v>355</v>
       </c>
       <c r="I588" s="47" t="s">
-        <v>1109</v>
+        <v>958</v>
       </c>
       <c r="J588" s="45" t="s">
         <v>523</v>
@@ -24422,7 +24609,7 @@
         <v>357</v>
       </c>
       <c r="I590" s="47" t="s">
-        <v>1214</v>
+        <v>1063</v>
       </c>
       <c r="J590" s="45" t="s">
         <v>523</v>
@@ -24452,7 +24639,7 @@
         <v>358</v>
       </c>
       <c r="I591" s="47" t="s">
-        <v>1215</v>
+        <v>1064</v>
       </c>
       <c r="J591" s="45" t="s">
         <v>523</v>
@@ -24512,7 +24699,7 @@
         <v>360</v>
       </c>
       <c r="I593" s="47" t="s">
-        <v>1106</v>
+        <v>955</v>
       </c>
       <c r="J593" s="45" t="s">
         <v>523</v>
@@ -24542,7 +24729,7 @@
         <v>361</v>
       </c>
       <c r="I594" s="47" t="s">
-        <v>1216</v>
+        <v>1065</v>
       </c>
       <c r="J594" s="45" t="s">
         <v>523</v>
@@ -24572,7 +24759,7 @@
         <v>362</v>
       </c>
       <c r="I595" s="47" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="J595" s="45" t="s">
         <v>523</v>
@@ -24602,7 +24789,7 @@
         <v>363</v>
       </c>
       <c r="I596" s="47" t="s">
-        <v>1158</v>
+        <v>1007</v>
       </c>
       <c r="J596" s="45" t="s">
         <v>523</v>
@@ -24632,7 +24819,7 @@
         <v>364</v>
       </c>
       <c r="I597" s="47" t="s">
-        <v>1193</v>
+        <v>1042</v>
       </c>
       <c r="J597" s="45" t="s">
         <v>523</v>
@@ -24641,7 +24828,7 @@
       <c r="L597" s="46"/>
       <c r="M597" s="46"/>
     </row>
-    <row r="598" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B598" s="45" t="s">
         <v>569</v>
       </c>
@@ -24692,7 +24879,7 @@
         <v>367</v>
       </c>
       <c r="I599" s="47" t="s">
-        <v>1217</v>
+        <v>1066</v>
       </c>
       <c r="J599" s="45" t="s">
         <v>523</v>
@@ -24722,7 +24909,7 @@
         <v>368</v>
       </c>
       <c r="I600" s="47" t="s">
-        <v>1218</v>
+        <v>1067</v>
       </c>
       <c r="J600" s="45" t="s">
         <v>523</v>
@@ -24752,7 +24939,7 @@
         <v>369</v>
       </c>
       <c r="I601" s="47" t="s">
-        <v>1219</v>
+        <v>1068</v>
       </c>
       <c r="J601" s="45" t="s">
         <v>523</v>
@@ -24782,7 +24969,7 @@
         <v>370</v>
       </c>
       <c r="I602" s="47" t="s">
-        <v>1119</v>
+        <v>968</v>
       </c>
       <c r="J602" s="45" t="s">
         <v>523</v>
@@ -24812,7 +24999,7 @@
         <v>371</v>
       </c>
       <c r="I603" s="47" t="s">
-        <v>1220</v>
+        <v>1069</v>
       </c>
       <c r="J603" s="45" t="s">
         <v>523</v>
@@ -24842,7 +25029,7 @@
         <v>372</v>
       </c>
       <c r="I604" s="47" t="s">
-        <v>1153</v>
+        <v>1002</v>
       </c>
       <c r="J604" s="45" t="s">
         <v>523</v>
@@ -24872,7 +25059,7 @@
         <v>373</v>
       </c>
       <c r="I605" s="47" t="s">
-        <v>1221</v>
+        <v>1070</v>
       </c>
       <c r="J605" s="45" t="s">
         <v>523</v>
@@ -24881,7 +25068,7 @@
       <c r="L605" s="46"/>
       <c r="M605" s="46"/>
     </row>
-    <row r="606" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B606" s="45" t="s">
         <v>569</v>
       </c>
@@ -24932,7 +25119,7 @@
         <v>376</v>
       </c>
       <c r="I607" s="47" t="s">
-        <v>1222</v>
+        <v>1071</v>
       </c>
       <c r="J607" s="45" t="s">
         <v>523</v>
@@ -24962,7 +25149,7 @@
         <v>377</v>
       </c>
       <c r="I608" s="47" t="s">
-        <v>1136</v>
+        <v>985</v>
       </c>
       <c r="J608" s="45" t="s">
         <v>523</v>
@@ -24992,7 +25179,7 @@
         <v>378</v>
       </c>
       <c r="I609" s="47" t="s">
-        <v>1116</v>
+        <v>965</v>
       </c>
       <c r="J609" s="45" t="s">
         <v>523</v>
@@ -25022,7 +25209,7 @@
         <v>379</v>
       </c>
       <c r="I610" s="47" t="s">
-        <v>1223</v>
+        <v>1072</v>
       </c>
       <c r="J610" s="45" t="s">
         <v>523</v>
@@ -25052,7 +25239,7 @@
         <v>65</v>
       </c>
       <c r="I611" s="47" t="s">
-        <v>1224</v>
+        <v>1073</v>
       </c>
       <c r="J611" s="45" t="s">
         <v>523</v>
@@ -25112,7 +25299,7 @@
         <v>381</v>
       </c>
       <c r="I613" s="47" t="s">
-        <v>1220</v>
+        <v>1069</v>
       </c>
       <c r="J613" s="45" t="s">
         <v>523</v>
@@ -25142,7 +25329,7 @@
         <v>67</v>
       </c>
       <c r="I614" s="47" t="s">
-        <v>1225</v>
+        <v>1074</v>
       </c>
       <c r="J614" s="45" t="s">
         <v>523</v>
@@ -25172,7 +25359,7 @@
         <v>382</v>
       </c>
       <c r="I615" s="47" t="s">
-        <v>1226</v>
+        <v>1075</v>
       </c>
       <c r="J615" s="45" t="s">
         <v>523</v>
@@ -25202,7 +25389,7 @@
         <v>383</v>
       </c>
       <c r="I616" s="47" t="s">
-        <v>1227</v>
+        <v>1076</v>
       </c>
       <c r="J616" s="45" t="s">
         <v>523</v>
@@ -25232,7 +25419,7 @@
         <v>384</v>
       </c>
       <c r="I617" s="47" t="s">
-        <v>1173</v>
+        <v>1022</v>
       </c>
       <c r="J617" s="45" t="s">
         <v>523</v>
@@ -25241,7 +25428,7 @@
       <c r="L617" s="46"/>
       <c r="M617" s="46"/>
     </row>
-    <row r="618" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B618" s="45" t="s">
         <v>569</v>
       </c>
@@ -25292,7 +25479,7 @@
         <v>387</v>
       </c>
       <c r="I619" s="47" t="s">
-        <v>1228</v>
+        <v>1077</v>
       </c>
       <c r="J619" s="45" t="s">
         <v>523</v>
@@ -25352,7 +25539,7 @@
         <v>389</v>
       </c>
       <c r="I621" s="47" t="s">
-        <v>1229</v>
+        <v>1078</v>
       </c>
       <c r="J621" s="45" t="s">
         <v>523</v>
@@ -25382,7 +25569,7 @@
         <v>390</v>
       </c>
       <c r="I622" s="47" t="s">
-        <v>1230</v>
+        <v>1079</v>
       </c>
       <c r="J622" s="45" t="s">
         <v>523</v>
@@ -25412,7 +25599,7 @@
         <v>391</v>
       </c>
       <c r="I623" s="47" t="s">
-        <v>1231</v>
+        <v>1080</v>
       </c>
       <c r="J623" s="45" t="s">
         <v>523</v>
@@ -25442,7 +25629,7 @@
         <v>392</v>
       </c>
       <c r="I624" s="47" t="s">
-        <v>1178</v>
+        <v>1027</v>
       </c>
       <c r="J624" s="45" t="s">
         <v>523</v>
@@ -25472,7 +25659,7 @@
         <v>393</v>
       </c>
       <c r="I625" s="47" t="s">
-        <v>1227</v>
+        <v>1076</v>
       </c>
       <c r="J625" s="45" t="s">
         <v>523</v>
@@ -25532,7 +25719,7 @@
         <v>395</v>
       </c>
       <c r="I627" s="47" t="s">
-        <v>1230</v>
+        <v>1079</v>
       </c>
       <c r="J627" s="45" t="s">
         <v>523</v>
@@ -25562,7 +25749,7 @@
         <v>396</v>
       </c>
       <c r="I628" s="47" t="s">
-        <v>1084</v>
+        <v>933</v>
       </c>
       <c r="J628" s="45" t="s">
         <v>523</v>
@@ -25592,7 +25779,7 @@
         <v>397</v>
       </c>
       <c r="I629" s="47" t="s">
-        <v>1173</v>
+        <v>1022</v>
       </c>
       <c r="J629" s="45" t="s">
         <v>523</v>
@@ -25601,7 +25788,7 @@
       <c r="L629" s="46"/>
       <c r="M629" s="46"/>
     </row>
-    <row r="630" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B630" s="45" t="s">
         <v>569</v>
       </c>
@@ -25652,7 +25839,7 @@
         <v>399</v>
       </c>
       <c r="I631" s="47" t="s">
-        <v>1209</v>
+        <v>1058</v>
       </c>
       <c r="J631" s="45" t="s">
         <v>523</v>
@@ -25682,7 +25869,7 @@
         <v>400</v>
       </c>
       <c r="I632" s="47" t="s">
-        <v>1232</v>
+        <v>1081</v>
       </c>
       <c r="J632" s="45" t="s">
         <v>523</v>
@@ -25712,7 +25899,7 @@
         <v>401</v>
       </c>
       <c r="I633" s="47" t="s">
-        <v>1168</v>
+        <v>1017</v>
       </c>
       <c r="J633" s="45" t="s">
         <v>523</v>
@@ -25742,7 +25929,7 @@
         <v>402</v>
       </c>
       <c r="I634" s="47" t="s">
-        <v>1233</v>
+        <v>1082</v>
       </c>
       <c r="J634" s="45" t="s">
         <v>523</v>
@@ -25772,7 +25959,7 @@
         <v>403</v>
       </c>
       <c r="I635" s="47" t="s">
-        <v>1234</v>
+        <v>1083</v>
       </c>
       <c r="J635" s="45" t="s">
         <v>523</v>
@@ -25832,7 +26019,7 @@
         <v>405</v>
       </c>
       <c r="I637" s="47" t="s">
-        <v>1211</v>
+        <v>1060</v>
       </c>
       <c r="J637" s="45" t="s">
         <v>523</v>
@@ -25862,7 +26049,7 @@
         <v>406</v>
       </c>
       <c r="I638" s="47" t="s">
-        <v>1224</v>
+        <v>1073</v>
       </c>
       <c r="J638" s="45" t="s">
         <v>523</v>
@@ -25892,7 +26079,7 @@
         <v>407</v>
       </c>
       <c r="I639" s="47" t="s">
-        <v>1116</v>
+        <v>965</v>
       </c>
       <c r="J639" s="45" t="s">
         <v>523</v>
@@ -25922,7 +26109,7 @@
         <v>408</v>
       </c>
       <c r="I640" s="47" t="s">
-        <v>1220</v>
+        <v>1069</v>
       </c>
       <c r="J640" s="45" t="s">
         <v>523</v>
@@ -25952,7 +26139,7 @@
         <v>409</v>
       </c>
       <c r="I641" s="47" t="s">
-        <v>1235</v>
+        <v>1084</v>
       </c>
       <c r="J641" s="45" t="s">
         <v>523</v>
@@ -25961,7 +26148,7 @@
       <c r="L641" s="46"/>
       <c r="M641" s="46"/>
     </row>
-    <row r="642" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B642" s="45" t="s">
         <v>569</v>
       </c>
@@ -26012,7 +26199,7 @@
         <v>412</v>
       </c>
       <c r="I643" s="47" t="s">
-        <v>1236</v>
+        <v>1085</v>
       </c>
       <c r="J643" s="45" t="s">
         <v>523</v>
@@ -26042,7 +26229,7 @@
         <v>413</v>
       </c>
       <c r="I644" s="47" t="s">
-        <v>1150</v>
+        <v>999</v>
       </c>
       <c r="J644" s="45" t="s">
         <v>523</v>
@@ -26072,7 +26259,7 @@
         <v>414</v>
       </c>
       <c r="I645" s="47" t="s">
-        <v>1237</v>
+        <v>1086</v>
       </c>
       <c r="J645" s="45" t="s">
         <v>523</v>
@@ -26102,7 +26289,7 @@
         <v>415</v>
       </c>
       <c r="I646" s="47" t="s">
-        <v>1238</v>
+        <v>1087</v>
       </c>
       <c r="J646" s="45" t="s">
         <v>523</v>
@@ -26132,7 +26319,7 @@
         <v>416</v>
       </c>
       <c r="I647" s="47" t="s">
-        <v>1156</v>
+        <v>1005</v>
       </c>
       <c r="J647" s="45" t="s">
         <v>523</v>
@@ -26162,7 +26349,7 @@
         <v>417</v>
       </c>
       <c r="I648" s="47" t="s">
-        <v>1239</v>
+        <v>1088</v>
       </c>
       <c r="J648" s="45" t="s">
         <v>523</v>
@@ -26222,7 +26409,7 @@
         <v>419</v>
       </c>
       <c r="I650" s="47" t="s">
-        <v>1240</v>
+        <v>1089</v>
       </c>
       <c r="J650" s="45" t="s">
         <v>523</v>
@@ -26252,7 +26439,7 @@
         <v>420</v>
       </c>
       <c r="I651" s="47" t="s">
-        <v>1241</v>
+        <v>1090</v>
       </c>
       <c r="J651" s="45" t="s">
         <v>523</v>
@@ -26282,7 +26469,7 @@
         <v>421</v>
       </c>
       <c r="I652" s="47" t="s">
-        <v>1242</v>
+        <v>1091</v>
       </c>
       <c r="J652" s="45" t="s">
         <v>523</v>
@@ -26312,7 +26499,7 @@
         <v>422</v>
       </c>
       <c r="I653" s="47" t="s">
-        <v>1177</v>
+        <v>1026</v>
       </c>
       <c r="J653" s="45" t="s">
         <v>523</v>
@@ -26342,7 +26529,7 @@
         <v>423</v>
       </c>
       <c r="I654" s="47" t="s">
-        <v>1243</v>
+        <v>1092</v>
       </c>
       <c r="J654" s="45" t="s">
         <v>523</v>
@@ -26402,7 +26589,7 @@
         <v>425</v>
       </c>
       <c r="I656" s="47" t="s">
-        <v>1244</v>
+        <v>1093</v>
       </c>
       <c r="J656" s="45" t="s">
         <v>523</v>
@@ -26432,7 +26619,7 @@
         <v>426</v>
       </c>
       <c r="I657" s="47" t="s">
-        <v>1221</v>
+        <v>1070</v>
       </c>
       <c r="J657" s="45" t="s">
         <v>523</v>
@@ -26441,7 +26628,7 @@
       <c r="L657" s="46"/>
       <c r="M657" s="46"/>
     </row>
-    <row r="658" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B658" s="45" t="s">
         <v>569</v>
       </c>
@@ -26492,7 +26679,7 @@
         <v>429</v>
       </c>
       <c r="I659" s="47" t="s">
-        <v>1245</v>
+        <v>1094</v>
       </c>
       <c r="J659" s="45" t="s">
         <v>523</v>
@@ -26522,7 +26709,7 @@
         <v>430</v>
       </c>
       <c r="I660" s="47" t="s">
-        <v>1123</v>
+        <v>972</v>
       </c>
       <c r="J660" s="45" t="s">
         <v>523</v>
@@ -26552,7 +26739,7 @@
         <v>431</v>
       </c>
       <c r="I661" s="47" t="s">
-        <v>1155</v>
+        <v>1004</v>
       </c>
       <c r="J661" s="45" t="s">
         <v>523</v>
@@ -26582,7 +26769,7 @@
         <v>432</v>
       </c>
       <c r="I662" s="47" t="s">
-        <v>1178</v>
+        <v>1027</v>
       </c>
       <c r="J662" s="45" t="s">
         <v>523</v>
@@ -26642,7 +26829,7 @@
         <v>434</v>
       </c>
       <c r="I664" s="47" t="s">
-        <v>1246</v>
+        <v>1095</v>
       </c>
       <c r="J664" s="45" t="s">
         <v>523</v>
@@ -26672,7 +26859,7 @@
         <v>435</v>
       </c>
       <c r="I665" s="47" t="s">
-        <v>1247</v>
+        <v>1096</v>
       </c>
       <c r="J665" s="45" t="s">
         <v>523</v>
@@ -26702,7 +26889,7 @@
         <v>436</v>
       </c>
       <c r="I666" s="47" t="s">
-        <v>1248</v>
+        <v>1097</v>
       </c>
       <c r="J666" s="45" t="s">
         <v>523</v>
@@ -26732,7 +26919,7 @@
         <v>437</v>
       </c>
       <c r="I667" s="47" t="s">
-        <v>1249</v>
+        <v>1098</v>
       </c>
       <c r="J667" s="45" t="s">
         <v>523</v>
@@ -26762,7 +26949,7 @@
         <v>438</v>
       </c>
       <c r="I668" s="47" t="s">
-        <v>1250</v>
+        <v>1099</v>
       </c>
       <c r="J668" s="45" t="s">
         <v>523</v>
@@ -26792,7 +26979,7 @@
         <v>439</v>
       </c>
       <c r="I669" s="47" t="s">
-        <v>1251</v>
+        <v>1100</v>
       </c>
       <c r="J669" s="45" t="s">
         <v>523</v>
@@ -26822,7 +27009,7 @@
         <v>440</v>
       </c>
       <c r="I670" s="47" t="s">
-        <v>1246</v>
+        <v>1095</v>
       </c>
       <c r="J670" s="45" t="s">
         <v>523</v>
@@ -26852,7 +27039,7 @@
         <v>441</v>
       </c>
       <c r="I671" s="47" t="s">
-        <v>1252</v>
+        <v>1101</v>
       </c>
       <c r="J671" s="45" t="s">
         <v>523</v>
@@ -26882,7 +27069,7 @@
         <v>442</v>
       </c>
       <c r="I672" s="47" t="s">
-        <v>1253</v>
+        <v>1102</v>
       </c>
       <c r="J672" s="45" t="s">
         <v>523</v>
@@ -26912,7 +27099,7 @@
         <v>443</v>
       </c>
       <c r="I673" s="47" t="s">
-        <v>1254</v>
+        <v>1103</v>
       </c>
       <c r="J673" s="45" t="s">
         <v>523</v>
@@ -26942,7 +27129,7 @@
         <v>444</v>
       </c>
       <c r="I674" s="47" t="s">
-        <v>1255</v>
+        <v>1104</v>
       </c>
       <c r="J674" s="45" t="s">
         <v>523</v>
@@ -26972,7 +27159,7 @@
         <v>445</v>
       </c>
       <c r="I675" s="47" t="s">
-        <v>1256</v>
+        <v>1105</v>
       </c>
       <c r="J675" s="45" t="s">
         <v>523</v>
@@ -27032,7 +27219,7 @@
         <v>447</v>
       </c>
       <c r="I677" s="47" t="s">
-        <v>1257</v>
+        <v>1106</v>
       </c>
       <c r="J677" s="45" t="s">
         <v>523</v>
@@ -27092,7 +27279,7 @@
         <v>449</v>
       </c>
       <c r="I679" s="47" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J679" s="45" t="s">
         <v>523</v>
@@ -27122,7 +27309,7 @@
         <v>450</v>
       </c>
       <c r="I680" s="47" t="s">
-        <v>1258</v>
+        <v>1107</v>
       </c>
       <c r="J680" s="45" t="s">
         <v>523</v>
@@ -27182,7 +27369,7 @@
         <v>451</v>
       </c>
       <c r="I682" s="47" t="s">
-        <v>1221</v>
+        <v>1070</v>
       </c>
       <c r="J682" s="45" t="s">
         <v>523</v>
@@ -27212,7 +27399,7 @@
         <v>452</v>
       </c>
       <c r="I683" s="47" t="s">
-        <v>1259</v>
+        <v>1108</v>
       </c>
       <c r="J683" s="45" t="s">
         <v>523</v>
@@ -27221,7 +27408,7 @@
       <c r="L683" s="46"/>
       <c r="M683" s="46"/>
     </row>
-    <row r="684" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B684" s="45" t="s">
         <v>569</v>
       </c>
@@ -27272,7 +27459,7 @@
         <v>454</v>
       </c>
       <c r="I685" s="47" t="s">
-        <v>1260</v>
+        <v>1109</v>
       </c>
       <c r="J685" s="45" t="s">
         <v>523</v>
@@ -27302,7 +27489,7 @@
         <v>455</v>
       </c>
       <c r="I686" s="47" t="s">
-        <v>1111</v>
+        <v>960</v>
       </c>
       <c r="J686" s="45" t="s">
         <v>523</v>
@@ -27332,7 +27519,7 @@
         <v>456</v>
       </c>
       <c r="I687" s="47" t="s">
-        <v>1125</v>
+        <v>974</v>
       </c>
       <c r="J687" s="45" t="s">
         <v>523</v>
@@ -27392,7 +27579,7 @@
         <v>458</v>
       </c>
       <c r="I689" s="47" t="s">
-        <v>1261</v>
+        <v>1110</v>
       </c>
       <c r="J689" s="45" t="s">
         <v>523</v>
@@ -27422,7 +27609,7 @@
         <v>459</v>
       </c>
       <c r="I690" s="47" t="s">
-        <v>1262</v>
+        <v>1111</v>
       </c>
       <c r="J690" s="45" t="s">
         <v>523</v>
@@ -27452,7 +27639,7 @@
         <v>460</v>
       </c>
       <c r="I691" s="47" t="s">
-        <v>1263</v>
+        <v>1112</v>
       </c>
       <c r="J691" s="45" t="s">
         <v>523</v>
@@ -27461,7 +27648,7 @@
       <c r="L691" s="46"/>
       <c r="M691" s="46"/>
     </row>
-    <row r="692" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B692" s="45" t="s">
         <v>569</v>
       </c>
@@ -27512,7 +27699,7 @@
         <v>463</v>
       </c>
       <c r="I693" s="47" t="s">
-        <v>1264</v>
+        <v>1113</v>
       </c>
       <c r="J693" s="45" t="s">
         <v>523</v>
@@ -27542,7 +27729,7 @@
         <v>464</v>
       </c>
       <c r="I694" s="47" t="s">
-        <v>1109</v>
+        <v>958</v>
       </c>
       <c r="J694" s="45" t="s">
         <v>523</v>
@@ -27572,7 +27759,7 @@
         <v>465</v>
       </c>
       <c r="I695" s="47" t="s">
-        <v>1229</v>
+        <v>1078</v>
       </c>
       <c r="J695" s="45" t="s">
         <v>523</v>
@@ -27602,7 +27789,7 @@
         <v>466</v>
       </c>
       <c r="I696" s="47" t="s">
-        <v>1265</v>
+        <v>1114</v>
       </c>
       <c r="J696" s="45" t="s">
         <v>523</v>
@@ -27632,7 +27819,7 @@
         <v>467</v>
       </c>
       <c r="I697" s="47" t="s">
-        <v>1266</v>
+        <v>1115</v>
       </c>
       <c r="J697" s="45" t="s">
         <v>523</v>
@@ -27692,7 +27879,7 @@
         <v>469</v>
       </c>
       <c r="I699" s="47" t="s">
-        <v>1263</v>
+        <v>1112</v>
       </c>
       <c r="J699" s="45" t="s">
         <v>523</v>
@@ -27701,7 +27888,7 @@
       <c r="L699" s="46"/>
       <c r="M699" s="46"/>
     </row>
-    <row r="700" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B700" s="45" t="s">
         <v>569</v>
       </c>
@@ -27752,7 +27939,7 @@
         <v>472</v>
       </c>
       <c r="I701" s="47" t="s">
-        <v>1267</v>
+        <v>1116</v>
       </c>
       <c r="J701" s="45" t="s">
         <v>523</v>
@@ -27782,7 +27969,7 @@
         <v>473</v>
       </c>
       <c r="I702" s="47" t="s">
-        <v>1268</v>
+        <v>1117</v>
       </c>
       <c r="J702" s="45" t="s">
         <v>523</v>
@@ -27812,7 +27999,7 @@
         <v>474</v>
       </c>
       <c r="I703" s="47" t="s">
-        <v>1104</v>
+        <v>953</v>
       </c>
       <c r="J703" s="45" t="s">
         <v>523</v>
@@ -27842,7 +28029,7 @@
         <v>475</v>
       </c>
       <c r="I704" s="47" t="s">
-        <v>1197</v>
+        <v>1046</v>
       </c>
       <c r="J704" s="45" t="s">
         <v>523</v>
@@ -27872,7 +28059,7 @@
         <v>476</v>
       </c>
       <c r="I705" s="47" t="s">
-        <v>1269</v>
+        <v>1118</v>
       </c>
       <c r="J705" s="45" t="s">
         <v>523</v>
@@ -27902,7 +28089,7 @@
         <v>477</v>
       </c>
       <c r="I706" s="47" t="s">
-        <v>1130</v>
+        <v>979</v>
       </c>
       <c r="J706" s="45" t="s">
         <v>523</v>
@@ -27932,7 +28119,7 @@
         <v>478</v>
       </c>
       <c r="I707" s="47" t="s">
-        <v>1270</v>
+        <v>1119</v>
       </c>
       <c r="J707" s="45" t="s">
         <v>523</v>
@@ -27962,7 +28149,7 @@
         <v>479</v>
       </c>
       <c r="I708" s="47" t="s">
-        <v>1271</v>
+        <v>1120</v>
       </c>
       <c r="J708" s="45" t="s">
         <v>523</v>
@@ -27992,7 +28179,7 @@
         <v>480</v>
       </c>
       <c r="I709" s="47" t="s">
-        <v>1272</v>
+        <v>1121</v>
       </c>
       <c r="J709" s="45" t="s">
         <v>523</v>
@@ -28022,7 +28209,7 @@
         <v>481</v>
       </c>
       <c r="I710" s="47" t="s">
-        <v>1174</v>
+        <v>1023</v>
       </c>
       <c r="J710" s="45" t="s">
         <v>523</v>
@@ -28052,7 +28239,7 @@
         <v>482</v>
       </c>
       <c r="I711" s="47" t="s">
-        <v>1273</v>
+        <v>1122</v>
       </c>
       <c r="J711" s="45" t="s">
         <v>523</v>
@@ -28082,7 +28269,7 @@
         <v>483</v>
       </c>
       <c r="I712" s="47" t="s">
-        <v>1274</v>
+        <v>1123</v>
       </c>
       <c r="J712" s="45" t="s">
         <v>523</v>
@@ -28112,7 +28299,7 @@
         <v>484</v>
       </c>
       <c r="I713" s="47" t="s">
-        <v>1275</v>
+        <v>1124</v>
       </c>
       <c r="J713" s="45" t="s">
         <v>523</v>
@@ -28142,7 +28329,7 @@
         <v>485</v>
       </c>
       <c r="I714" s="47" t="s">
-        <v>1226</v>
+        <v>1075</v>
       </c>
       <c r="J714" s="45" t="s">
         <v>523</v>
@@ -28172,7 +28359,7 @@
         <v>486</v>
       </c>
       <c r="I715" s="47" t="s">
-        <v>1160</v>
+        <v>1009</v>
       </c>
       <c r="J715" s="45" t="s">
         <v>523</v>
@@ -28202,7 +28389,7 @@
         <v>487</v>
       </c>
       <c r="I716" s="47" t="s">
-        <v>1276</v>
+        <v>1125</v>
       </c>
       <c r="J716" s="45" t="s">
         <v>523</v>
@@ -28232,7 +28419,7 @@
         <v>488</v>
       </c>
       <c r="I717" s="47" t="s">
-        <v>1277</v>
+        <v>1126</v>
       </c>
       <c r="J717" s="45" t="s">
         <v>523</v>
@@ -28241,7 +28428,7 @@
       <c r="L717" s="46"/>
       <c r="M717" s="46"/>
     </row>
-    <row r="718" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B718" s="45" t="s">
         <v>569</v>
       </c>
@@ -28292,7 +28479,7 @@
         <v>491</v>
       </c>
       <c r="I719" s="47" t="s">
-        <v>1278</v>
+        <v>1127</v>
       </c>
       <c r="J719" s="45" t="s">
         <v>523</v>
@@ -28322,7 +28509,7 @@
         <v>492</v>
       </c>
       <c r="I720" s="47" t="s">
-        <v>1279</v>
+        <v>1128</v>
       </c>
       <c r="J720" s="45" t="s">
         <v>523</v>
@@ -28352,7 +28539,7 @@
         <v>493</v>
       </c>
       <c r="I721" s="47" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J721" s="45" t="s">
         <v>523</v>
@@ -28382,7 +28569,7 @@
         <v>494</v>
       </c>
       <c r="I722" s="47" t="s">
-        <v>1280</v>
+        <v>1129</v>
       </c>
       <c r="J722" s="45" t="s">
         <v>523</v>
@@ -28412,7 +28599,7 @@
         <v>495</v>
       </c>
       <c r="I723" s="47" t="s">
-        <v>1281</v>
+        <v>1130</v>
       </c>
       <c r="J723" s="45" t="s">
         <v>523</v>
@@ -28442,7 +28629,7 @@
         <v>496</v>
       </c>
       <c r="I724" s="47" t="s">
-        <v>1272</v>
+        <v>1121</v>
       </c>
       <c r="J724" s="45" t="s">
         <v>523</v>
@@ -28472,7 +28659,7 @@
         <v>497</v>
       </c>
       <c r="I725" s="47" t="s">
-        <v>1282</v>
+        <v>1131</v>
       </c>
       <c r="J725" s="45" t="s">
         <v>523</v>
@@ -28502,7 +28689,7 @@
         <v>498</v>
       </c>
       <c r="I726" s="47" t="s">
-        <v>1108</v>
+        <v>957</v>
       </c>
       <c r="J726" s="45" t="s">
         <v>523</v>
@@ -28562,7 +28749,7 @@
         <v>500</v>
       </c>
       <c r="I728" s="47" t="s">
-        <v>1283</v>
+        <v>1132</v>
       </c>
       <c r="J728" s="45" t="s">
         <v>523</v>
@@ -28571,7 +28758,7 @@
       <c r="L728" s="46"/>
       <c r="M728" s="46"/>
     </row>
-    <row r="729" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B729" s="45" t="s">
         <v>569</v>
       </c>
@@ -28622,7 +28809,7 @@
         <v>503</v>
       </c>
       <c r="I730" s="47" t="s">
-        <v>1284</v>
+        <v>1133</v>
       </c>
       <c r="J730" s="45" t="s">
         <v>523</v>
@@ -28652,7 +28839,7 @@
         <v>504</v>
       </c>
       <c r="I731" s="47" t="s">
-        <v>1285</v>
+        <v>1134</v>
       </c>
       <c r="J731" s="45" t="s">
         <v>523</v>
@@ -28682,7 +28869,7 @@
         <v>505</v>
       </c>
       <c r="I732" s="47" t="s">
-        <v>1124</v>
+        <v>973</v>
       </c>
       <c r="J732" s="45" t="s">
         <v>523</v>
@@ -28712,7 +28899,7 @@
         <v>506</v>
       </c>
       <c r="I733" s="47" t="s">
-        <v>1243</v>
+        <v>1092</v>
       </c>
       <c r="J733" s="45" t="s">
         <v>523</v>
@@ -28742,7 +28929,7 @@
         <v>507</v>
       </c>
       <c r="I734" s="47" t="s">
-        <v>1191</v>
+        <v>1040</v>
       </c>
       <c r="J734" s="45" t="s">
         <v>523</v>
@@ -28772,7 +28959,7 @@
         <v>508</v>
       </c>
       <c r="I735" s="47" t="s">
-        <v>1286</v>
+        <v>1135</v>
       </c>
       <c r="J735" s="45" t="s">
         <v>523</v>
@@ -28802,7 +28989,7 @@
         <v>509</v>
       </c>
       <c r="I736" s="47" t="s">
-        <v>1287</v>
+        <v>1136</v>
       </c>
       <c r="J736" s="45" t="s">
         <v>523</v>
@@ -28832,7 +29019,7 @@
         <v>510</v>
       </c>
       <c r="I737" s="47" t="s">
-        <v>1288</v>
+        <v>1137</v>
       </c>
       <c r="J737" s="45" t="s">
         <v>523</v>
@@ -28841,7 +29028,7 @@
       <c r="L737" s="46"/>
       <c r="M737" s="46"/>
     </row>
-    <row r="738" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B738" s="45" t="s">
         <v>569</v>
       </c>
@@ -28892,7 +29079,7 @@
         <v>511</v>
       </c>
       <c r="I739" s="47" t="s">
-        <v>1289</v>
+        <v>1138</v>
       </c>
       <c r="J739" s="45" t="s">
         <v>523</v>
@@ -28922,7 +29109,7 @@
         <v>513</v>
       </c>
       <c r="I740" s="47" t="s">
-        <v>1290</v>
+        <v>1139</v>
       </c>
       <c r="J740" s="45" t="s">
         <v>523</v>
@@ -28952,7 +29139,7 @@
         <v>514</v>
       </c>
       <c r="I741" s="47" t="s">
-        <v>1291</v>
+        <v>1140</v>
       </c>
       <c r="J741" s="45" t="s">
         <v>523</v>
@@ -28963,6 +29150,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:M741" xr:uid="{9D9C7C23-F09C-4C0C-919A-82CEE3D84D7B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
@@ -28974,7 +29166,7 @@
     <mergeCell ref="G3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -28988,17 +29180,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:M5465">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$J6="ON-HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$J6="SKIPPED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$J6="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$J6="DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:M3000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND($G6&gt;0,$J6="NEW")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G6&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
